--- a/swertres/excel_results_4.xlsx
+++ b/swertres/excel_results_4.xlsx
@@ -72,11 +72,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="0066cc33"/>
       </patternFill>
     </fill>
@@ -93,6 +88,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="0033ff33"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFFFF"/>
       </patternFill>
     </fill>
     <fill>
@@ -220,7 +220,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -247,6 +247,9 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -254,9 +257,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
@@ -268,7 +268,7 @@
     <xf numFmtId="0" fontId="2" fillId="15" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2464,7 +2464,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="P11" s="17" t="inlineStr">
+      <c r="P11" s="9" t="inlineStr">
         <is>
           <t>076</t>
         </is>
@@ -4252,7 +4252,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AK20" s="17" t="inlineStr">
+      <c r="AK20" s="16" t="inlineStr">
         <is>
           <t>607</t>
         </is>
@@ -7717,7 +7717,7 @@
           <t>05</t>
         </is>
       </c>
-      <c r="B40" s="5" t="inlineStr">
+      <c r="B40" s="17" t="inlineStr">
         <is>
           <t>241</t>
         </is>
@@ -8453,7 +8453,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AK43" s="16" t="inlineStr">
+      <c r="AK43" s="17" t="inlineStr">
         <is>
           <t>124</t>
         </is>
@@ -8959,7 +8959,7 @@
           <t>339</t>
         </is>
       </c>
-      <c r="Z46" s="13" t="inlineStr">
+      <c r="Z46" s="17" t="inlineStr">
         <is>
           <t>412</t>
         </is>
@@ -9415,7 +9415,7 @@
           <t>545</t>
         </is>
       </c>
-      <c r="E49" s="17" t="inlineStr">
+      <c r="E49" s="6" t="inlineStr">
         <is>
           <t>076</t>
         </is>
@@ -11779,7 +11779,7 @@
           <t>146</t>
         </is>
       </c>
-      <c r="AC61" s="17" t="inlineStr">
+      <c r="AC61" s="14" t="inlineStr">
         <is>
           <t>607</t>
         </is>
@@ -12350,7 +12350,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AE64" s="17" t="inlineStr">
+      <c r="AE64" s="14" t="inlineStr">
         <is>
           <t>607</t>
         </is>
@@ -12579,7 +12579,7 @@
           <t>31</t>
         </is>
       </c>
-      <c r="B66" s="17" t="inlineStr">
+      <c r="B66" s="5" t="inlineStr">
         <is>
           <t>670</t>
         </is>
@@ -13115,7 +13115,7 @@
           <t>054</t>
         </is>
       </c>
-      <c r="Q69" s="17" t="inlineStr">
+      <c r="Q69" s="10" t="inlineStr">
         <is>
           <t>706</t>
         </is>
@@ -14434,7 +14434,7 @@
           <t>373</t>
         </is>
       </c>
-      <c r="S76" s="17" t="inlineStr">
+      <c r="S76" s="10" t="inlineStr">
         <is>
           <t>706</t>
         </is>
@@ -15097,7 +15097,7 @@
           <t>12</t>
         </is>
       </c>
-      <c r="B80" s="5" t="inlineStr">
+      <c r="B80" s="17" t="inlineStr">
         <is>
           <t>421</t>
         </is>
@@ -16082,7 +16082,7 @@
           <t>064</t>
         </is>
       </c>
-      <c r="L85" s="8" t="inlineStr">
+      <c r="L85" s="17" t="inlineStr">
         <is>
           <t>124</t>
         </is>
@@ -16374,7 +16374,7 @@
           <t>100</t>
         </is>
       </c>
-      <c r="AG86" s="15" t="inlineStr">
+      <c r="AG86" s="17" t="inlineStr">
         <is>
           <t>412</t>
         </is>
@@ -16556,7 +16556,7 @@
           <t>102</t>
         </is>
       </c>
-      <c r="AF87" s="17" t="inlineStr">
+      <c r="AF87" s="15" t="inlineStr">
         <is>
           <t>670</t>
         </is>
@@ -16668,7 +16668,7 @@
           <t>405</t>
         </is>
       </c>
-      <c r="Q88" s="17" t="inlineStr">
+      <c r="Q88" s="10" t="inlineStr">
         <is>
           <t>067</t>
         </is>
@@ -18588,7 +18588,7 @@
           <t>155</t>
         </is>
       </c>
-      <c r="AA98" s="13" t="inlineStr">
+      <c r="AA98" s="17" t="inlineStr">
         <is>
           <t>412</t>
         </is>
@@ -19271,7 +19271,7 @@
           <t>173</t>
         </is>
       </c>
-      <c r="AH102" s="15" t="inlineStr">
+      <c r="AH102" s="17" t="inlineStr">
         <is>
           <t>412</t>
         </is>
@@ -19560,7 +19560,7 @@
           <t>000</t>
         </is>
       </c>
-      <c r="Q104" s="10" t="inlineStr">
+      <c r="Q104" s="17" t="inlineStr">
         <is>
           <t>412</t>
         </is>
@@ -19787,7 +19787,7 @@
           <t>348</t>
         </is>
       </c>
-      <c r="Y105" s="17" t="inlineStr">
+      <c r="Y105" s="12" t="inlineStr">
         <is>
           <t>607</t>
         </is>
@@ -19859,7 +19859,7 @@
           <t>05</t>
         </is>
       </c>
-      <c r="B106" s="5" t="inlineStr">
+      <c r="B106" s="17" t="inlineStr">
         <is>
           <t>124</t>
         </is>
@@ -21380,7 +21380,7 @@
           <t>399</t>
         </is>
       </c>
-      <c r="G114" s="6" t="inlineStr">
+      <c r="G114" s="17" t="inlineStr">
         <is>
           <t>124</t>
         </is>
@@ -22310,7 +22310,7 @@
           <t>954</t>
         </is>
       </c>
-      <c r="F119" s="17" t="inlineStr">
+      <c r="F119" s="6" t="inlineStr">
         <is>
           <t>706</t>
         </is>
@@ -22477,7 +22477,7 @@
           <t>19</t>
         </is>
       </c>
-      <c r="B120" s="5" t="inlineStr">
+      <c r="B120" s="17" t="inlineStr">
         <is>
           <t>412</t>
         </is>
@@ -22552,7 +22552,7 @@
           <t>537</t>
         </is>
       </c>
-      <c r="Q120" s="10" t="inlineStr">
+      <c r="Q120" s="17" t="inlineStr">
         <is>
           <t>124</t>
         </is>
@@ -23375,7 +23375,7 @@
           <t>536</t>
         </is>
       </c>
-      <c r="AF124" s="17" t="inlineStr">
+      <c r="AF124" s="15" t="inlineStr">
         <is>
           <t>607</t>
         </is>
@@ -23901,7 +23901,7 @@
           <t>188</t>
         </is>
       </c>
-      <c r="Y127" s="12" t="inlineStr">
+      <c r="Y127" s="17" t="inlineStr">
         <is>
           <t>421</t>
         </is>
@@ -24143,7 +24143,7 @@
           <t>764</t>
         </is>
       </c>
-      <c r="AJ128" s="16" t="inlineStr">
+      <c r="AJ128" s="17" t="inlineStr">
         <is>
           <t>241</t>
         </is>
@@ -24185,7 +24185,7 @@
           <t>686</t>
         </is>
       </c>
-      <c r="G129" s="6" t="inlineStr">
+      <c r="G129" s="17" t="inlineStr">
         <is>
           <t>421</t>
         </is>
@@ -25347,7 +25347,7 @@
           <t>193</t>
         </is>
       </c>
-      <c r="AI135" s="16" t="inlineStr">
+      <c r="AI135" s="17" t="inlineStr">
         <is>
           <t>124</t>
         </is>
@@ -25581,7 +25581,7 @@
           <t>807</t>
         </is>
       </c>
-      <c r="G137" s="6" t="inlineStr">
+      <c r="G137" s="17" t="inlineStr">
         <is>
           <t>241</t>
         </is>
@@ -26910,7 +26910,7 @@
           <t>406</t>
         </is>
       </c>
-      <c r="K144" s="8" t="inlineStr">
+      <c r="K144" s="17" t="inlineStr">
         <is>
           <t>124</t>
         </is>
@@ -26950,7 +26950,7 @@
           <t>329</t>
         </is>
       </c>
-      <c r="S144" s="17" t="inlineStr">
+      <c r="S144" s="10" t="inlineStr">
         <is>
           <t>706</t>
         </is>
@@ -27531,7 +27531,7 @@
           <t>920</t>
         </is>
       </c>
-      <c r="W147" s="12" t="inlineStr">
+      <c r="W147" s="17" t="inlineStr">
         <is>
           <t>124</t>
         </is>
@@ -28007,7 +28007,7 @@
           <t>484</t>
         </is>
       </c>
-      <c r="F150" s="17" t="inlineStr">
+      <c r="F150" s="6" t="inlineStr">
         <is>
           <t>076</t>
         </is>
@@ -28229,7 +28229,7 @@
           <t>083</t>
         </is>
       </c>
-      <c r="M151" s="17" t="inlineStr">
+      <c r="M151" s="8" t="inlineStr">
         <is>
           <t>760</t>
         </is>
@@ -28401,7 +28401,7 @@
           <t>486</t>
         </is>
       </c>
-      <c r="J152" s="17" t="inlineStr">
+      <c r="J152" s="7" t="inlineStr">
         <is>
           <t>760</t>
         </is>
@@ -28521,7 +28521,7 @@
           <t>447</t>
         </is>
       </c>
-      <c r="AH152" s="15" t="inlineStr">
+      <c r="AH152" s="17" t="inlineStr">
         <is>
           <t>421</t>
         </is>
@@ -29194,7 +29194,7 @@
           <t>510</t>
         </is>
       </c>
-      <c r="S156" s="17" t="inlineStr">
+      <c r="S156" s="10" t="inlineStr">
         <is>
           <t>076</t>
         </is>
@@ -29239,7 +29239,7 @@
           <t>174</t>
         </is>
       </c>
-      <c r="AB156" s="13" t="inlineStr">
+      <c r="AB156" s="17" t="inlineStr">
         <is>
           <t>142</t>
         </is>
@@ -29254,7 +29254,7 @@
           <t>057</t>
         </is>
       </c>
-      <c r="AE156" s="17" t="inlineStr">
+      <c r="AE156" s="14" t="inlineStr">
         <is>
           <t>076</t>
         </is>
@@ -29416,7 +29416,7 @@
           <t>812</t>
         </is>
       </c>
-      <c r="Z157" s="17" t="inlineStr">
+      <c r="Z157" s="13" t="inlineStr">
         <is>
           <t>760</t>
         </is>
@@ -29830,7 +29830,7 @@
           <t>195</t>
         </is>
       </c>
-      <c r="AH159" s="15" t="inlineStr">
+      <c r="AH159" s="17" t="inlineStr">
         <is>
           <t>214</t>
         </is>
@@ -30184,7 +30184,7 @@
           <t>917</t>
         </is>
       </c>
-      <c r="AD161" s="14" t="inlineStr">
+      <c r="AD161" s="17" t="inlineStr">
         <is>
           <t>421</t>
         </is>
@@ -30563,7 +30563,7 @@
           <t>063</t>
         </is>
       </c>
-      <c r="AE163" s="14" t="inlineStr">
+      <c r="AE163" s="17" t="inlineStr">
         <is>
           <t>142</t>
         </is>
@@ -31505,7 +31505,7 @@
           <t>510</t>
         </is>
       </c>
-      <c r="O169" s="17" t="inlineStr">
+      <c r="O169" s="9" t="inlineStr">
         <is>
           <t>076</t>
         </is>
@@ -32243,7 +32243,7 @@
           <t>899</t>
         </is>
       </c>
-      <c r="M173" s="8" t="inlineStr">
+      <c r="M173" s="17" t="inlineStr">
         <is>
           <t>412</t>
         </is>
@@ -32632,7 +32632,7 @@
           <t>734</t>
         </is>
       </c>
-      <c r="P175" s="17" t="inlineStr">
+      <c r="P175" s="9" t="inlineStr">
         <is>
           <t>067</t>
         </is>
@@ -32924,7 +32924,7 @@
           <t>935</t>
         </is>
       </c>
-      <c r="AK176" s="17" t="inlineStr">
+      <c r="AK176" s="16" t="inlineStr">
         <is>
           <t>076</t>
         </is>
@@ -33315,7 +33315,7 @@
           <t>951</t>
         </is>
       </c>
-      <c r="C179" s="5" t="inlineStr">
+      <c r="C179" s="17" t="inlineStr">
         <is>
           <t>214</t>
         </is>
@@ -34143,7 +34143,7 @@
           <t>137</t>
         </is>
       </c>
-      <c r="S183" s="17" t="inlineStr">
+      <c r="S183" s="10" t="inlineStr">
         <is>
           <t>706</t>
         </is>
@@ -35098,7 +35098,7 @@
           <t>529</t>
         </is>
       </c>
-      <c r="W188" s="12" t="inlineStr">
+      <c r="W188" s="17" t="inlineStr">
         <is>
           <t>124</t>
         </is>
@@ -35245,7 +35245,7 @@
           <t>764</t>
         </is>
       </c>
-      <c r="O189" s="17" t="inlineStr">
+      <c r="O189" s="9" t="inlineStr">
         <is>
           <t>760</t>
         </is>
@@ -35447,7 +35447,7 @@
           <t>457</t>
         </is>
       </c>
-      <c r="R190" s="17" t="inlineStr">
+      <c r="R190" s="10" t="inlineStr">
         <is>
           <t>670</t>
         </is>
@@ -35472,7 +35472,7 @@
           <t>292</t>
         </is>
       </c>
-      <c r="W190" s="12" t="inlineStr">
+      <c r="W190" s="17" t="inlineStr">
         <is>
           <t>412</t>
         </is>
@@ -35953,7 +35953,7 @@
           <t>457</t>
         </is>
       </c>
-      <c r="G193" s="6" t="inlineStr">
+      <c r="G193" s="17" t="inlineStr">
         <is>
           <t>124</t>
         </is>
@@ -36437,7 +36437,7 @@
           <t>246</t>
         </is>
       </c>
-      <c r="AC195" s="17" t="inlineStr">
+      <c r="AC195" s="14" t="inlineStr">
         <is>
           <t>760</t>
         </is>
@@ -37868,7 +37868,7 @@
           <t>195</t>
         </is>
       </c>
-      <c r="AJ203" s="17" t="inlineStr">
+      <c r="AJ203" s="16" t="inlineStr">
         <is>
           <t>760</t>
         </is>
@@ -37920,7 +37920,7 @@
           <t>372</t>
         </is>
       </c>
-      <c r="I204" s="7" t="inlineStr">
+      <c r="I204" s="17" t="inlineStr">
         <is>
           <t>214</t>
         </is>
@@ -37990,7 +37990,7 @@
           <t>479</t>
         </is>
       </c>
-      <c r="W204" s="17" t="inlineStr">
+      <c r="W204" s="12" t="inlineStr">
         <is>
           <t>706</t>
         </is>
@@ -38925,7 +38925,7 @@
           <t>156</t>
         </is>
       </c>
-      <c r="W209" s="17" t="inlineStr">
+      <c r="W209" s="12" t="inlineStr">
         <is>
           <t>607</t>
         </is>
@@ -39042,7 +39042,7 @@
           <t>422</t>
         </is>
       </c>
-      <c r="I210" s="7" t="inlineStr">
+      <c r="I210" s="17" t="inlineStr">
         <is>
           <t>412</t>
         </is>
@@ -39072,7 +39072,7 @@
           <t>050</t>
         </is>
       </c>
-      <c r="O210" s="9" t="inlineStr">
+      <c r="O210" s="17" t="inlineStr">
         <is>
           <t>214</t>
         </is>
@@ -39224,7 +39224,7 @@
           <t>256</t>
         </is>
       </c>
-      <c r="H211" s="17" t="inlineStr">
+      <c r="H211" s="7" t="inlineStr">
         <is>
           <t>607</t>
         </is>
@@ -39688,7 +39688,7 @@
           <t>437</t>
         </is>
       </c>
-      <c r="Z213" s="17" t="inlineStr">
+      <c r="Z213" s="13" t="inlineStr">
         <is>
           <t>607</t>
         </is>
@@ -40219,7 +40219,7 @@
           <t>817</t>
         </is>
       </c>
-      <c r="T216" s="11" t="inlineStr">
+      <c r="T216" s="17" t="inlineStr">
         <is>
           <t>142</t>
         </is>
@@ -41089,7 +41089,7 @@
           <t>850</t>
         </is>
       </c>
-      <c r="G221" s="6" t="inlineStr">
+      <c r="G221" s="17" t="inlineStr">
         <is>
           <t>412</t>
         </is>
@@ -41376,7 +41376,7 @@
           <t>595</t>
         </is>
       </c>
-      <c r="AA222" s="13" t="inlineStr">
+      <c r="AA222" s="17" t="inlineStr">
         <is>
           <t>241</t>
         </is>
@@ -41401,7 +41401,7 @@
           <t>591</t>
         </is>
       </c>
-      <c r="AF222" s="15" t="inlineStr">
+      <c r="AF222" s="17" t="inlineStr">
         <is>
           <t>241</t>
         </is>
@@ -41645,7 +41645,7 @@
           <t>328</t>
         </is>
       </c>
-      <c r="F224" s="6" t="inlineStr">
+      <c r="F224" s="17" t="inlineStr">
         <is>
           <t>241</t>
         </is>
@@ -41655,7 +41655,7 @@
           <t>987</t>
         </is>
       </c>
-      <c r="H224" s="7" t="inlineStr">
+      <c r="H224" s="17" t="inlineStr">
         <is>
           <t>241</t>
         </is>
@@ -41952,7 +41952,7 @@
           <t>438</t>
         </is>
       </c>
-      <c r="AD225" s="14" t="inlineStr">
+      <c r="AD225" s="17" t="inlineStr">
         <is>
           <t>421</t>
         </is>
@@ -42321,7 +42321,7 @@
           <t>075</t>
         </is>
       </c>
-      <c r="AC227" s="17" t="inlineStr">
+      <c r="AC227" s="14" t="inlineStr">
         <is>
           <t>670</t>
         </is>
@@ -42361,7 +42361,7 @@
           <t>923</t>
         </is>
       </c>
-      <c r="AK227" s="16" t="inlineStr">
+      <c r="AK227" s="17" t="inlineStr">
         <is>
           <t>241</t>
         </is>
@@ -42585,7 +42585,7 @@
           <t>483</t>
         </is>
       </c>
-      <c r="G229" s="6" t="inlineStr">
+      <c r="G229" s="17" t="inlineStr">
         <is>
           <t>412</t>
         </is>
@@ -42792,7 +42792,7 @@
           <t>504</t>
         </is>
       </c>
-      <c r="K230" s="17" t="inlineStr">
+      <c r="K230" s="8" t="inlineStr">
         <is>
           <t>706</t>
         </is>
@@ -42944,7 +42944,7 @@
           <t>986</t>
         </is>
       </c>
-      <c r="D231" s="17" t="inlineStr">
+      <c r="D231" s="5" t="inlineStr">
         <is>
           <t>706</t>
         </is>
@@ -43560,7 +43560,7 @@
           <t>268</t>
         </is>
       </c>
-      <c r="AI234" s="17" t="inlineStr">
+      <c r="AI234" s="16" t="inlineStr">
         <is>
           <t>706</t>
         </is>
@@ -43914,7 +43914,7 @@
           <t>474</t>
         </is>
       </c>
-      <c r="AE236" s="14" t="inlineStr">
+      <c r="AE236" s="17" t="inlineStr">
         <is>
           <t>124</t>
         </is>
@@ -44001,7 +44001,7 @@
           <t>023</t>
         </is>
       </c>
-      <c r="K237" s="8" t="inlineStr">
+      <c r="K237" s="17" t="inlineStr">
         <is>
           <t>421</t>
         </is>
@@ -44016,7 +44016,7 @@
           <t>970</t>
         </is>
       </c>
-      <c r="N237" s="17" t="inlineStr">
+      <c r="N237" s="9" t="inlineStr">
         <is>
           <t>670</t>
         </is>
@@ -44607,7 +44607,7 @@
           <t>193</t>
         </is>
       </c>
-      <c r="T240" s="11" t="inlineStr">
+      <c r="T240" s="17" t="inlineStr">
         <is>
           <t>214</t>
         </is>
@@ -44921,12 +44921,12 @@
           <t>626</t>
         </is>
       </c>
-      <c r="H242" s="7" t="inlineStr">
+      <c r="H242" s="17" t="inlineStr">
         <is>
           <t>421</t>
         </is>
       </c>
-      <c r="I242" s="7" t="inlineStr">
+      <c r="I242" s="17" t="inlineStr">
         <is>
           <t>421</t>
         </is>
@@ -45552,7 +45552,7 @@
           <t>058</t>
         </is>
       </c>
-      <c r="V245" s="17" t="inlineStr">
+      <c r="V245" s="11" t="inlineStr">
         <is>
           <t>076</t>
         </is>
@@ -45709,7 +45709,7 @@
           <t>601</t>
         </is>
       </c>
-      <c r="P246" s="17" t="inlineStr">
+      <c r="P246" s="9" t="inlineStr">
         <is>
           <t>760</t>
         </is>
@@ -45996,7 +45996,7 @@
           <t>159</t>
         </is>
       </c>
-      <c r="AJ247" s="16" t="inlineStr">
+      <c r="AJ247" s="17" t="inlineStr">
         <is>
           <t>214</t>
         </is>
@@ -46402,7 +46402,7 @@
           <t>535</t>
         </is>
       </c>
-      <c r="E250" s="6" t="inlineStr">
+      <c r="E250" s="17" t="inlineStr">
         <is>
           <t>124</t>
         </is>
@@ -47180,7 +47180,7 @@
           <t>611</t>
         </is>
       </c>
-      <c r="K254" s="8" t="inlineStr">
+      <c r="K254" s="17" t="inlineStr">
         <is>
           <t>241</t>
         </is>
@@ -48115,7 +48115,7 @@
           <t>220</t>
         </is>
       </c>
-      <c r="K259" s="8" t="inlineStr">
+      <c r="K259" s="17" t="inlineStr">
         <is>
           <t>124</t>
         </is>
@@ -48240,7 +48240,7 @@
           <t>191</t>
         </is>
       </c>
-      <c r="AJ259" s="16" t="inlineStr">
+      <c r="AJ259" s="17" t="inlineStr">
         <is>
           <t>124</t>
         </is>
@@ -48272,7 +48272,7 @@
           <t>871</t>
         </is>
       </c>
-      <c r="E260" s="17" t="inlineStr">
+      <c r="E260" s="6" t="inlineStr">
         <is>
           <t>760</t>
         </is>
@@ -48454,7 +48454,7 @@
           <t>506</t>
         </is>
       </c>
-      <c r="D261" s="17" t="inlineStr">
+      <c r="D261" s="5" t="inlineStr">
         <is>
           <t>760</t>
         </is>
@@ -48883,7 +48883,7 @@
           <t>090</t>
         </is>
       </c>
-      <c r="O263" s="9" t="inlineStr">
+      <c r="O263" s="17" t="inlineStr">
         <is>
           <t>142</t>
         </is>
@@ -49506,7 +49506,7 @@
           <t>658</t>
         </is>
       </c>
-      <c r="J267" s="17" t="inlineStr">
+      <c r="J267" s="7" t="inlineStr">
         <is>
           <t>076</t>
         </is>
@@ -49950,7 +49950,7 @@
           <t>546</t>
         </is>
       </c>
-      <c r="X269" s="17" t="inlineStr">
+      <c r="X269" s="12" t="inlineStr">
         <is>
           <t>067</t>
         </is>
@@ -50658,7 +50658,7 @@
           <t>420</t>
         </is>
       </c>
-      <c r="P273" s="17" t="inlineStr">
+      <c r="P273" s="9" t="inlineStr">
         <is>
           <t>607</t>
         </is>
@@ -50790,7 +50790,7 @@
           <t>445</t>
         </is>
       </c>
-      <c r="E274" s="17" t="inlineStr">
+      <c r="E274" s="6" t="inlineStr">
         <is>
           <t>706</t>
         </is>
@@ -51578,7 +51578,7 @@
           <t>452</t>
         </is>
       </c>
-      <c r="M278" s="17" t="inlineStr">
+      <c r="M278" s="8" t="inlineStr">
         <is>
           <t>607</t>
         </is>
@@ -51638,7 +51638,7 @@
           <t>230</t>
         </is>
       </c>
-      <c r="Y278" s="12" t="inlineStr">
+      <c r="Y278" s="17" t="inlineStr">
         <is>
           <t>421</t>
         </is>
@@ -52047,7 +52047,7 @@
           <t>914</t>
         </is>
       </c>
-      <c r="AF280" s="17" t="inlineStr">
+      <c r="AF280" s="15" t="inlineStr">
         <is>
           <t>067</t>
         </is>
@@ -52244,7 +52244,7 @@
           <t>534</t>
         </is>
       </c>
-      <c r="AH281" s="15" t="inlineStr">
+      <c r="AH281" s="17" t="inlineStr">
         <is>
           <t>241</t>
         </is>
@@ -52548,7 +52548,7 @@
           <t>138</t>
         </is>
       </c>
-      <c r="T283" s="11" t="inlineStr">
+      <c r="T283" s="17" t="inlineStr">
         <is>
           <t>421</t>
         </is>
@@ -52790,7 +52790,7 @@
           <t>445</t>
         </is>
       </c>
-      <c r="AE284" s="17" t="inlineStr">
+      <c r="AE284" s="14" t="inlineStr">
         <is>
           <t>760</t>
         </is>
@@ -53211,7 +53211,7 @@
           <t>283</t>
         </is>
       </c>
-      <c r="C287" s="5" t="inlineStr">
+      <c r="C287" s="17" t="inlineStr">
         <is>
           <t>124</t>
         </is>
@@ -53650,7 +53650,7 @@
           <t>157</t>
         </is>
       </c>
-      <c r="P289" s="17" t="inlineStr">
+      <c r="P289" s="9" t="inlineStr">
         <is>
           <t>607</t>
         </is>
@@ -54104,7 +54104,7 @@
           <t>120</t>
         </is>
       </c>
-      <c r="AF291" s="17" t="inlineStr">
+      <c r="AF291" s="15" t="inlineStr">
         <is>
           <t>067</t>
         </is>
@@ -54373,7 +54373,7 @@
           <t>245</t>
         </is>
       </c>
-      <c r="K293" s="8" t="inlineStr">
+      <c r="K293" s="17" t="inlineStr">
         <is>
           <t>142</t>
         </is>
@@ -55054,7 +55054,7 @@
           <t>761</t>
         </is>
       </c>
-      <c r="AI296" s="17" t="inlineStr">
+      <c r="AI296" s="16" t="inlineStr">
         <is>
           <t>076</t>
         </is>
@@ -56158,7 +56158,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="N303" s="9" t="inlineStr">
+      <c r="N303" s="17" t="inlineStr">
         <is>
           <t>142</t>
         </is>
@@ -56911,7 +56911,7 @@
           <t>048</t>
         </is>
       </c>
-      <c r="O307" s="17" t="inlineStr">
+      <c r="O307" s="9" t="inlineStr">
         <is>
           <t>706</t>
         </is>
@@ -57188,7 +57188,7 @@
           <t>772</t>
         </is>
       </c>
-      <c r="AG308" s="15" t="inlineStr">
+      <c r="AG308" s="17" t="inlineStr">
         <is>
           <t>241</t>
         </is>
@@ -58058,7 +58058,7 @@
           <t>249</t>
         </is>
       </c>
-      <c r="T313" s="17" t="inlineStr">
+      <c r="T313" s="11" t="inlineStr">
         <is>
           <t>760</t>
         </is>
@@ -58175,7 +58175,7 @@
           <t>037</t>
         </is>
       </c>
-      <c r="F314" s="17" t="inlineStr">
+      <c r="F314" s="6" t="inlineStr">
         <is>
           <t>706</t>
         </is>
@@ -58300,7 +58300,7 @@
           <t>363</t>
         </is>
       </c>
-      <c r="AE314" s="14" t="inlineStr">
+      <c r="AE314" s="17" t="inlineStr">
         <is>
           <t>214</t>
         </is>
@@ -58517,7 +58517,7 @@
           <t>882</t>
         </is>
       </c>
-      <c r="AK315" s="17" t="inlineStr">
+      <c r="AK315" s="16" t="inlineStr">
         <is>
           <t>076</t>
         </is>
@@ -59225,7 +59225,7 @@
           <t>156</t>
         </is>
       </c>
-      <c r="AC319" s="17" t="inlineStr">
+      <c r="AC319" s="14" t="inlineStr">
         <is>
           <t>760</t>
         </is>
@@ -59442,7 +59442,7 @@
           <t>217</t>
         </is>
       </c>
-      <c r="AI320" s="16" t="inlineStr">
+      <c r="AI320" s="17" t="inlineStr">
         <is>
           <t>421</t>
         </is>
@@ -59731,7 +59731,7 @@
           <t>018</t>
         </is>
       </c>
-      <c r="R322" s="10" t="inlineStr">
+      <c r="R322" s="17" t="inlineStr">
         <is>
           <t>124</t>
         </is>
@@ -60539,7 +60539,7 @@
           <t>820</t>
         </is>
       </c>
-      <c r="AD326" s="14" t="inlineStr">
+      <c r="AD326" s="17" t="inlineStr">
         <is>
           <t>214</t>
         </is>
@@ -61733,7 +61733,7 @@
           <t>977</t>
         </is>
       </c>
-      <c r="AA333" s="17" t="inlineStr">
+      <c r="AA333" s="13" t="inlineStr">
         <is>
           <t>067</t>
         </is>
@@ -62092,7 +62092,7 @@
           <t>805</t>
         </is>
       </c>
-      <c r="X335" s="12" t="inlineStr">
+      <c r="X335" s="17" t="inlineStr">
         <is>
           <t>421</t>
         </is>
@@ -62204,7 +62204,7 @@
           <t>747</t>
         </is>
       </c>
-      <c r="I336" s="7" t="inlineStr">
+      <c r="I336" s="17" t="inlineStr">
         <is>
           <t>241</t>
         </is>
@@ -62740,7 +62740,7 @@
           <t>341</t>
         </is>
       </c>
-      <c r="D339" s="17" t="inlineStr">
+      <c r="D339" s="5" t="inlineStr">
         <is>
           <t>067</t>
         </is>
@@ -62865,7 +62865,7 @@
           <t>657</t>
         </is>
       </c>
-      <c r="AC339" s="17" t="inlineStr">
+      <c r="AC339" s="14" t="inlineStr">
         <is>
           <t>670</t>
         </is>
@@ -63376,7 +63376,7 @@
           <t>832</t>
         </is>
       </c>
-      <c r="S342" s="17" t="inlineStr">
+      <c r="S342" s="10" t="inlineStr">
         <is>
           <t>067</t>
         </is>
@@ -63446,7 +63446,7 @@
           <t>913</t>
         </is>
       </c>
-      <c r="AG342" s="17" t="inlineStr">
+      <c r="AG342" s="15" t="inlineStr">
         <is>
           <t>607</t>
         </is>
@@ -64443,7 +64443,7 @@
           <t>582</t>
         </is>
       </c>
-      <c r="H348" s="7" t="inlineStr">
+      <c r="H348" s="17" t="inlineStr">
         <is>
           <t>412</t>
         </is>
@@ -65523,7 +65523,7 @@
           <t>791</t>
         </is>
       </c>
-      <c r="AK353" s="17" t="inlineStr">
+      <c r="AK353" s="16" t="inlineStr">
         <is>
           <t>670</t>
         </is>
@@ -65852,7 +65852,7 @@
           <t>926</t>
         </is>
       </c>
-      <c r="AB355" s="17" t="inlineStr">
+      <c r="AB355" s="13" t="inlineStr">
         <is>
           <t>067</t>
         </is>
@@ -65897,7 +65897,7 @@
           <t>547</t>
         </is>
       </c>
-      <c r="AK355" s="17" t="inlineStr">
+      <c r="AK355" s="16" t="inlineStr">
         <is>
           <t>760</t>
         </is>
@@ -66393,7 +66393,7 @@
           <t>867</t>
         </is>
       </c>
-      <c r="X358" s="12" t="inlineStr">
+      <c r="X358" s="17" t="inlineStr">
         <is>
           <t>142</t>
         </is>
@@ -68664,7 +68664,7 @@
           <t>621</t>
         </is>
       </c>
-      <c r="L371" s="8" t="inlineStr">
+      <c r="L371" s="17" t="inlineStr">
         <is>
           <t>421</t>
         </is>
@@ -68961,7 +68961,7 @@
           <t>972</t>
         </is>
       </c>
-      <c r="AH372" s="15" t="inlineStr">
+      <c r="AH372" s="17" t="inlineStr">
         <is>
           <t>142</t>
         </is>
@@ -70726,7 +70726,7 @@
           <t>691</t>
         </is>
       </c>
-      <c r="M382" s="8" t="inlineStr">
+      <c r="M382" s="17" t="inlineStr">
         <is>
           <t>421</t>
         </is>
@@ -70883,7 +70883,7 @@
           <t>765</t>
         </is>
       </c>
-      <c r="G383" s="17" t="inlineStr">
+      <c r="G383" s="6" t="inlineStr">
         <is>
           <t>076</t>
         </is>
@@ -71125,7 +71125,7 @@
           <t>854</t>
         </is>
       </c>
-      <c r="R384" s="10" t="inlineStr">
+      <c r="R384" s="17" t="inlineStr">
         <is>
           <t>214</t>
         </is>
@@ -71160,7 +71160,7 @@
           <t>198</t>
         </is>
       </c>
-      <c r="Y384" s="17" t="inlineStr">
+      <c r="Y384" s="12" t="inlineStr">
         <is>
           <t>760</t>
         </is>
@@ -71469,7 +71469,7 @@
           <t>043</t>
         </is>
       </c>
-      <c r="L386" s="17" t="inlineStr">
+      <c r="L386" s="8" t="inlineStr">
         <is>
           <t>076</t>
         </is>
@@ -71798,7 +71798,7 @@
           <t>675</t>
         </is>
       </c>
-      <c r="C388" s="17" t="inlineStr">
+      <c r="C388" s="5" t="inlineStr">
         <is>
           <t>706</t>
         </is>
@@ -72676,7 +72676,7 @@
           <t>975</t>
         </is>
       </c>
-      <c r="AC392" s="14" t="inlineStr">
+      <c r="AC392" s="17" t="inlineStr">
         <is>
           <t>124</t>
         </is>
@@ -72691,7 +72691,7 @@
           <t>864</t>
         </is>
       </c>
-      <c r="AF392" s="15" t="inlineStr">
+      <c r="AF392" s="17" t="inlineStr">
         <is>
           <t>412</t>
         </is>
@@ -72990,7 +72990,7 @@
           <t>868</t>
         </is>
       </c>
-      <c r="Q394" s="10" t="inlineStr">
+      <c r="Q394" s="17" t="inlineStr">
         <is>
           <t>421</t>
         </is>
@@ -73237,7 +73237,7 @@
           <t>733</t>
         </is>
       </c>
-      <c r="AC395" s="14" t="inlineStr">
+      <c r="AC395" s="17" t="inlineStr">
         <is>
           <t>214</t>
         </is>
@@ -73845,7 +73845,7 @@
           <t>011</t>
         </is>
       </c>
-      <c r="U399" s="11" t="inlineStr">
+      <c r="U399" s="17" t="inlineStr">
         <is>
           <t>421</t>
         </is>
@@ -74623,7 +74623,7 @@
           <t>360</t>
         </is>
       </c>
-      <c r="AA403" s="17" t="inlineStr">
+      <c r="AA403" s="13" t="inlineStr">
         <is>
           <t>607</t>
         </is>
@@ -75857,7 +75857,7 @@
           <t>299</t>
         </is>
       </c>
-      <c r="L410" s="17" t="inlineStr">
+      <c r="L410" s="8" t="inlineStr">
         <is>
           <t>607</t>
         </is>
@@ -76306,7 +76306,7 @@
           <t>019</t>
         </is>
       </c>
-      <c r="AA412" s="13" t="inlineStr">
+      <c r="AA412" s="17" t="inlineStr">
         <is>
           <t>421</t>
         </is>
@@ -76590,7 +76590,7 @@
           <t>683</t>
         </is>
       </c>
-      <c r="I414" s="17" t="inlineStr">
+      <c r="I414" s="7" t="inlineStr">
         <is>
           <t>067</t>
         </is>
@@ -76929,7 +76929,7 @@
           <t>18</t>
         </is>
       </c>
-      <c r="B416" s="17" t="inlineStr">
+      <c r="B416" s="5" t="inlineStr">
         <is>
           <t>760</t>
         </is>
@@ -78248,7 +78248,7 @@
           <t>757</t>
         </is>
       </c>
-      <c r="D423" s="5" t="inlineStr">
+      <c r="D423" s="17" t="inlineStr">
         <is>
           <t>214</t>
         </is>
@@ -78560,7 +78560,7 @@
           <t>463</t>
         </is>
       </c>
-      <c r="AC424" s="17" t="inlineStr">
+      <c r="AC424" s="14" t="inlineStr">
         <is>
           <t>706</t>
         </is>
@@ -78697,7 +78697,7 @@
           <t>682</t>
         </is>
       </c>
-      <c r="S425" s="17" t="inlineStr">
+      <c r="S425" s="10" t="inlineStr">
         <is>
           <t>076</t>
         </is>
@@ -79861,7 +79861,7 @@
           <t>102</t>
         </is>
       </c>
-      <c r="J432" s="17" t="inlineStr">
+      <c r="J432" s="7" t="inlineStr">
         <is>
           <t>670</t>
         </is>
@@ -80265,12 +80265,12 @@
           <t>716</t>
         </is>
       </c>
-      <c r="P434" s="9" t="inlineStr">
+      <c r="P434" s="17" t="inlineStr">
         <is>
           <t>214</t>
         </is>
       </c>
-      <c r="Q434" s="17" t="inlineStr">
+      <c r="Q434" s="10" t="inlineStr">
         <is>
           <t>076</t>
         </is>
@@ -80704,7 +80704,7 @@
           <t>878</t>
         </is>
       </c>
-      <c r="AC436" s="14" t="inlineStr">
+      <c r="AC436" s="17" t="inlineStr">
         <is>
           <t>214</t>
         </is>
@@ -80761,7 +80761,7 @@
           <t>952</t>
         </is>
       </c>
-      <c r="C437" s="17" t="inlineStr">
+      <c r="C437" s="5" t="inlineStr">
         <is>
           <t>706</t>
         </is>
@@ -80926,7 +80926,7 @@
           <t>178</t>
         </is>
       </c>
-      <c r="AJ437" s="16" t="inlineStr">
+      <c r="AJ437" s="17" t="inlineStr">
         <is>
           <t>241</t>
         </is>
@@ -81539,7 +81539,7 @@
           <t>724</t>
         </is>
       </c>
-      <c r="I441" s="7" t="inlineStr">
+      <c r="I441" s="17" t="inlineStr">
         <is>
           <t>421</t>
         </is>
@@ -82008,7 +82008,7 @@
           <t>119</t>
         </is>
       </c>
-      <c r="AB443" s="17" t="inlineStr">
+      <c r="AB443" s="13" t="inlineStr">
         <is>
           <t>607</t>
         </is>
@@ -82033,7 +82033,7 @@
           <t>797</t>
         </is>
       </c>
-      <c r="AG443" s="15" t="inlineStr">
+      <c r="AG443" s="17" t="inlineStr">
         <is>
           <t>124</t>
         </is>
@@ -82085,7 +82085,7 @@
           <t>683</t>
         </is>
       </c>
-      <c r="F444" s="17" t="inlineStr">
+      <c r="F444" s="6" t="inlineStr">
         <is>
           <t>076</t>
         </is>
@@ -82676,7 +82676,7 @@
           <t>064</t>
         </is>
       </c>
-      <c r="L447" s="8" t="inlineStr">
+      <c r="L447" s="17" t="inlineStr">
         <is>
           <t>214</t>
         </is>
@@ -82686,7 +82686,7 @@
           <t>739</t>
         </is>
       </c>
-      <c r="N447" s="17" t="inlineStr">
+      <c r="N447" s="9" t="inlineStr">
         <is>
           <t>607</t>
         </is>
@@ -82726,7 +82726,7 @@
           <t>001</t>
         </is>
       </c>
-      <c r="V447" s="17" t="inlineStr">
+      <c r="V447" s="11" t="inlineStr">
         <is>
           <t>607</t>
         </is>
@@ -83464,7 +83464,7 @@
           <t>104</t>
         </is>
       </c>
-      <c r="T451" s="17" t="inlineStr">
+      <c r="T451" s="11" t="inlineStr">
         <is>
           <t>760</t>
         </is>
@@ -83833,12 +83833,12 @@
           <t>116</t>
         </is>
       </c>
-      <c r="S453" s="10" t="inlineStr">
+      <c r="S453" s="17" t="inlineStr">
         <is>
           <t>241</t>
         </is>
       </c>
-      <c r="T453" s="11" t="inlineStr">
+      <c r="T453" s="17" t="inlineStr">
         <is>
           <t>241</t>
         </is>
@@ -84045,7 +84045,7 @@
           <t>795</t>
         </is>
       </c>
-      <c r="X454" s="12" t="inlineStr">
+      <c r="X454" s="17" t="inlineStr">
         <is>
           <t>241</t>
         </is>
@@ -84439,7 +84439,7 @@
           <t>547</t>
         </is>
       </c>
-      <c r="AB456" s="13" t="inlineStr">
+      <c r="AB456" s="17" t="inlineStr">
         <is>
           <t>412</t>
         </is>
@@ -84464,7 +84464,7 @@
           <t>612</t>
         </is>
       </c>
-      <c r="AG456" s="15" t="inlineStr">
+      <c r="AG456" s="17" t="inlineStr">
         <is>
           <t>142</t>
         </is>
@@ -84576,7 +84576,7 @@
           <t>807</t>
         </is>
       </c>
-      <c r="R457" s="17" t="inlineStr">
+      <c r="R457" s="10" t="inlineStr">
         <is>
           <t>670</t>
         </is>
@@ -84940,7 +84940,7 @@
           <t>139</t>
         </is>
       </c>
-      <c r="P459" s="17" t="inlineStr">
+      <c r="P459" s="9" t="inlineStr">
         <is>
           <t>067</t>
         </is>
@@ -86650,7 +86650,7 @@
           <t>973</t>
         </is>
       </c>
-      <c r="D469" s="17" t="inlineStr">
+      <c r="D469" s="5" t="inlineStr">
         <is>
           <t>706</t>
         </is>
@@ -87558,7 +87558,7 @@
           <t>665</t>
         </is>
       </c>
-      <c r="AJ473" s="16" t="inlineStr">
+      <c r="AJ473" s="17" t="inlineStr">
         <is>
           <t>241</t>
         </is>
@@ -87882,7 +87882,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="Z475" s="13" t="inlineStr">
+      <c r="Z475" s="17" t="inlineStr">
         <is>
           <t>421</t>
         </is>
@@ -88448,7 +88448,7 @@
           <t>346</t>
         </is>
       </c>
-      <c r="AA478" s="13" t="inlineStr">
+      <c r="AA478" s="17" t="inlineStr">
         <is>
           <t>241</t>
         </is>
@@ -88914,7 +88914,7 @@
           <t>840</t>
         </is>
       </c>
-      <c r="H481" s="17" t="inlineStr">
+      <c r="H481" s="7" t="inlineStr">
         <is>
           <t>670</t>
         </is>
@@ -90490,7 +90490,7 @@
           <t>900</t>
         </is>
       </c>
-      <c r="X489" s="17" t="inlineStr">
+      <c r="X489" s="12" t="inlineStr">
         <is>
           <t>076</t>
         </is>
@@ -91829,7 +91829,7 @@
           <t>446</t>
         </is>
       </c>
-      <c r="F498" s="6" t="inlineStr">
+      <c r="F498" s="17" t="inlineStr">
         <is>
           <t>142</t>
         </is>
@@ -92495,7 +92495,7 @@
           <t>772</t>
         </is>
       </c>
-      <c r="H506" s="7" t="inlineStr">
+      <c r="H506" s="17" t="inlineStr">
         <is>
           <t>124</t>
         </is>
@@ -92587,7 +92587,7 @@
           <t>930</t>
         </is>
       </c>
-      <c r="J507" s="17" t="inlineStr">
+      <c r="J507" s="7" t="inlineStr">
         <is>
           <t>607</t>
         </is>
@@ -92972,7 +92972,7 @@
           <t>498</t>
         </is>
       </c>
-      <c r="E512" s="6" t="inlineStr">
+      <c r="E512" s="17" t="inlineStr">
         <is>
           <t>241</t>
         </is>
@@ -93638,7 +93638,7 @@
           <t>863</t>
         </is>
       </c>
-      <c r="G520" s="17" t="inlineStr">
+      <c r="G520" s="6" t="inlineStr">
         <is>
           <t>706</t>
         </is>
@@ -94011,7 +94011,7 @@
           <t>990</t>
         </is>
       </c>
-      <c r="P524" s="9" t="inlineStr">
+      <c r="P524" s="17" t="inlineStr">
         <is>
           <t>142</t>
         </is>
@@ -94175,7 +94175,7 @@
           <t>058</t>
         </is>
       </c>
-      <c r="P526" s="17" t="inlineStr">
+      <c r="P526" s="9" t="inlineStr">
         <is>
           <t>067</t>
         </is>
@@ -94222,7 +94222,7 @@
           <t>797</t>
         </is>
       </c>
-      <c r="I527" s="7" t="inlineStr">
+      <c r="I527" s="17" t="inlineStr">
         <is>
           <t>412</t>
         </is>

--- a/swertres/excel_results_4.xlsx
+++ b/swertres/excel_results_4.xlsx
@@ -33,7 +33,7 @@
       <sz val="21"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="15">
     <fill>
       <patternFill/>
     </fill>
@@ -88,11 +88,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="0033ff33"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFFFFF"/>
       </patternFill>
     </fill>
     <fill>
@@ -212,7 +207,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -220,11 +215,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
@@ -259,24 +251,20 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
     <cellStyle name="def_style" xfId="1" hidden="0"/>
     <cellStyle name="res_style" xfId="2" hidden="0"/>
-    <cellStyle name="res_macth_style" xfId="3" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
@@ -1215,7 +1203,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AB4" s="17" t="inlineStr">
+      <c r="AB4" s="13" t="inlineStr">
         <is>
           <t>350</t>
         </is>
@@ -4581,7 +4569,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AB22" s="17" t="inlineStr">
+      <c r="AB22" s="13" t="inlineStr">
         <is>
           <t>053</t>
         </is>
@@ -7717,7 +7705,7 @@
           <t>05</t>
         </is>
       </c>
-      <c r="B40" s="17" t="inlineStr">
+      <c r="B40" s="5" t="inlineStr">
         <is>
           <t>241</t>
         </is>
@@ -7964,7 +7952,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="N41" s="17" t="inlineStr">
+      <c r="N41" s="9" t="inlineStr">
         <is>
           <t>503</t>
         </is>
@@ -8091,7 +8079,7 @@
           <t>07</t>
         </is>
       </c>
-      <c r="B42" s="17" t="inlineStr">
+      <c r="B42" s="5" t="inlineStr">
         <is>
           <t>350</t>
         </is>
@@ -8453,7 +8441,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AK43" s="17" t="inlineStr">
+      <c r="AK43" s="16" t="inlineStr">
         <is>
           <t>124</t>
         </is>
@@ -8550,7 +8538,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="S44" s="17" t="inlineStr">
+      <c r="S44" s="10" t="inlineStr">
         <is>
           <t>305</t>
         </is>
@@ -8959,7 +8947,7 @@
           <t>339</t>
         </is>
       </c>
-      <c r="Z46" s="17" t="inlineStr">
+      <c r="Z46" s="13" t="inlineStr">
         <is>
           <t>412</t>
         </is>
@@ -9784,7 +9772,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="D51" s="17" t="inlineStr">
+      <c r="D51" s="5" t="inlineStr">
         <is>
           <t>053</t>
         </is>
@@ -9859,7 +9847,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="S51" s="17" t="inlineStr">
+      <c r="S51" s="10" t="inlineStr">
         <is>
           <t>350</t>
         </is>
@@ -10607,7 +10595,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="S55" s="17" t="inlineStr">
+      <c r="S55" s="10" t="inlineStr">
         <is>
           <t>305</t>
         </is>
@@ -11405,7 +11393,7 @@
           <t>641</t>
         </is>
       </c>
-      <c r="AC59" s="17" t="inlineStr">
+      <c r="AC59" s="14" t="inlineStr">
         <is>
           <t>053</t>
         </is>
@@ -11936,7 +11924,7 @@
           <t>950</t>
         </is>
       </c>
-      <c r="W62" s="17" t="inlineStr">
+      <c r="W62" s="12" t="inlineStr">
         <is>
           <t>053</t>
         </is>
@@ -12123,7 +12111,7 @@
           <t>171</t>
         </is>
       </c>
-      <c r="W63" s="17" t="inlineStr">
+      <c r="W63" s="12" t="inlineStr">
         <is>
           <t>530</t>
         </is>
@@ -12340,7 +12328,7 @@
           <t>622</t>
         </is>
       </c>
-      <c r="AC64" s="17" t="inlineStr">
+      <c r="AC64" s="14" t="inlineStr">
         <is>
           <t>035</t>
         </is>
@@ -14536,7 +14524,7 @@
           <t>09</t>
         </is>
       </c>
-      <c r="B77" s="17" t="inlineStr">
+      <c r="B77" s="5" t="inlineStr">
         <is>
           <t>503</t>
         </is>
@@ -14868,7 +14856,7 @@
           <t>579</t>
         </is>
       </c>
-      <c r="AE78" s="17" t="inlineStr">
+      <c r="AE78" s="14" t="inlineStr">
         <is>
           <t>035</t>
         </is>
@@ -15097,7 +15085,7 @@
           <t>12</t>
         </is>
       </c>
-      <c r="B80" s="17" t="inlineStr">
+      <c r="B80" s="5" t="inlineStr">
         <is>
           <t>421</t>
         </is>
@@ -15272,7 +15260,7 @@
           <t>783</t>
         </is>
       </c>
-      <c r="AK80" s="17" t="inlineStr">
+      <c r="AK80" s="16" t="inlineStr">
         <is>
           <t>530</t>
         </is>
@@ -15471,7 +15459,7 @@
           <t>14</t>
         </is>
       </c>
-      <c r="B82" s="17" t="inlineStr">
+      <c r="B82" s="5" t="inlineStr">
         <is>
           <t>530</t>
         </is>
@@ -16082,7 +16070,7 @@
           <t>064</t>
         </is>
       </c>
-      <c r="L85" s="17" t="inlineStr">
+      <c r="L85" s="8" t="inlineStr">
         <is>
           <t>124</t>
         </is>
@@ -16374,7 +16362,7 @@
           <t>100</t>
         </is>
       </c>
-      <c r="AG86" s="17" t="inlineStr">
+      <c r="AG86" s="15" t="inlineStr">
         <is>
           <t>412</t>
         </is>
@@ -18047,7 +18035,7 @@
           <t>697</t>
         </is>
       </c>
-      <c r="AE95" s="17" t="inlineStr">
+      <c r="AE95" s="14" t="inlineStr">
         <is>
           <t>035</t>
         </is>
@@ -18588,7 +18576,7 @@
           <t>155</t>
         </is>
       </c>
-      <c r="AA98" s="17" t="inlineStr">
+      <c r="AA98" s="13" t="inlineStr">
         <is>
           <t>412</t>
         </is>
@@ -19271,7 +19259,7 @@
           <t>173</t>
         </is>
       </c>
-      <c r="AH102" s="17" t="inlineStr">
+      <c r="AH102" s="15" t="inlineStr">
         <is>
           <t>412</t>
         </is>
@@ -19560,7 +19548,7 @@
           <t>000</t>
         </is>
       </c>
-      <c r="Q104" s="17" t="inlineStr">
+      <c r="Q104" s="10" t="inlineStr">
         <is>
           <t>412</t>
         </is>
@@ -19859,7 +19847,7 @@
           <t>05</t>
         </is>
       </c>
-      <c r="B106" s="17" t="inlineStr">
+      <c r="B106" s="5" t="inlineStr">
         <is>
           <t>124</t>
         </is>
@@ -20101,7 +20089,7 @@
           <t>212</t>
         </is>
       </c>
-      <c r="M107" s="17" t="inlineStr">
+      <c r="M107" s="8" t="inlineStr">
         <is>
           <t>053</t>
         </is>
@@ -20752,7 +20740,7 @@
           <t>000</t>
         </is>
       </c>
-      <c r="AE110" s="17" t="inlineStr">
+      <c r="AE110" s="14" t="inlineStr">
         <is>
           <t>305</t>
         </is>
@@ -21168,7 +21156,7 @@
           <t>12</t>
         </is>
       </c>
-      <c r="B113" s="17" t="inlineStr">
+      <c r="B113" s="5" t="inlineStr">
         <is>
           <t>503</t>
         </is>
@@ -21380,7 +21368,7 @@
           <t>399</t>
         </is>
       </c>
-      <c r="G114" s="17" t="inlineStr">
+      <c r="G114" s="6" t="inlineStr">
         <is>
           <t>124</t>
         </is>
@@ -21809,7 +21797,7 @@
           <t>304</t>
         </is>
       </c>
-      <c r="R116" s="17" t="inlineStr">
+      <c r="R116" s="10" t="inlineStr">
         <is>
           <t>035</t>
         </is>
@@ -22477,7 +22465,7 @@
           <t>19</t>
         </is>
       </c>
-      <c r="B120" s="17" t="inlineStr">
+      <c r="B120" s="5" t="inlineStr">
         <is>
           <t>412</t>
         </is>
@@ -22552,7 +22540,7 @@
           <t>537</t>
         </is>
       </c>
-      <c r="Q120" s="17" t="inlineStr">
+      <c r="Q120" s="10" t="inlineStr">
         <is>
           <t>124</t>
         </is>
@@ -22647,7 +22635,7 @@
           <t>657</t>
         </is>
       </c>
-      <c r="AJ120" s="17" t="inlineStr">
+      <c r="AJ120" s="16" t="inlineStr">
         <is>
           <t>035</t>
         </is>
@@ -23901,7 +23889,7 @@
           <t>188</t>
         </is>
       </c>
-      <c r="Y127" s="17" t="inlineStr">
+      <c r="Y127" s="12" t="inlineStr">
         <is>
           <t>421</t>
         </is>
@@ -24058,7 +24046,7 @@
           <t>519</t>
         </is>
       </c>
-      <c r="S128" s="17" t="inlineStr">
+      <c r="S128" s="10" t="inlineStr">
         <is>
           <t>305</t>
         </is>
@@ -24143,7 +24131,7 @@
           <t>764</t>
         </is>
       </c>
-      <c r="AJ128" s="17" t="inlineStr">
+      <c r="AJ128" s="16" t="inlineStr">
         <is>
           <t>241</t>
         </is>
@@ -24185,7 +24173,7 @@
           <t>686</t>
         </is>
       </c>
-      <c r="G129" s="17" t="inlineStr">
+      <c r="G129" s="6" t="inlineStr">
         <is>
           <t>421</t>
         </is>
@@ -24200,7 +24188,7 @@
           <t>875</t>
         </is>
       </c>
-      <c r="J129" s="17" t="inlineStr">
+      <c r="J129" s="7" t="inlineStr">
         <is>
           <t>053</t>
         </is>
@@ -25347,7 +25335,7 @@
           <t>193</t>
         </is>
       </c>
-      <c r="AI135" s="17" t="inlineStr">
+      <c r="AI135" s="16" t="inlineStr">
         <is>
           <t>124</t>
         </is>
@@ -25581,7 +25569,7 @@
           <t>807</t>
         </is>
       </c>
-      <c r="G137" s="17" t="inlineStr">
+      <c r="G137" s="6" t="inlineStr">
         <is>
           <t>241</t>
         </is>
@@ -25691,7 +25679,7 @@
           <t>425</t>
         </is>
       </c>
-      <c r="AC137" s="17" t="inlineStr">
+      <c r="AC137" s="14" t="inlineStr">
         <is>
           <t>530</t>
         </is>
@@ -26182,7 +26170,7 @@
           <t>095</t>
         </is>
       </c>
-      <c r="O140" s="17" t="inlineStr">
+      <c r="O140" s="9" t="inlineStr">
         <is>
           <t>530</t>
         </is>
@@ -26247,7 +26235,7 @@
           <t>417</t>
         </is>
       </c>
-      <c r="AB140" s="17" t="inlineStr">
+      <c r="AB140" s="13" t="inlineStr">
         <is>
           <t>350</t>
         </is>
@@ -26511,7 +26499,7 @@
           <t>544</t>
         </is>
       </c>
-      <c r="F142" s="17" t="inlineStr">
+      <c r="F142" s="6" t="inlineStr">
         <is>
           <t>503</t>
         </is>
@@ -26910,7 +26898,7 @@
           <t>406</t>
         </is>
       </c>
-      <c r="K144" s="17" t="inlineStr">
+      <c r="K144" s="8" t="inlineStr">
         <is>
           <t>124</t>
         </is>
@@ -27531,7 +27519,7 @@
           <t>920</t>
         </is>
       </c>
-      <c r="W147" s="17" t="inlineStr">
+      <c r="W147" s="12" t="inlineStr">
         <is>
           <t>124</t>
         </is>
@@ -28521,7 +28509,7 @@
           <t>447</t>
         </is>
       </c>
-      <c r="AH152" s="17" t="inlineStr">
+      <c r="AH152" s="15" t="inlineStr">
         <is>
           <t>421</t>
         </is>
@@ -29239,7 +29227,7 @@
           <t>174</t>
         </is>
       </c>
-      <c r="AB156" s="17" t="inlineStr">
+      <c r="AB156" s="13" t="inlineStr">
         <is>
           <t>142</t>
         </is>
@@ -29830,7 +29818,7 @@
           <t>195</t>
         </is>
       </c>
-      <c r="AH159" s="17" t="inlineStr">
+      <c r="AH159" s="15" t="inlineStr">
         <is>
           <t>214</t>
         </is>
@@ -29872,7 +29860,7 @@
           <t>078</t>
         </is>
       </c>
-      <c r="E160" s="17" t="inlineStr">
+      <c r="E160" s="6" t="inlineStr">
         <is>
           <t>053</t>
         </is>
@@ -30184,7 +30172,7 @@
           <t>917</t>
         </is>
       </c>
-      <c r="AD161" s="17" t="inlineStr">
+      <c r="AD161" s="14" t="inlineStr">
         <is>
           <t>421</t>
         </is>
@@ -30563,7 +30551,7 @@
           <t>063</t>
         </is>
       </c>
-      <c r="AE163" s="17" t="inlineStr">
+      <c r="AE163" s="14" t="inlineStr">
         <is>
           <t>142</t>
         </is>
@@ -31702,7 +31690,7 @@
           <t>914</t>
         </is>
       </c>
-      <c r="Q170" s="17" t="inlineStr">
+      <c r="Q170" s="10" t="inlineStr">
         <is>
           <t>035</t>
         </is>
@@ -31844,7 +31832,7 @@
           <t>642</t>
         </is>
       </c>
-      <c r="H171" s="17" t="inlineStr">
+      <c r="H171" s="7" t="inlineStr">
         <is>
           <t>503</t>
         </is>
@@ -32156,7 +32144,7 @@
           <t>362</t>
         </is>
       </c>
-      <c r="AG172" s="17" t="inlineStr">
+      <c r="AG172" s="15" t="inlineStr">
         <is>
           <t>305</t>
         </is>
@@ -32243,7 +32231,7 @@
           <t>899</t>
         </is>
       </c>
-      <c r="M173" s="17" t="inlineStr">
+      <c r="M173" s="8" t="inlineStr">
         <is>
           <t>412</t>
         </is>
@@ -32400,7 +32388,7 @@
           <t>788</t>
         </is>
       </c>
-      <c r="G174" s="17" t="inlineStr">
+      <c r="G174" s="6" t="inlineStr">
         <is>
           <t>503</t>
         </is>
@@ -32899,7 +32887,7 @@
           <t>507</t>
         </is>
       </c>
-      <c r="AF176" s="17" t="inlineStr">
+      <c r="AF176" s="15" t="inlineStr">
         <is>
           <t>305</t>
         </is>
@@ -33315,7 +33303,7 @@
           <t>951</t>
         </is>
       </c>
-      <c r="C179" s="17" t="inlineStr">
+      <c r="C179" s="5" t="inlineStr">
         <is>
           <t>214</t>
         </is>
@@ -34320,7 +34308,7 @@
           <t>697</t>
         </is>
       </c>
-      <c r="Q184" s="17" t="inlineStr">
+      <c r="Q184" s="10" t="inlineStr">
         <is>
           <t>350</t>
         </is>
@@ -34410,7 +34398,7 @@
           <t>554</t>
         </is>
       </c>
-      <c r="AI184" s="17" t="inlineStr">
+      <c r="AI184" s="16" t="inlineStr">
         <is>
           <t>035</t>
         </is>
@@ -35098,7 +35086,7 @@
           <t>529</t>
         </is>
       </c>
-      <c r="W188" s="17" t="inlineStr">
+      <c r="W188" s="12" t="inlineStr">
         <is>
           <t>124</t>
         </is>
@@ -35472,7 +35460,7 @@
           <t>292</t>
         </is>
       </c>
-      <c r="W190" s="17" t="inlineStr">
+      <c r="W190" s="12" t="inlineStr">
         <is>
           <t>412</t>
         </is>
@@ -35704,7 +35692,7 @@
           <t>636</t>
         </is>
       </c>
-      <c r="AF191" s="17" t="inlineStr">
+      <c r="AF191" s="15" t="inlineStr">
         <is>
           <t>503</t>
         </is>
@@ -35953,7 +35941,7 @@
           <t>457</t>
         </is>
       </c>
-      <c r="G193" s="17" t="inlineStr">
+      <c r="G193" s="6" t="inlineStr">
         <is>
           <t>124</t>
         </is>
@@ -36529,7 +36517,7 @@
           <t>302</t>
         </is>
       </c>
-      <c r="J196" s="17" t="inlineStr">
+      <c r="J196" s="7" t="inlineStr">
         <is>
           <t>530</t>
         </is>
@@ -37920,7 +37908,7 @@
           <t>372</t>
         </is>
       </c>
-      <c r="I204" s="17" t="inlineStr">
+      <c r="I204" s="7" t="inlineStr">
         <is>
           <t>214</t>
         </is>
@@ -37950,7 +37938,7 @@
           <t>882</t>
         </is>
       </c>
-      <c r="O204" s="17" t="inlineStr">
+      <c r="O204" s="9" t="inlineStr">
         <is>
           <t>053</t>
         </is>
@@ -38865,7 +38853,7 @@
           <t>625</t>
         </is>
       </c>
-      <c r="K209" s="17" t="inlineStr">
+      <c r="K209" s="8" t="inlineStr">
         <is>
           <t>305</t>
         </is>
@@ -39042,7 +39030,7 @@
           <t>422</t>
         </is>
       </c>
-      <c r="I210" s="17" t="inlineStr">
+      <c r="I210" s="7" t="inlineStr">
         <is>
           <t>412</t>
         </is>
@@ -39072,7 +39060,7 @@
           <t>050</t>
         </is>
       </c>
-      <c r="O210" s="17" t="inlineStr">
+      <c r="O210" s="9" t="inlineStr">
         <is>
           <t>214</t>
         </is>
@@ -40219,7 +40207,7 @@
           <t>817</t>
         </is>
       </c>
-      <c r="T216" s="17" t="inlineStr">
+      <c r="T216" s="11" t="inlineStr">
         <is>
           <t>142</t>
         </is>
@@ -40486,7 +40474,7 @@
           <t>651</t>
         </is>
       </c>
-      <c r="AJ217" s="17" t="inlineStr">
+      <c r="AJ217" s="16" t="inlineStr">
         <is>
           <t>053</t>
         </is>
@@ -41089,7 +41077,7 @@
           <t>850</t>
         </is>
       </c>
-      <c r="G221" s="17" t="inlineStr">
+      <c r="G221" s="6" t="inlineStr">
         <is>
           <t>412</t>
         </is>
@@ -41376,7 +41364,7 @@
           <t>595</t>
         </is>
       </c>
-      <c r="AA222" s="17" t="inlineStr">
+      <c r="AA222" s="13" t="inlineStr">
         <is>
           <t>241</t>
         </is>
@@ -41401,7 +41389,7 @@
           <t>591</t>
         </is>
       </c>
-      <c r="AF222" s="17" t="inlineStr">
+      <c r="AF222" s="15" t="inlineStr">
         <is>
           <t>241</t>
         </is>
@@ -41603,7 +41591,7 @@
           <t>594</t>
         </is>
       </c>
-      <c r="AI223" s="17" t="inlineStr">
+      <c r="AI223" s="16" t="inlineStr">
         <is>
           <t>053</t>
         </is>
@@ -41645,7 +41633,7 @@
           <t>328</t>
         </is>
       </c>
-      <c r="F224" s="17" t="inlineStr">
+      <c r="F224" s="6" t="inlineStr">
         <is>
           <t>241</t>
         </is>
@@ -41655,7 +41643,7 @@
           <t>987</t>
         </is>
       </c>
-      <c r="H224" s="17" t="inlineStr">
+      <c r="H224" s="7" t="inlineStr">
         <is>
           <t>241</t>
         </is>
@@ -41952,7 +41940,7 @@
           <t>438</t>
         </is>
       </c>
-      <c r="AD225" s="17" t="inlineStr">
+      <c r="AD225" s="14" t="inlineStr">
         <is>
           <t>421</t>
         </is>
@@ -42236,7 +42224,7 @@
           <t>445</t>
         </is>
       </c>
-      <c r="L227" s="17" t="inlineStr">
+      <c r="L227" s="8" t="inlineStr">
         <is>
           <t>503</t>
         </is>
@@ -42361,7 +42349,7 @@
           <t>923</t>
         </is>
       </c>
-      <c r="AK227" s="17" t="inlineStr">
+      <c r="AK227" s="16" t="inlineStr">
         <is>
           <t>241</t>
         </is>
@@ -42570,7 +42558,7 @@
           <t>009</t>
         </is>
       </c>
-      <c r="D229" s="17" t="inlineStr">
+      <c r="D229" s="5" t="inlineStr">
         <is>
           <t>053</t>
         </is>
@@ -42585,7 +42573,7 @@
           <t>483</t>
         </is>
       </c>
-      <c r="G229" s="17" t="inlineStr">
+      <c r="G229" s="6" t="inlineStr">
         <is>
           <t>412</t>
         </is>
@@ -42817,7 +42805,7 @@
           <t>108</t>
         </is>
       </c>
-      <c r="P230" s="17" t="inlineStr">
+      <c r="P230" s="9" t="inlineStr">
         <is>
           <t>035</t>
         </is>
@@ -43069,7 +43057,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AC231" s="17" t="inlineStr">
+      <c r="AC231" s="14" t="inlineStr">
         <is>
           <t>503</t>
         </is>
@@ -43505,7 +43493,7 @@
           <t>688</t>
         </is>
       </c>
-      <c r="X234" s="17" t="inlineStr">
+      <c r="X234" s="12" t="inlineStr">
         <is>
           <t>035</t>
         </is>
@@ -43722,7 +43710,7 @@
           <t>955</t>
         </is>
       </c>
-      <c r="AD235" s="17" t="inlineStr">
+      <c r="AD235" s="14" t="inlineStr">
         <is>
           <t>035</t>
         </is>
@@ -43914,7 +43902,7 @@
           <t>474</t>
         </is>
       </c>
-      <c r="AE236" s="17" t="inlineStr">
+      <c r="AE236" s="14" t="inlineStr">
         <is>
           <t>124</t>
         </is>
@@ -44001,7 +43989,7 @@
           <t>023</t>
         </is>
       </c>
-      <c r="K237" s="17" t="inlineStr">
+      <c r="K237" s="8" t="inlineStr">
         <is>
           <t>421</t>
         </is>
@@ -44607,7 +44595,7 @@
           <t>193</t>
         </is>
       </c>
-      <c r="T240" s="17" t="inlineStr">
+      <c r="T240" s="11" t="inlineStr">
         <is>
           <t>214</t>
         </is>
@@ -44921,12 +44909,12 @@
           <t>626</t>
         </is>
       </c>
-      <c r="H242" s="17" t="inlineStr">
+      <c r="H242" s="7" t="inlineStr">
         <is>
           <t>421</t>
         </is>
       </c>
-      <c r="I242" s="17" t="inlineStr">
+      <c r="I242" s="7" t="inlineStr">
         <is>
           <t>421</t>
         </is>
@@ -45996,7 +45984,7 @@
           <t>159</t>
         </is>
       </c>
-      <c r="AJ247" s="17" t="inlineStr">
+      <c r="AJ247" s="16" t="inlineStr">
         <is>
           <t>214</t>
         </is>
@@ -46143,7 +46131,7 @@
           <t>330</t>
         </is>
       </c>
-      <c r="AB248" s="17" t="inlineStr">
+      <c r="AB248" s="13" t="inlineStr">
         <is>
           <t>035</t>
         </is>
@@ -46402,7 +46390,7 @@
           <t>535</t>
         </is>
       </c>
-      <c r="E250" s="17" t="inlineStr">
+      <c r="E250" s="6" t="inlineStr">
         <is>
           <t>124</t>
         </is>
@@ -47180,7 +47168,7 @@
           <t>611</t>
         </is>
       </c>
-      <c r="K254" s="17" t="inlineStr">
+      <c r="K254" s="8" t="inlineStr">
         <is>
           <t>241</t>
         </is>
@@ -47250,7 +47238,7 @@
           <t>617</t>
         </is>
       </c>
-      <c r="Y254" s="17" t="inlineStr">
+      <c r="Y254" s="12" t="inlineStr">
         <is>
           <t>350</t>
         </is>
@@ -48115,7 +48103,7 @@
           <t>220</t>
         </is>
       </c>
-      <c r="K259" s="17" t="inlineStr">
+      <c r="K259" s="8" t="inlineStr">
         <is>
           <t>124</t>
         </is>
@@ -48240,7 +48228,7 @@
           <t>191</t>
         </is>
       </c>
-      <c r="AJ259" s="17" t="inlineStr">
+      <c r="AJ259" s="16" t="inlineStr">
         <is>
           <t>124</t>
         </is>
@@ -48736,7 +48724,7 @@
           <t>187</t>
         </is>
       </c>
-      <c r="W262" s="17" t="inlineStr">
+      <c r="W262" s="12" t="inlineStr">
         <is>
           <t>503</t>
         </is>
@@ -48868,7 +48856,7 @@
           <t>833</t>
         </is>
       </c>
-      <c r="L263" s="17" t="inlineStr">
+      <c r="L263" s="8" t="inlineStr">
         <is>
           <t>350</t>
         </is>
@@ -48883,7 +48871,7 @@
           <t>090</t>
         </is>
       </c>
-      <c r="O263" s="17" t="inlineStr">
+      <c r="O263" s="9" t="inlineStr">
         <is>
           <t>142</t>
         </is>
@@ -50027,7 +50015,7 @@
           <t>04</t>
         </is>
       </c>
-      <c r="B270" s="17" t="inlineStr">
+      <c r="B270" s="5" t="inlineStr">
         <is>
           <t>305</t>
         </is>
@@ -51122,7 +51110,7 @@
           <t>390</t>
         </is>
       </c>
-      <c r="AH275" s="17" t="inlineStr">
+      <c r="AH275" s="15" t="inlineStr">
         <is>
           <t>350</t>
         </is>
@@ -51638,7 +51626,7 @@
           <t>230</t>
         </is>
       </c>
-      <c r="Y278" s="17" t="inlineStr">
+      <c r="Y278" s="12" t="inlineStr">
         <is>
           <t>421</t>
         </is>
@@ -52184,7 +52172,7 @@
           <t>959</t>
         </is>
       </c>
-      <c r="V281" s="17" t="inlineStr">
+      <c r="V281" s="11" t="inlineStr">
         <is>
           <t>530</t>
         </is>
@@ -52244,7 +52232,7 @@
           <t>534</t>
         </is>
       </c>
-      <c r="AH281" s="17" t="inlineStr">
+      <c r="AH281" s="15" t="inlineStr">
         <is>
           <t>241</t>
         </is>
@@ -52548,7 +52536,7 @@
           <t>138</t>
         </is>
       </c>
-      <c r="T283" s="17" t="inlineStr">
+      <c r="T283" s="11" t="inlineStr">
         <is>
           <t>421</t>
         </is>
@@ -52563,7 +52551,7 @@
           <t>715</t>
         </is>
       </c>
-      <c r="W283" s="17" t="inlineStr">
+      <c r="W283" s="12" t="inlineStr">
         <is>
           <t>053</t>
         </is>
@@ -53211,7 +53199,7 @@
           <t>283</t>
         </is>
       </c>
-      <c r="C287" s="17" t="inlineStr">
+      <c r="C287" s="5" t="inlineStr">
         <is>
           <t>124</t>
         </is>
@@ -53563,7 +53551,7 @@
           <t>620</t>
         </is>
       </c>
-      <c r="AJ288" s="17" t="inlineStr">
+      <c r="AJ288" s="16" t="inlineStr">
         <is>
           <t>530</t>
         </is>
@@ -54373,7 +54361,7 @@
           <t>245</t>
         </is>
       </c>
-      <c r="K293" s="17" t="inlineStr">
+      <c r="K293" s="8" t="inlineStr">
         <is>
           <t>142</t>
         </is>
@@ -54458,7 +54446,7 @@
           <t>439</t>
         </is>
       </c>
-      <c r="AB293" s="17" t="inlineStr">
+      <c r="AB293" s="13" t="inlineStr">
         <is>
           <t>530</t>
         </is>
@@ -54894,7 +54882,7 @@
           <t>875</t>
         </is>
       </c>
-      <c r="C296" s="17" t="inlineStr">
+      <c r="C296" s="5" t="inlineStr">
         <is>
           <t>035</t>
         </is>
@@ -56158,7 +56146,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="N303" s="17" t="inlineStr">
+      <c r="N303" s="9" t="inlineStr">
         <is>
           <t>142</t>
         </is>
@@ -56572,7 +56560,7 @@
           <t>188</t>
         </is>
       </c>
-      <c r="V305" s="17" t="inlineStr">
+      <c r="V305" s="11" t="inlineStr">
         <is>
           <t>035</t>
         </is>
@@ -57188,7 +57176,7 @@
           <t>772</t>
         </is>
       </c>
-      <c r="AG308" s="17" t="inlineStr">
+      <c r="AG308" s="15" t="inlineStr">
         <is>
           <t>241</t>
         </is>
@@ -57871,7 +57859,7 @@
           <t>524</t>
         </is>
       </c>
-      <c r="T312" s="17" t="inlineStr">
+      <c r="T312" s="11" t="inlineStr">
         <is>
           <t>530</t>
         </is>
@@ -57881,7 +57869,7 @@
           <t>880</t>
         </is>
       </c>
-      <c r="V312" s="17" t="inlineStr">
+      <c r="V312" s="11" t="inlineStr">
         <is>
           <t>350</t>
         </is>
@@ -58180,7 +58168,7 @@
           <t>706</t>
         </is>
       </c>
-      <c r="G314" s="17" t="inlineStr">
+      <c r="G314" s="6" t="inlineStr">
         <is>
           <t>503</t>
         </is>
@@ -58300,7 +58288,7 @@
           <t>363</t>
         </is>
       </c>
-      <c r="AE314" s="17" t="inlineStr">
+      <c r="AE314" s="14" t="inlineStr">
         <is>
           <t>214</t>
         </is>
@@ -59200,7 +59188,7 @@
           <t>960</t>
         </is>
       </c>
-      <c r="X319" s="17" t="inlineStr">
+      <c r="X319" s="12" t="inlineStr">
         <is>
           <t>350</t>
         </is>
@@ -59442,7 +59430,7 @@
           <t>217</t>
         </is>
       </c>
-      <c r="AI320" s="17" t="inlineStr">
+      <c r="AI320" s="16" t="inlineStr">
         <is>
           <t>421</t>
         </is>
@@ -59731,7 +59719,7 @@
           <t>018</t>
         </is>
       </c>
-      <c r="R322" s="17" t="inlineStr">
+      <c r="R322" s="10" t="inlineStr">
         <is>
           <t>124</t>
         </is>
@@ -59746,7 +59734,7 @@
           <t>605</t>
         </is>
       </c>
-      <c r="U322" s="17" t="inlineStr">
+      <c r="U322" s="11" t="inlineStr">
         <is>
           <t>350</t>
         </is>
@@ -60539,7 +60527,7 @@
           <t>820</t>
         </is>
       </c>
-      <c r="AD326" s="17" t="inlineStr">
+      <c r="AD326" s="14" t="inlineStr">
         <is>
           <t>214</t>
         </is>
@@ -62092,7 +62080,7 @@
           <t>805</t>
         </is>
       </c>
-      <c r="X335" s="17" t="inlineStr">
+      <c r="X335" s="12" t="inlineStr">
         <is>
           <t>421</t>
         </is>
@@ -62204,7 +62192,7 @@
           <t>747</t>
         </is>
       </c>
-      <c r="I336" s="17" t="inlineStr">
+      <c r="I336" s="7" t="inlineStr">
         <is>
           <t>241</t>
         </is>
@@ -62436,7 +62424,7 @@
           <t>453</t>
         </is>
       </c>
-      <c r="R337" s="17" t="inlineStr">
+      <c r="R337" s="10" t="inlineStr">
         <is>
           <t>530</t>
         </is>
@@ -62496,7 +62484,7 @@
           <t>393</t>
         </is>
       </c>
-      <c r="AD337" s="17" t="inlineStr">
+      <c r="AD337" s="14" t="inlineStr">
         <is>
           <t>503</t>
         </is>
@@ -63189,7 +63177,7 @@
           <t>816</t>
         </is>
       </c>
-      <c r="S341" s="17" t="inlineStr">
+      <c r="S341" s="10" t="inlineStr">
         <is>
           <t>530</t>
         </is>
@@ -64443,7 +64431,7 @@
           <t>582</t>
         </is>
       </c>
-      <c r="H348" s="17" t="inlineStr">
+      <c r="H348" s="7" t="inlineStr">
         <is>
           <t>412</t>
         </is>
@@ -64812,7 +64800,7 @@
           <t>131</t>
         </is>
       </c>
-      <c r="G350" s="17" t="inlineStr">
+      <c r="G350" s="6" t="inlineStr">
         <is>
           <t>053</t>
         </is>
@@ -65463,7 +65451,7 @@
           <t>512</t>
         </is>
       </c>
-      <c r="Y353" s="17" t="inlineStr">
+      <c r="Y353" s="12" t="inlineStr">
         <is>
           <t>035</t>
         </is>
@@ -66221,7 +66209,7 @@
           <t>936</t>
         </is>
       </c>
-      <c r="AA357" s="17" t="inlineStr">
+      <c r="AA357" s="13" t="inlineStr">
         <is>
           <t>503</t>
         </is>
@@ -66393,7 +66381,7 @@
           <t>867</t>
         </is>
       </c>
-      <c r="X358" s="17" t="inlineStr">
+      <c r="X358" s="12" t="inlineStr">
         <is>
           <t>142</t>
         </is>
@@ -66792,7 +66780,7 @@
           <t>065</t>
         </is>
       </c>
-      <c r="AC360" s="17" t="inlineStr">
+      <c r="AC360" s="14" t="inlineStr">
         <is>
           <t>503</t>
         </is>
@@ -68664,7 +68652,7 @@
           <t>621</t>
         </is>
       </c>
-      <c r="L371" s="17" t="inlineStr">
+      <c r="L371" s="8" t="inlineStr">
         <is>
           <t>421</t>
         </is>
@@ -68961,7 +68949,7 @@
           <t>972</t>
         </is>
       </c>
-      <c r="AH372" s="17" t="inlineStr">
+      <c r="AH372" s="15" t="inlineStr">
         <is>
           <t>142</t>
         </is>
@@ -70726,7 +70714,7 @@
           <t>691</t>
         </is>
       </c>
-      <c r="M382" s="17" t="inlineStr">
+      <c r="M382" s="8" t="inlineStr">
         <is>
           <t>421</t>
         </is>
@@ -71125,7 +71113,7 @@
           <t>854</t>
         </is>
       </c>
-      <c r="R384" s="17" t="inlineStr">
+      <c r="R384" s="10" t="inlineStr">
         <is>
           <t>214</t>
         </is>
@@ -71277,7 +71265,7 @@
           <t>147</t>
         </is>
       </c>
-      <c r="K385" s="17" t="inlineStr">
+      <c r="K385" s="8" t="inlineStr">
         <is>
           <t>503</t>
         </is>
@@ -71863,7 +71851,7 @@
           <t>089</t>
         </is>
       </c>
-      <c r="P388" s="17" t="inlineStr">
+      <c r="P388" s="9" t="inlineStr">
         <is>
           <t>053</t>
         </is>
@@ -72676,7 +72664,7 @@
           <t>975</t>
         </is>
       </c>
-      <c r="AC392" s="17" t="inlineStr">
+      <c r="AC392" s="14" t="inlineStr">
         <is>
           <t>124</t>
         </is>
@@ -72691,7 +72679,7 @@
           <t>864</t>
         </is>
       </c>
-      <c r="AF392" s="17" t="inlineStr">
+      <c r="AF392" s="15" t="inlineStr">
         <is>
           <t>412</t>
         </is>
@@ -72990,7 +72978,7 @@
           <t>868</t>
         </is>
       </c>
-      <c r="Q394" s="17" t="inlineStr">
+      <c r="Q394" s="10" t="inlineStr">
         <is>
           <t>421</t>
         </is>
@@ -73237,7 +73225,7 @@
           <t>733</t>
         </is>
       </c>
-      <c r="AC395" s="17" t="inlineStr">
+      <c r="AC395" s="14" t="inlineStr">
         <is>
           <t>214</t>
         </is>
@@ -73399,7 +73387,7 @@
           <t>194</t>
         </is>
       </c>
-      <c r="X396" s="17" t="inlineStr">
+      <c r="X396" s="12" t="inlineStr">
         <is>
           <t>053</t>
         </is>
@@ -73845,7 +73833,7 @@
           <t>011</t>
         </is>
       </c>
-      <c r="U399" s="17" t="inlineStr">
+      <c r="U399" s="11" t="inlineStr">
         <is>
           <t>421</t>
         </is>
@@ -73972,7 +73960,7 @@
           <t>207</t>
         </is>
       </c>
-      <c r="I400" s="17" t="inlineStr">
+      <c r="I400" s="7" t="inlineStr">
         <is>
           <t>053</t>
         </is>
@@ -74902,7 +74890,7 @@
           <t>216</t>
         </is>
       </c>
-      <c r="H405" s="17" t="inlineStr">
+      <c r="H405" s="7" t="inlineStr">
         <is>
           <t>053</t>
         </is>
@@ -76306,7 +76294,7 @@
           <t>019</t>
         </is>
       </c>
-      <c r="AA412" s="17" t="inlineStr">
+      <c r="AA412" s="13" t="inlineStr">
         <is>
           <t>421</t>
         </is>
@@ -77687,7 +77675,7 @@
           <t>335</t>
         </is>
       </c>
-      <c r="D420" s="17" t="inlineStr">
+      <c r="D420" s="5" t="inlineStr">
         <is>
           <t>530</t>
         </is>
@@ -77969,7 +77957,7 @@
           <t>372</t>
         </is>
       </c>
-      <c r="W421" s="17" t="inlineStr">
+      <c r="W421" s="12" t="inlineStr">
         <is>
           <t>503</t>
         </is>
@@ -78248,7 +78236,7 @@
           <t>757</t>
         </is>
       </c>
-      <c r="D423" s="17" t="inlineStr">
+      <c r="D423" s="5" t="inlineStr">
         <is>
           <t>214</t>
         </is>
@@ -78440,7 +78428,7 @@
           <t>001</t>
         </is>
       </c>
-      <c r="E424" s="17" t="inlineStr">
+      <c r="E424" s="6" t="inlineStr">
         <is>
           <t>035</t>
         </is>
@@ -78787,7 +78775,7 @@
           <t>358</t>
         </is>
       </c>
-      <c r="AK425" s="17" t="inlineStr">
+      <c r="AK425" s="16" t="inlineStr">
         <is>
           <t>035</t>
         </is>
@@ -80265,7 +80253,7 @@
           <t>716</t>
         </is>
       </c>
-      <c r="P434" s="17" t="inlineStr">
+      <c r="P434" s="9" t="inlineStr">
         <is>
           <t>214</t>
         </is>
@@ -80704,7 +80692,7 @@
           <t>878</t>
         </is>
       </c>
-      <c r="AC436" s="17" t="inlineStr">
+      <c r="AC436" s="14" t="inlineStr">
         <is>
           <t>214</t>
         </is>
@@ -80926,7 +80914,7 @@
           <t>178</t>
         </is>
       </c>
-      <c r="AJ437" s="17" t="inlineStr">
+      <c r="AJ437" s="16" t="inlineStr">
         <is>
           <t>241</t>
         </is>
@@ -81305,7 +81293,7 @@
           <t>510</t>
         </is>
       </c>
-      <c r="AK439" s="17" t="inlineStr">
+      <c r="AK439" s="16" t="inlineStr">
         <is>
           <t>350</t>
         </is>
@@ -81539,7 +81527,7 @@
           <t>724</t>
         </is>
       </c>
-      <c r="I441" s="17" t="inlineStr">
+      <c r="I441" s="7" t="inlineStr">
         <is>
           <t>421</t>
         </is>
@@ -82033,7 +82021,7 @@
           <t>797</t>
         </is>
       </c>
-      <c r="AG443" s="17" t="inlineStr">
+      <c r="AG443" s="15" t="inlineStr">
         <is>
           <t>124</t>
         </is>
@@ -82676,7 +82664,7 @@
           <t>064</t>
         </is>
       </c>
-      <c r="L447" s="17" t="inlineStr">
+      <c r="L447" s="8" t="inlineStr">
         <is>
           <t>214</t>
         </is>
@@ -83307,7 +83295,7 @@
           <t>216</t>
         </is>
       </c>
-      <c r="Z450" s="17" t="inlineStr">
+      <c r="Z450" s="13" t="inlineStr">
         <is>
           <t>305</t>
         </is>
@@ -83636,7 +83624,7 @@
           <t>017</t>
         </is>
       </c>
-      <c r="Q452" s="17" t="inlineStr">
+      <c r="Q452" s="10" t="inlineStr">
         <is>
           <t>305</t>
         </is>
@@ -83833,12 +83821,12 @@
           <t>116</t>
         </is>
       </c>
-      <c r="S453" s="17" t="inlineStr">
+      <c r="S453" s="10" t="inlineStr">
         <is>
           <t>241</t>
         </is>
       </c>
-      <c r="T453" s="17" t="inlineStr">
+      <c r="T453" s="11" t="inlineStr">
         <is>
           <t>241</t>
         </is>
@@ -84045,7 +84033,7 @@
           <t>795</t>
         </is>
       </c>
-      <c r="X454" s="17" t="inlineStr">
+      <c r="X454" s="12" t="inlineStr">
         <is>
           <t>241</t>
         </is>
@@ -84122,7 +84110,7 @@
           <t>24</t>
         </is>
       </c>
-      <c r="B455" s="17" t="inlineStr">
+      <c r="B455" s="5" t="inlineStr">
         <is>
           <t>305</t>
         </is>
@@ -84439,7 +84427,7 @@
           <t>547</t>
         </is>
       </c>
-      <c r="AB456" s="17" t="inlineStr">
+      <c r="AB456" s="13" t="inlineStr">
         <is>
           <t>412</t>
         </is>
@@ -84464,7 +84452,7 @@
           <t>612</t>
         </is>
       </c>
-      <c r="AG456" s="17" t="inlineStr">
+      <c r="AG456" s="15" t="inlineStr">
         <is>
           <t>142</t>
         </is>
@@ -84748,7 +84736,7 @@
           <t>514</t>
         </is>
       </c>
-      <c r="O458" s="17" t="inlineStr">
+      <c r="O458" s="9" t="inlineStr">
         <is>
           <t>350</t>
         </is>
@@ -86608,7 +86596,7 @@
           <t>671</t>
         </is>
       </c>
-      <c r="AG468" s="17" t="inlineStr">
+      <c r="AG468" s="15" t="inlineStr">
         <is>
           <t>350</t>
         </is>
@@ -87231,7 +87219,7 @@
           <t>015</t>
         </is>
       </c>
-      <c r="H472" s="17" t="inlineStr">
+      <c r="H472" s="7" t="inlineStr">
         <is>
           <t>503</t>
         </is>
@@ -87558,7 +87546,7 @@
           <t>665</t>
         </is>
       </c>
-      <c r="AJ473" s="17" t="inlineStr">
+      <c r="AJ473" s="16" t="inlineStr">
         <is>
           <t>241</t>
         </is>
@@ -87882,12 +87870,12 @@
           <t>-</t>
         </is>
       </c>
-      <c r="Z475" s="17" t="inlineStr">
+      <c r="Z475" s="13" t="inlineStr">
         <is>
           <t>421</t>
         </is>
       </c>
-      <c r="AA475" s="17" t="inlineStr">
+      <c r="AA475" s="13" t="inlineStr">
         <is>
           <t>053</t>
         </is>
@@ -88448,7 +88436,7 @@
           <t>346</t>
         </is>
       </c>
-      <c r="AA478" s="17" t="inlineStr">
+      <c r="AA478" s="13" t="inlineStr">
         <is>
           <t>241</t>
         </is>
@@ -90712,7 +90700,7 @@
           <t>559</t>
         </is>
       </c>
-      <c r="AE490" s="17" t="inlineStr">
+      <c r="AE490" s="14" t="inlineStr">
         <is>
           <t>305</t>
         </is>
@@ -91829,7 +91817,7 @@
           <t>446</t>
         </is>
       </c>
-      <c r="F498" s="17" t="inlineStr">
+      <c r="F498" s="6" t="inlineStr">
         <is>
           <t>142</t>
         </is>
@@ -92366,7 +92354,7 @@
           <t>762</t>
         </is>
       </c>
-      <c r="O504" s="17" t="inlineStr">
+      <c r="O504" s="9" t="inlineStr">
         <is>
           <t>035</t>
         </is>
@@ -92495,7 +92483,7 @@
           <t>772</t>
         </is>
       </c>
-      <c r="H506" s="17" t="inlineStr">
+      <c r="H506" s="7" t="inlineStr">
         <is>
           <t>124</t>
         </is>
@@ -92972,7 +92960,7 @@
           <t>498</t>
         </is>
       </c>
-      <c r="E512" s="17" t="inlineStr">
+      <c r="E512" s="6" t="inlineStr">
         <is>
           <t>241</t>
         </is>
@@ -93325,7 +93313,7 @@
           <t>606</t>
         </is>
       </c>
-      <c r="J516" s="17" t="inlineStr">
+      <c r="J516" s="7" t="inlineStr">
         <is>
           <t>530</t>
         </is>
@@ -94011,7 +93999,7 @@
           <t>990</t>
         </is>
       </c>
-      <c r="P524" s="17" t="inlineStr">
+      <c r="P524" s="9" t="inlineStr">
         <is>
           <t>142</t>
         </is>
@@ -94093,7 +94081,7 @@
           <t>827</t>
         </is>
       </c>
-      <c r="P525" s="17" t="inlineStr">
+      <c r="P525" s="9" t="inlineStr">
         <is>
           <t>305</t>
         </is>
@@ -94222,7 +94210,7 @@
           <t>797</t>
         </is>
       </c>
-      <c r="I527" s="17" t="inlineStr">
+      <c r="I527" s="7" t="inlineStr">
         <is>
           <t>412</t>
         </is>
@@ -94249,17 +94237,17 @@
       </c>
       <c r="N527" s="9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>593</t>
         </is>
       </c>
       <c r="O527" s="9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>591</t>
         </is>
       </c>
       <c r="P527" s="9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>325</t>
         </is>
       </c>
     </row>

--- a/swertres/excel_results_4.xlsx
+++ b/swertres/excel_results_4.xlsx
@@ -26,9 +26,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b val="1"/>
       <sz val="21"/>
     </font>
     <font>
+      <b val="1"/>
       <color rgb="00000000"/>
       <sz val="21"/>
     </font>
@@ -73177,7 +73179,7 @@
       </c>
       <c r="S395" s="10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>970</t>
         </is>
       </c>
       <c r="T395" s="11" t="inlineStr">
@@ -91712,6 +91714,13 @@
       </c>
       <c r="O496" s="2" t="n"/>
       <c r="P496" s="3" t="n"/>
+      <c r="Q496" s="1" t="inlineStr">
+        <is>
+          <t>JUN 2021</t>
+        </is>
+      </c>
+      <c r="R496" s="2" t="n"/>
+      <c r="S496" s="3" t="n"/>
     </row>
     <row r="497">
       <c r="A497" s="4" t="n"/>
@@ -91790,6 +91799,21 @@
           <t>9PM</t>
         </is>
       </c>
+      <c r="Q497" s="1" t="inlineStr">
+        <is>
+          <t>2PM</t>
+        </is>
+      </c>
+      <c r="R497" s="1" t="inlineStr">
+        <is>
+          <t>4PM</t>
+        </is>
+      </c>
+      <c r="S497" s="1" t="inlineStr">
+        <is>
+          <t>9PM</t>
+        </is>
+      </c>
     </row>
     <row r="498">
       <c r="A498" s="1" t="inlineStr">
@@ -91872,6 +91896,21 @@
           <t>403</t>
         </is>
       </c>
+      <c r="Q498" s="10" t="inlineStr">
+        <is>
+          <t>362</t>
+        </is>
+      </c>
+      <c r="R498" s="10" t="inlineStr">
+        <is>
+          <t>011</t>
+        </is>
+      </c>
+      <c r="S498" s="10" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
     </row>
     <row r="499">
       <c r="A499" s="1" t="inlineStr">
@@ -91954,6 +91993,21 @@
           <t>052</t>
         </is>
       </c>
+      <c r="Q499" s="10" t="inlineStr">
+        <is>
+          <t>712</t>
+        </is>
+      </c>
+      <c r="R499" s="10" t="inlineStr">
+        <is>
+          <t>985</t>
+        </is>
+      </c>
+      <c r="S499" s="10" t="inlineStr">
+        <is>
+          <t>425</t>
+        </is>
+      </c>
     </row>
     <row r="500">
       <c r="A500" s="1" t="inlineStr">
@@ -92036,6 +92090,21 @@
           <t>259</t>
         </is>
       </c>
+      <c r="Q500" s="10" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="R500" s="10" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="S500" s="10" t="inlineStr">
+        <is>
+          <t>840</t>
+        </is>
+      </c>
     </row>
     <row r="501">
       <c r="A501" s="1" t="inlineStr">
@@ -92118,6 +92187,21 @@
           <t>308</t>
         </is>
       </c>
+      <c r="Q501" s="10" t="inlineStr">
+        <is>
+          <t>883</t>
+        </is>
+      </c>
+      <c r="R501" s="10" t="inlineStr">
+        <is>
+          <t>199</t>
+        </is>
+      </c>
+      <c r="S501" s="10" t="inlineStr">
+        <is>
+          <t>845</t>
+        </is>
+      </c>
     </row>
     <row r="502">
       <c r="A502" s="1" t="inlineStr">
@@ -92200,6 +92284,21 @@
           <t>789</t>
         </is>
       </c>
+      <c r="Q502" s="10" t="inlineStr">
+        <is>
+          <t>992</t>
+        </is>
+      </c>
+      <c r="R502" s="10" t="inlineStr">
+        <is>
+          <t>346</t>
+        </is>
+      </c>
+      <c r="S502" s="10" t="inlineStr">
+        <is>
+          <t>055</t>
+        </is>
+      </c>
     </row>
     <row r="503">
       <c r="A503" s="1" t="inlineStr">
@@ -92282,6 +92381,21 @@
           <t>417</t>
         </is>
       </c>
+      <c r="Q503" s="10" t="inlineStr">
+        <is>
+          <t>793</t>
+        </is>
+      </c>
+      <c r="R503" s="10" t="inlineStr">
+        <is>
+          <t>816</t>
+        </is>
+      </c>
+      <c r="S503" s="10" t="inlineStr">
+        <is>
+          <t>637</t>
+        </is>
+      </c>
     </row>
     <row r="504">
       <c r="A504" s="1" t="inlineStr">
@@ -92364,6 +92478,21 @@
           <t>635</t>
         </is>
       </c>
+      <c r="Q504" s="10" t="inlineStr">
+        <is>
+          <t>231</t>
+        </is>
+      </c>
+      <c r="R504" s="10" t="inlineStr">
+        <is>
+          <t>551</t>
+        </is>
+      </c>
+      <c r="S504" s="10" t="inlineStr">
+        <is>
+          <t>754</t>
+        </is>
+      </c>
     </row>
     <row r="505">
       <c r="A505" s="1" t="inlineStr">
@@ -92446,6 +92575,21 @@
           <t>148</t>
         </is>
       </c>
+      <c r="Q505" s="10" t="inlineStr">
+        <is>
+          <t>794</t>
+        </is>
+      </c>
+      <c r="R505" s="10" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="S505" s="10" t="inlineStr">
+        <is>
+          <t>430</t>
+        </is>
+      </c>
     </row>
     <row r="506">
       <c r="A506" s="1" t="inlineStr">
@@ -92528,6 +92672,21 @@
           <t>380</t>
         </is>
       </c>
+      <c r="Q506" s="10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R506" s="10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="S506" s="10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="507">
       <c r="A507" s="1" t="inlineStr">
@@ -92610,6 +92769,21 @@
           <t>373</t>
         </is>
       </c>
+      <c r="Q507" s="10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R507" s="10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="S507" s="10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="508">
       <c r="A508" s="1" t="inlineStr">
@@ -92692,6 +92866,21 @@
           <t>536</t>
         </is>
       </c>
+      <c r="Q508" s="10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R508" s="10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="S508" s="10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="509">
       <c r="A509" s="1" t="inlineStr">
@@ -92774,6 +92963,21 @@
           <t>881</t>
         </is>
       </c>
+      <c r="Q509" s="10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R509" s="10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="S509" s="10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="510">
       <c r="A510" s="1" t="inlineStr">
@@ -92856,6 +93060,21 @@
           <t>236</t>
         </is>
       </c>
+      <c r="Q510" s="10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R510" s="10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="S510" s="10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="511">
       <c r="A511" s="1" t="inlineStr">
@@ -92938,6 +93157,21 @@
           <t>066</t>
         </is>
       </c>
+      <c r="Q511" s="10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R511" s="10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="S511" s="10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="512">
       <c r="A512" s="1" t="inlineStr">
@@ -93020,6 +93254,21 @@
           <t>637</t>
         </is>
       </c>
+      <c r="Q512" s="10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R512" s="10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="S512" s="10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="513">
       <c r="A513" s="1" t="inlineStr">
@@ -93102,6 +93351,21 @@
           <t>116</t>
         </is>
       </c>
+      <c r="Q513" s="10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R513" s="10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="S513" s="10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="514">
       <c r="A514" s="1" t="inlineStr">
@@ -93184,6 +93448,21 @@
           <t>244</t>
         </is>
       </c>
+      <c r="Q514" s="10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R514" s="10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="S514" s="10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="515">
       <c r="A515" s="1" t="inlineStr">
@@ -93266,6 +93545,21 @@
           <t>374</t>
         </is>
       </c>
+      <c r="Q515" s="10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R515" s="10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="S515" s="10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="516">
       <c r="A516" s="1" t="inlineStr">
@@ -93348,6 +93642,21 @@
           <t>592</t>
         </is>
       </c>
+      <c r="Q516" s="10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R516" s="10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="S516" s="10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="517">
       <c r="A517" s="1" t="inlineStr">
@@ -93430,6 +93739,21 @@
           <t>564</t>
         </is>
       </c>
+      <c r="Q517" s="10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R517" s="10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="S517" s="10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="518">
       <c r="A518" s="1" t="inlineStr">
@@ -93512,6 +93836,21 @@
           <t>209</t>
         </is>
       </c>
+      <c r="Q518" s="10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R518" s="10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="S518" s="10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="519">
       <c r="A519" s="1" t="inlineStr">
@@ -93594,6 +93933,21 @@
           <t>054</t>
         </is>
       </c>
+      <c r="Q519" s="10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R519" s="10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="S519" s="10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="520">
       <c r="A520" s="1" t="inlineStr">
@@ -93676,6 +94030,21 @@
           <t>179</t>
         </is>
       </c>
+      <c r="Q520" s="10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R520" s="10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="S520" s="10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="521">
       <c r="A521" s="1" t="inlineStr">
@@ -93758,6 +94127,21 @@
           <t>153</t>
         </is>
       </c>
+      <c r="Q521" s="10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R521" s="10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="S521" s="10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="522">
       <c r="A522" s="1" t="inlineStr">
@@ -93840,6 +94224,21 @@
           <t>198</t>
         </is>
       </c>
+      <c r="Q522" s="10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R522" s="10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="S522" s="10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="523">
       <c r="A523" s="1" t="inlineStr">
@@ -93922,6 +94321,21 @@
           <t>714</t>
         </is>
       </c>
+      <c r="Q523" s="10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R523" s="10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="S523" s="10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="524">
       <c r="A524" s="1" t="inlineStr">
@@ -94004,6 +94418,21 @@
           <t>142</t>
         </is>
       </c>
+      <c r="Q524" s="10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R524" s="10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="S524" s="10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="525">
       <c r="A525" s="1" t="inlineStr">
@@ -94086,6 +94515,21 @@
           <t>305</t>
         </is>
       </c>
+      <c r="Q525" s="10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R525" s="10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="S525" s="10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="526">
       <c r="A526" s="1" t="inlineStr">
@@ -94168,6 +94612,21 @@
           <t>067</t>
         </is>
       </c>
+      <c r="Q526" s="10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R526" s="10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="S526" s="10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="527">
       <c r="A527" s="1" t="inlineStr">
@@ -94250,6 +94709,21 @@
           <t>325</t>
         </is>
       </c>
+      <c r="Q527" s="10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R527" s="10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="S527" s="10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="528">
       <c r="A528" s="1" t="inlineStr">
@@ -94319,22 +94793,37 @@
       </c>
       <c r="N528" s="9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>513</t>
         </is>
       </c>
       <c r="O528" s="9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>286</t>
         </is>
       </c>
       <c r="P528" s="9" t="inlineStr">
+        <is>
+          <t>588</t>
+        </is>
+      </c>
+      <c r="Q528" s="10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R528" s="10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="S528" s="10" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="201">
+  <mergeCells count="202">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
@@ -94536,6 +95025,7 @@
     <mergeCell ref="H496:J496"/>
     <mergeCell ref="K496:M496"/>
     <mergeCell ref="N496:P496"/>
+    <mergeCell ref="Q496:S496"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/swertres/excel_results_4.xlsx
+++ b/swertres/excel_results_4.xlsx
@@ -92674,17 +92674,17 @@
       </c>
       <c r="Q506" s="10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>143</t>
         </is>
       </c>
       <c r="R506" s="10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>903</t>
         </is>
       </c>
       <c r="S506" s="10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>868</t>
         </is>
       </c>
     </row>

--- a/swertres/excel_results_4.xlsx
+++ b/swertres/excel_results_4.xlsx
@@ -92771,17 +92771,17 @@
       </c>
       <c r="Q507" s="10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>003</t>
         </is>
       </c>
       <c r="R507" s="10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>223</t>
         </is>
       </c>
       <c r="S507" s="10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>466</t>
         </is>
       </c>
     </row>
@@ -92868,17 +92868,17 @@
       </c>
       <c r="Q508" s="10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>144</t>
         </is>
       </c>
       <c r="R508" s="10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>375</t>
         </is>
       </c>
       <c r="S508" s="10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>182</t>
         </is>
       </c>
     </row>
@@ -92965,17 +92965,17 @@
       </c>
       <c r="Q509" s="10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>793</t>
         </is>
       </c>
       <c r="R509" s="10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>699</t>
         </is>
       </c>
       <c r="S509" s="10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>477</t>
         </is>
       </c>
     </row>
@@ -93062,17 +93062,17 @@
       </c>
       <c r="Q510" s="10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>209</t>
         </is>
       </c>
       <c r="R510" s="10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>077</t>
         </is>
       </c>
       <c r="S510" s="10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>761</t>
         </is>
       </c>
     </row>
@@ -93159,17 +93159,17 @@
       </c>
       <c r="Q511" s="10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>395</t>
         </is>
       </c>
       <c r="R511" s="10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>654</t>
         </is>
       </c>
       <c r="S511" s="10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>752</t>
         </is>
       </c>
     </row>
@@ -93256,17 +93256,17 @@
       </c>
       <c r="Q512" s="10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>778</t>
         </is>
       </c>
       <c r="R512" s="10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>049</t>
         </is>
       </c>
       <c r="S512" s="10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>823</t>
         </is>
       </c>
     </row>
@@ -93353,17 +93353,17 @@
       </c>
       <c r="Q513" s="10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>425</t>
         </is>
       </c>
       <c r="R513" s="10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>903</t>
         </is>
       </c>
       <c r="S513" s="10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>058</t>
         </is>
       </c>
     </row>

--- a/swertres/excel_results_4.xlsx
+++ b/swertres/excel_results_4.xlsx
@@ -93450,17 +93450,17 @@
       </c>
       <c r="Q514" s="10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>211</t>
         </is>
       </c>
       <c r="R514" s="10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>082</t>
         </is>
       </c>
       <c r="S514" s="10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>750</t>
         </is>
       </c>
     </row>
@@ -93547,17 +93547,17 @@
       </c>
       <c r="Q515" s="10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>617</t>
         </is>
       </c>
       <c r="R515" s="10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>800</t>
         </is>
       </c>
       <c r="S515" s="10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>776</t>
         </is>
       </c>
     </row>
@@ -93644,17 +93644,17 @@
       </c>
       <c r="Q516" s="10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>324</t>
         </is>
       </c>
       <c r="R516" s="10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>381</t>
         </is>
       </c>
       <c r="S516" s="10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>108</t>
         </is>
       </c>
     </row>

--- a/swertres/excel_results_4.xlsx
+++ b/swertres/excel_results_4.xlsx
@@ -35,7 +35,7 @@
       <sz val="21"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill/>
     </fill>
@@ -70,6 +70,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="009966ff"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFFFF"/>
       </patternFill>
     </fill>
     <fill>
@@ -209,7 +214,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -217,8 +222,11 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
@@ -241,9 +249,6 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -262,11 +267,18 @@
     <xf numFmtId="0" fontId="2" fillId="14" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
     <cellStyle name="def_style" xfId="1" hidden="0"/>
     <cellStyle name="res_style" xfId="2" hidden="0"/>
+    <cellStyle name="res_macth_style" xfId="3" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
@@ -1908,7 +1920,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="S8" s="10" t="inlineStr">
+      <c r="S8" s="17" t="inlineStr">
         <is>
           <t>693</t>
         </is>
@@ -3763,7 +3775,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="P18" s="9" t="inlineStr">
+      <c r="P18" s="17" t="inlineStr">
         <is>
           <t>361</t>
         </is>
@@ -5728,7 +5740,7 @@
           <t>616</t>
         </is>
       </c>
-      <c r="AI28" s="16" t="inlineStr">
+      <c r="AI28" s="17" t="inlineStr">
         <is>
           <t>163</t>
         </is>
@@ -6112,7 +6124,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AK30" s="16" t="inlineStr">
+      <c r="AK30" s="17" t="inlineStr">
         <is>
           <t>613</t>
         </is>
@@ -6426,7 +6438,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="Y32" s="12" t="inlineStr">
+      <c r="Y32" s="17" t="inlineStr">
         <is>
           <t>936</t>
         </is>
@@ -8196,7 +8208,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="Y42" s="12" t="inlineStr">
+      <c r="Y42" s="17" t="inlineStr">
         <is>
           <t>369</t>
         </is>
@@ -8829,7 +8841,7 @@
           <t>11</t>
         </is>
       </c>
-      <c r="B46" s="5" t="inlineStr">
+      <c r="B46" s="17" t="inlineStr">
         <is>
           <t>613</t>
         </is>
@@ -9525,7 +9537,7 @@
           <t>260</t>
         </is>
       </c>
-      <c r="AC49" s="14" t="inlineStr">
+      <c r="AC49" s="17" t="inlineStr">
         <is>
           <t>693</t>
         </is>
@@ -10657,7 +10669,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AE55" s="14" t="inlineStr">
+      <c r="AE55" s="17" t="inlineStr">
         <is>
           <t>396</t>
         </is>
@@ -10916,7 +10928,7 @@
           <t>185</t>
         </is>
       </c>
-      <c r="H57" s="7" t="inlineStr">
+      <c r="H57" s="17" t="inlineStr">
         <is>
           <t>936</t>
         </is>
@@ -13190,7 +13202,7 @@
           <t>626</t>
         </is>
       </c>
-      <c r="AH69" s="15" t="inlineStr">
+      <c r="AH69" s="17" t="inlineStr">
         <is>
           <t>396</t>
         </is>
@@ -14793,7 +14805,7 @@
           <t>061</t>
         </is>
       </c>
-      <c r="R78" s="10" t="inlineStr">
+      <c r="R78" s="17" t="inlineStr">
         <is>
           <t>316</t>
         </is>
@@ -15217,7 +15229,7 @@
           <t>801</t>
         </is>
       </c>
-      <c r="AB80" s="13" t="inlineStr">
+      <c r="AB80" s="17" t="inlineStr">
         <is>
           <t>963</t>
         </is>
@@ -15374,7 +15386,7 @@
           <t>349</t>
         </is>
       </c>
-      <c r="V81" s="11" t="inlineStr">
+      <c r="V81" s="17" t="inlineStr">
         <is>
           <t>936</t>
         </is>
@@ -15389,7 +15401,7 @@
           <t>933</t>
         </is>
       </c>
-      <c r="Y81" s="12" t="inlineStr">
+      <c r="Y81" s="17" t="inlineStr">
         <is>
           <t>136</t>
         </is>
@@ -15506,7 +15518,7 @@
           <t>559</t>
         </is>
       </c>
-      <c r="K82" s="8" t="inlineStr">
+      <c r="K82" s="17" t="inlineStr">
         <is>
           <t>631</t>
         </is>
@@ -16249,7 +16261,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="J86" s="7" t="inlineStr">
+      <c r="J86" s="17" t="inlineStr">
         <is>
           <t>631</t>
         </is>
@@ -16875,7 +16887,7 @@
           <t>889</t>
         </is>
       </c>
-      <c r="W89" s="12" t="inlineStr">
+      <c r="W89" s="17" t="inlineStr">
         <is>
           <t>693</t>
         </is>
@@ -17451,7 +17463,7 @@
           <t>254</t>
         </is>
       </c>
-      <c r="Z92" s="13" t="inlineStr">
+      <c r="Z92" s="17" t="inlineStr">
         <is>
           <t>631</t>
         </is>
@@ -17865,7 +17877,7 @@
           <t>679</t>
         </is>
       </c>
-      <c r="AH94" s="15" t="inlineStr">
+      <c r="AH94" s="17" t="inlineStr">
         <is>
           <t>613</t>
         </is>
@@ -17927,7 +17939,7 @@
           <t>922</t>
         </is>
       </c>
-      <c r="I95" s="7" t="inlineStr">
+      <c r="I95" s="17" t="inlineStr">
         <is>
           <t>136</t>
         </is>
@@ -19797,7 +19809,7 @@
           <t>784</t>
         </is>
       </c>
-      <c r="AC105" s="14" t="inlineStr">
+      <c r="AC105" s="17" t="inlineStr">
         <is>
           <t>631</t>
         </is>
@@ -20520,7 +20532,7 @@
           <t>781</t>
         </is>
       </c>
-      <c r="X109" s="12" t="inlineStr">
+      <c r="X109" s="17" t="inlineStr">
         <is>
           <t>613</t>
         </is>
@@ -20789,7 +20801,7 @@
           <t>408</t>
         </is>
       </c>
-      <c r="C111" s="5" t="inlineStr">
+      <c r="C111" s="17" t="inlineStr">
         <is>
           <t>396</t>
         </is>
@@ -21218,7 +21230,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="N113" s="9" t="inlineStr">
+      <c r="N113" s="17" t="inlineStr">
         <is>
           <t>396</t>
         </is>
@@ -21617,7 +21629,7 @@
           <t>752</t>
         </is>
       </c>
-      <c r="S115" s="10" t="inlineStr">
+      <c r="S115" s="17" t="inlineStr">
         <is>
           <t>369</t>
         </is>
@@ -21667,7 +21679,7 @@
           <t>112</t>
         </is>
       </c>
-      <c r="AC115" s="14" t="inlineStr">
+      <c r="AC115" s="17" t="inlineStr">
         <is>
           <t>163</t>
         </is>
@@ -21809,7 +21821,7 @@
           <t>080</t>
         </is>
       </c>
-      <c r="T116" s="11" t="inlineStr">
+      <c r="T116" s="17" t="inlineStr">
         <is>
           <t>639</t>
         </is>
@@ -22143,7 +22155,7 @@
           <t>074</t>
         </is>
       </c>
-      <c r="L118" s="8" t="inlineStr">
+      <c r="L118" s="17" t="inlineStr">
         <is>
           <t>163</t>
         </is>
@@ -22173,7 +22185,7 @@
           <t>129</t>
         </is>
       </c>
-      <c r="R118" s="10" t="inlineStr">
+      <c r="R118" s="17" t="inlineStr">
         <is>
           <t>631</t>
         </is>
@@ -22926,7 +22938,7 @@
           <t>532</t>
         </is>
       </c>
-      <c r="S122" s="10" t="inlineStr">
+      <c r="S122" s="17" t="inlineStr">
         <is>
           <t>136</t>
         </is>
@@ -23048,7 +23060,7 @@
           <t>808</t>
         </is>
       </c>
-      <c r="F123" s="6" t="inlineStr">
+      <c r="F123" s="17" t="inlineStr">
         <is>
           <t>136</t>
         </is>
@@ -23776,7 +23788,7 @@
           <t>26</t>
         </is>
       </c>
-      <c r="B127" s="5" t="inlineStr">
+      <c r="B127" s="17" t="inlineStr">
         <is>
           <t>136</t>
         </is>
@@ -24342,7 +24354,7 @@
           <t>793</t>
         </is>
       </c>
-      <c r="C130" s="5" t="inlineStr">
+      <c r="C130" s="17" t="inlineStr">
         <is>
           <t>369</t>
         </is>
@@ -24397,7 +24409,7 @@
           <t>876</t>
         </is>
       </c>
-      <c r="N130" s="9" t="inlineStr">
+      <c r="N130" s="17" t="inlineStr">
         <is>
           <t>369</t>
         </is>
@@ -24574,7 +24586,7 @@
           <t>245</t>
         </is>
       </c>
-      <c r="L131" s="8" t="inlineStr">
+      <c r="L131" s="17" t="inlineStr">
         <is>
           <t>693</t>
         </is>
@@ -24721,7 +24733,7 @@
           <t>511</t>
         </is>
       </c>
-      <c r="D132" s="5" t="inlineStr">
+      <c r="D132" s="17" t="inlineStr">
         <is>
           <t>639</t>
         </is>
@@ -25317,7 +25329,7 @@
           <t>992</t>
         </is>
       </c>
-      <c r="AE135" s="14" t="inlineStr">
+      <c r="AE135" s="17" t="inlineStr">
         <is>
           <t>396</t>
         </is>
@@ -25763,7 +25775,7 @@
           <t>129</t>
         </is>
       </c>
-      <c r="H138" s="7" t="inlineStr">
+      <c r="H138" s="17" t="inlineStr">
         <is>
           <t>613</t>
         </is>
@@ -25803,7 +25815,7 @@
           <t>004</t>
         </is>
       </c>
-      <c r="P138" s="9" t="inlineStr">
+      <c r="P138" s="17" t="inlineStr">
         <is>
           <t>639</t>
         </is>
@@ -27112,7 +27124,7 @@
           <t>298</t>
         </is>
       </c>
-      <c r="P145" s="9" t="inlineStr">
+      <c r="P145" s="17" t="inlineStr">
         <is>
           <t>936</t>
         </is>
@@ -27506,7 +27518,7 @@
           <t>340</t>
         </is>
       </c>
-      <c r="T147" s="11" t="inlineStr">
+      <c r="T147" s="17" t="inlineStr">
         <is>
           <t>963</t>
         </is>
@@ -27561,7 +27573,7 @@
           <t>808</t>
         </is>
       </c>
-      <c r="AE147" s="14" t="inlineStr">
+      <c r="AE147" s="17" t="inlineStr">
         <is>
           <t>369</t>
         </is>
@@ -28229,7 +28241,7 @@
           <t>146</t>
         </is>
       </c>
-      <c r="O151" s="9" t="inlineStr">
+      <c r="O151" s="17" t="inlineStr">
         <is>
           <t>639</t>
         </is>
@@ -28598,7 +28610,7 @@
           <t>551</t>
         </is>
       </c>
-      <c r="N153" s="9" t="inlineStr">
+      <c r="N153" s="17" t="inlineStr">
         <is>
           <t>316</t>
         </is>
@@ -28643,7 +28655,7 @@
           <t>872</t>
         </is>
       </c>
-      <c r="W153" s="12" t="inlineStr">
+      <c r="W153" s="17" t="inlineStr">
         <is>
           <t>316</t>
         </is>
@@ -29331,7 +29343,7 @@
           <t>322</t>
         </is>
       </c>
-      <c r="K157" s="8" t="inlineStr">
+      <c r="K157" s="17" t="inlineStr">
         <is>
           <t>361</t>
         </is>
@@ -29670,7 +29682,7 @@
           <t>846</t>
         </is>
       </c>
-      <c r="D159" s="5" t="inlineStr">
+      <c r="D159" s="17" t="inlineStr">
         <is>
           <t>936</t>
         </is>
@@ -29982,7 +29994,7 @@
           <t>399</t>
         </is>
       </c>
-      <c r="AC160" s="14" t="inlineStr">
+      <c r="AC160" s="17" t="inlineStr">
         <is>
           <t>613</t>
         </is>
@@ -31540,7 +31552,7 @@
           <t>592</t>
         </is>
       </c>
-      <c r="X169" s="12" t="inlineStr">
+      <c r="X169" s="17" t="inlineStr">
         <is>
           <t>316</t>
         </is>
@@ -31819,7 +31831,7 @@
           <t>452</t>
         </is>
       </c>
-      <c r="E171" s="6" t="inlineStr">
+      <c r="E171" s="17" t="inlineStr">
         <is>
           <t>396</t>
         </is>
@@ -32662,7 +32674,7 @@
           <t>938</t>
         </is>
       </c>
-      <c r="X175" s="12" t="inlineStr">
+      <c r="X175" s="17" t="inlineStr">
         <is>
           <t>396</t>
         </is>
@@ -33096,7 +33108,7 @@
           <t>038</t>
         </is>
       </c>
-      <c r="AJ177" s="16" t="inlineStr">
+      <c r="AJ177" s="17" t="inlineStr">
         <is>
           <t>396</t>
         </is>
@@ -33395,7 +33407,7 @@
           <t>408</t>
         </is>
       </c>
-      <c r="U179" s="11" t="inlineStr">
+      <c r="U179" s="17" t="inlineStr">
         <is>
           <t>369</t>
         </is>
@@ -33637,7 +33649,7 @@
           <t>661</t>
         </is>
       </c>
-      <c r="AF180" s="15" t="inlineStr">
+      <c r="AF180" s="17" t="inlineStr">
         <is>
           <t>693</t>
         </is>
@@ -34138,7 +34150,7 @@
           <t>706</t>
         </is>
       </c>
-      <c r="T183" s="11" t="inlineStr">
+      <c r="T183" s="17" t="inlineStr">
         <is>
           <t>163</t>
         </is>
@@ -34355,7 +34367,7 @@
           <t>292</t>
         </is>
       </c>
-      <c r="Z184" s="13" t="inlineStr">
+      <c r="Z184" s="17" t="inlineStr">
         <is>
           <t>613</t>
         </is>
@@ -34437,7 +34449,7 @@
           <t>674</t>
         </is>
       </c>
-      <c r="E185" s="6" t="inlineStr">
+      <c r="E185" s="17" t="inlineStr">
         <is>
           <t>163</t>
         </is>
@@ -36115,7 +36127,7 @@
           <t>223</t>
         </is>
       </c>
-      <c r="D194" s="5" t="inlineStr">
+      <c r="D194" s="17" t="inlineStr">
         <is>
           <t>361</t>
         </is>
@@ -37018,7 +37030,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AI198" s="16" t="inlineStr">
+      <c r="AI198" s="17" t="inlineStr">
         <is>
           <t>396</t>
         </is>
@@ -37778,7 +37790,7 @@
           <t>164</t>
         </is>
       </c>
-      <c r="T203" s="11" t="inlineStr">
+      <c r="T203" s="17" t="inlineStr">
         <is>
           <t>136</t>
         </is>
@@ -38127,7 +38139,7 @@
           <t>825</t>
         </is>
       </c>
-      <c r="O205" s="9" t="inlineStr">
+      <c r="O205" s="17" t="inlineStr">
         <is>
           <t>136</t>
         </is>
@@ -38374,7 +38386,7 @@
           <t>979</t>
         </is>
       </c>
-      <c r="AA206" s="13" t="inlineStr">
+      <c r="AA206" s="17" t="inlineStr">
         <is>
           <t>396</t>
         </is>
@@ -38394,7 +38406,7 @@
           <t>903</t>
         </is>
       </c>
-      <c r="AE206" s="14" t="inlineStr">
+      <c r="AE206" s="17" t="inlineStr">
         <is>
           <t>163</t>
         </is>
@@ -39598,7 +39610,7 @@
           <t>554</t>
         </is>
       </c>
-      <c r="J213" s="7" t="inlineStr">
+      <c r="J213" s="17" t="inlineStr">
         <is>
           <t>369</t>
         </is>
@@ -39653,7 +39665,7 @@
           <t>444</t>
         </is>
       </c>
-      <c r="U213" s="11" t="inlineStr">
+      <c r="U213" s="17" t="inlineStr">
         <is>
           <t>693</t>
         </is>
@@ -40097,7 +40109,7 @@
           <t>037</t>
         </is>
       </c>
-      <c r="AI215" s="16" t="inlineStr">
+      <c r="AI215" s="17" t="inlineStr">
         <is>
           <t>639</t>
         </is>
@@ -40755,7 +40767,7 @@
           <t>798</t>
         </is>
       </c>
-      <c r="Q219" s="10" t="inlineStr">
+      <c r="Q219" s="17" t="inlineStr">
         <is>
           <t>369</t>
         </is>
@@ -41069,7 +41081,7 @@
           <t>783</t>
         </is>
       </c>
-      <c r="E221" s="6" t="inlineStr">
+      <c r="E221" s="17" t="inlineStr">
         <is>
           <t>369</t>
         </is>
@@ -41301,7 +41313,7 @@
           <t>413</t>
         </is>
       </c>
-      <c r="N222" s="9" t="inlineStr">
+      <c r="N222" s="17" t="inlineStr">
         <is>
           <t>396</t>
         </is>
@@ -42054,7 +42066,7 @@
           <t>372</t>
         </is>
       </c>
-      <c r="O226" s="9" t="inlineStr">
+      <c r="O226" s="17" t="inlineStr">
         <is>
           <t>963</t>
         </is>
@@ -42605,7 +42617,7 @@
           <t>623</t>
         </is>
       </c>
-      <c r="M229" s="8" t="inlineStr">
+      <c r="M229" s="17" t="inlineStr">
         <is>
           <t>396</t>
         </is>
@@ -43622,7 +43634,7 @@
           <t>657</t>
         </is>
       </c>
-      <c r="L235" s="8" t="inlineStr">
+      <c r="L235" s="17" t="inlineStr">
         <is>
           <t>163</t>
         </is>
@@ -44642,7 +44654,7 @@
           <t>541</t>
         </is>
       </c>
-      <c r="AC240" s="14" t="inlineStr">
+      <c r="AC240" s="17" t="inlineStr">
         <is>
           <t>963</t>
         </is>
@@ -44719,7 +44731,7 @@
           <t>527</t>
         </is>
       </c>
-      <c r="G241" s="6" t="inlineStr">
+      <c r="G241" s="17" t="inlineStr">
         <is>
           <t>396</t>
         </is>
@@ -45153,7 +45165,7 @@
           <t>148</t>
         </is>
       </c>
-      <c r="S243" s="10" t="inlineStr">
+      <c r="S243" s="17" t="inlineStr">
         <is>
           <t>361</t>
         </is>
@@ -45233,7 +45245,7 @@
           <t>691</t>
         </is>
       </c>
-      <c r="AI243" s="16" t="inlineStr">
+      <c r="AI243" s="17" t="inlineStr">
         <is>
           <t>631</t>
         </is>
@@ -45305,7 +45317,7 @@
           <t>088</t>
         </is>
       </c>
-      <c r="L244" s="8" t="inlineStr">
+      <c r="L244" s="17" t="inlineStr">
         <is>
           <t>631</t>
         </is>
@@ -45754,7 +45766,7 @@
           <t>940</t>
         </is>
       </c>
-      <c r="AA246" s="13" t="inlineStr">
+      <c r="AA246" s="17" t="inlineStr">
         <is>
           <t>693</t>
         </is>
@@ -45956,7 +45968,7 @@
           <t>131</t>
         </is>
       </c>
-      <c r="AD247" s="14" t="inlineStr">
+      <c r="AD247" s="17" t="inlineStr">
         <is>
           <t>361</t>
         </is>
@@ -46225,7 +46237,7 @@
           <t>336</t>
         </is>
       </c>
-      <c r="I249" s="7" t="inlineStr">
+      <c r="I249" s="17" t="inlineStr">
         <is>
           <t>163</t>
         </is>
@@ -47285,7 +47297,7 @@
           <t>372</t>
         </is>
       </c>
-      <c r="AH254" s="15" t="inlineStr">
+      <c r="AH254" s="17" t="inlineStr">
         <is>
           <t>163</t>
         </is>
@@ -47397,7 +47409,7 @@
           <t>367</t>
         </is>
       </c>
-      <c r="S255" s="10" t="inlineStr">
+      <c r="S255" s="17" t="inlineStr">
         <is>
           <t>163</t>
         </is>
@@ -47851,7 +47863,7 @@
           <t>068</t>
         </is>
       </c>
-      <c r="AI257" s="16" t="inlineStr">
+      <c r="AI257" s="17" t="inlineStr">
         <is>
           <t>639</t>
         </is>
@@ -47861,7 +47873,7 @@
           <t>062</t>
         </is>
       </c>
-      <c r="AK257" s="16" t="inlineStr">
+      <c r="AK257" s="17" t="inlineStr">
         <is>
           <t>369</t>
         </is>
@@ -48120,7 +48132,7 @@
           <t>359</t>
         </is>
       </c>
-      <c r="N259" s="9" t="inlineStr">
+      <c r="N259" s="17" t="inlineStr">
         <is>
           <t>613</t>
         </is>
@@ -48277,7 +48289,7 @@
           <t>337</t>
         </is>
       </c>
-      <c r="H260" s="7" t="inlineStr">
+      <c r="H260" s="17" t="inlineStr">
         <is>
           <t>396</t>
         </is>
@@ -48292,7 +48304,7 @@
           <t>653</t>
         </is>
       </c>
-      <c r="K260" s="8" t="inlineStr">
+      <c r="K260" s="17" t="inlineStr">
         <is>
           <t>639</t>
         </is>
@@ -48362,7 +48374,7 @@
           <t>026</t>
         </is>
       </c>
-      <c r="Y260" s="12" t="inlineStr">
+      <c r="Y260" s="17" t="inlineStr">
         <is>
           <t>369</t>
         </is>
@@ -48534,7 +48546,7 @@
           <t>989</t>
         </is>
       </c>
-      <c r="V261" s="11" t="inlineStr">
+      <c r="V261" s="17" t="inlineStr">
         <is>
           <t>361</t>
         </is>
@@ -50209,7 +50221,7 @@
           <t>886</t>
         </is>
       </c>
-      <c r="C271" s="5" t="inlineStr">
+      <c r="C271" s="17" t="inlineStr">
         <is>
           <t>936</t>
         </is>
@@ -50466,7 +50478,7 @@
           <t>303</t>
         </is>
       </c>
-      <c r="Q272" s="10" t="inlineStr">
+      <c r="Q272" s="17" t="inlineStr">
         <is>
           <t>613</t>
         </is>
@@ -50673,7 +50685,7 @@
           <t>511</t>
         </is>
       </c>
-      <c r="U273" s="11" t="inlineStr">
+      <c r="U273" s="17" t="inlineStr">
         <is>
           <t>396</t>
         </is>
@@ -50880,7 +50892,7 @@
           <t>610</t>
         </is>
       </c>
-      <c r="Y274" s="12" t="inlineStr">
+      <c r="Y274" s="17" t="inlineStr">
         <is>
           <t>631</t>
         </is>
@@ -51229,7 +51241,7 @@
           <t>638</t>
         </is>
       </c>
-      <c r="T276" s="11" t="inlineStr">
+      <c r="T276" s="17" t="inlineStr">
         <is>
           <t>936</t>
         </is>
@@ -51431,7 +51443,7 @@
           <t>793</t>
         </is>
       </c>
-      <c r="W277" s="12" t="inlineStr">
+      <c r="W277" s="17" t="inlineStr">
         <is>
           <t>639</t>
         </is>
@@ -51608,7 +51620,7 @@
           <t>868</t>
         </is>
       </c>
-      <c r="U278" s="11" t="inlineStr">
+      <c r="U278" s="17" t="inlineStr">
         <is>
           <t>369</t>
         </is>
@@ -52458,7 +52470,7 @@
           <t>079</t>
         </is>
       </c>
-      <c r="D283" s="5" t="inlineStr">
+      <c r="D283" s="17" t="inlineStr">
         <is>
           <t>936</t>
         </is>
@@ -52790,7 +52802,7 @@
           <t>595</t>
         </is>
       </c>
-      <c r="AG284" s="15" t="inlineStr">
+      <c r="AG284" s="17" t="inlineStr">
         <is>
           <t>613</t>
         </is>
@@ -52952,7 +52964,7 @@
           <t>143</t>
         </is>
       </c>
-      <c r="AB285" s="13" t="inlineStr">
+      <c r="AB285" s="17" t="inlineStr">
         <is>
           <t>361</t>
         </is>
@@ -53847,7 +53859,7 @@
           <t>480</t>
         </is>
       </c>
-      <c r="T290" s="11" t="inlineStr">
+      <c r="T290" s="17" t="inlineStr">
         <is>
           <t>936</t>
         </is>
@@ -54059,7 +54071,7 @@
           <t>759</t>
         </is>
       </c>
-      <c r="Y291" s="12" t="inlineStr">
+      <c r="Y291" s="17" t="inlineStr">
         <is>
           <t>693</t>
         </is>
@@ -56253,7 +56265,7 @@
           <t>511</t>
         </is>
       </c>
-      <c r="AI303" s="16" t="inlineStr">
+      <c r="AI303" s="17" t="inlineStr">
         <is>
           <t>613</t>
         </is>
@@ -57058,7 +57070,7 @@
           <t>823</t>
         </is>
       </c>
-      <c r="I308" s="7" t="inlineStr">
+      <c r="I308" s="17" t="inlineStr">
         <is>
           <t>163</t>
         </is>
@@ -57148,7 +57160,7 @@
           <t>191</t>
         </is>
       </c>
-      <c r="AA308" s="13" t="inlineStr">
+      <c r="AA308" s="17" t="inlineStr">
         <is>
           <t>631</t>
         </is>
@@ -57714,7 +57726,7 @@
           <t>134</t>
         </is>
       </c>
-      <c r="AB311" s="13" t="inlineStr">
+      <c r="AB311" s="17" t="inlineStr">
         <is>
           <t>631</t>
         </is>
@@ -57729,7 +57741,7 @@
           <t>321</t>
         </is>
       </c>
-      <c r="AE311" s="14" t="inlineStr">
+      <c r="AE311" s="17" t="inlineStr">
         <is>
           <t>613</t>
         </is>
@@ -58098,7 +58110,7 @@
           <t>960</t>
         </is>
       </c>
-      <c r="AD313" s="14" t="inlineStr">
+      <c r="AD313" s="17" t="inlineStr">
         <is>
           <t>396</t>
         </is>
@@ -58382,7 +58394,7 @@
           <t>952</t>
         </is>
       </c>
-      <c r="L315" s="8" t="inlineStr">
+      <c r="L315" s="17" t="inlineStr">
         <is>
           <t>396</t>
         </is>
@@ -58477,7 +58489,7 @@
           <t>786</t>
         </is>
       </c>
-      <c r="AE315" s="14" t="inlineStr">
+      <c r="AE315" s="17" t="inlineStr">
         <is>
           <t>163</t>
         </is>
@@ -58619,7 +58631,7 @@
           <t>533</t>
         </is>
       </c>
-      <c r="V316" s="11" t="inlineStr">
+      <c r="V316" s="17" t="inlineStr">
         <is>
           <t>369</t>
         </is>
@@ -58943,7 +58955,7 @@
           <t>727</t>
         </is>
       </c>
-      <c r="L318" s="8" t="inlineStr">
+      <c r="L318" s="17" t="inlineStr">
         <is>
           <t>361</t>
         </is>
@@ -60090,7 +60102,7 @@
           <t>138</t>
         </is>
       </c>
-      <c r="Q324" s="10" t="inlineStr">
+      <c r="Q324" s="17" t="inlineStr">
         <is>
           <t>693</t>
         </is>
@@ -60661,7 +60673,7 @@
           <t>860</t>
         </is>
       </c>
-      <c r="S327" s="10" t="inlineStr">
+      <c r="S327" s="17" t="inlineStr">
         <is>
           <t>396</t>
         </is>
@@ -61987,7 +61999,7 @@
           <t>271</t>
         </is>
       </c>
-      <c r="E335" s="6" t="inlineStr">
+      <c r="E335" s="17" t="inlineStr">
         <is>
           <t>613</t>
         </is>
@@ -62466,7 +62478,7 @@
           <t>146</t>
         </is>
       </c>
-      <c r="Z337" s="13" t="inlineStr">
+      <c r="Z337" s="17" t="inlineStr">
         <is>
           <t>693</t>
         </is>
@@ -62912,7 +62924,7 @@
           <t>914</t>
         </is>
       </c>
-      <c r="C340" s="5" t="inlineStr">
+      <c r="C340" s="17" t="inlineStr">
         <is>
           <t>631</t>
         </is>
@@ -63199,7 +63211,7 @@
           <t>553</t>
         </is>
       </c>
-      <c r="W341" s="12" t="inlineStr">
+      <c r="W341" s="17" t="inlineStr">
         <is>
           <t>369</t>
         </is>
@@ -63381,7 +63393,7 @@
           <t>871</t>
         </is>
       </c>
-      <c r="V342" s="11" t="inlineStr">
+      <c r="V342" s="17" t="inlineStr">
         <is>
           <t>963</t>
         </is>
@@ -63451,7 +63463,7 @@
           <t>746</t>
         </is>
       </c>
-      <c r="AJ342" s="16" t="inlineStr">
+      <c r="AJ342" s="17" t="inlineStr">
         <is>
           <t>613</t>
         </is>
@@ -63528,7 +63540,7 @@
           <t>191</t>
         </is>
       </c>
-      <c r="N343" s="9" t="inlineStr">
+      <c r="N343" s="17" t="inlineStr">
         <is>
           <t>361</t>
         </is>
@@ -63770,7 +63782,7 @@
           <t>735</t>
         </is>
       </c>
-      <c r="Y344" s="12" t="inlineStr">
+      <c r="Y344" s="17" t="inlineStr">
         <is>
           <t>639</t>
         </is>
@@ -64590,7 +64602,7 @@
           <t>17</t>
         </is>
       </c>
-      <c r="B349" s="5" t="inlineStr">
+      <c r="B349" s="17" t="inlineStr">
         <is>
           <t>613</t>
         </is>
@@ -64620,7 +64632,7 @@
           <t>795</t>
         </is>
       </c>
-      <c r="H349" s="7" t="inlineStr">
+      <c r="H349" s="17" t="inlineStr">
         <is>
           <t>613</t>
         </is>
@@ -65124,7 +65136,7 @@
           <t>424</t>
         </is>
       </c>
-      <c r="AH351" s="15" t="inlineStr">
+      <c r="AH351" s="17" t="inlineStr">
         <is>
           <t>396</t>
         </is>
@@ -65161,7 +65173,7 @@
           <t>437</t>
         </is>
       </c>
-      <c r="D352" s="5" t="inlineStr">
+      <c r="D352" s="17" t="inlineStr">
         <is>
           <t>936</t>
         </is>
@@ -65413,7 +65425,7 @@
           <t>906</t>
         </is>
       </c>
-      <c r="Q353" s="10" t="inlineStr">
+      <c r="Q353" s="17" t="inlineStr">
         <is>
           <t>693</t>
         </is>
@@ -65807,7 +65819,7 @@
           <t>659</t>
         </is>
       </c>
-      <c r="U355" s="11" t="inlineStr">
+      <c r="U355" s="17" t="inlineStr">
         <is>
           <t>936</t>
         </is>
@@ -65847,7 +65859,7 @@
           <t>067</t>
         </is>
       </c>
-      <c r="AC355" s="14" t="inlineStr">
+      <c r="AC355" s="17" t="inlineStr">
         <is>
           <t>396</t>
         </is>
@@ -66206,7 +66218,7 @@
           <t>278</t>
         </is>
       </c>
-      <c r="Z357" s="13" t="inlineStr">
+      <c r="Z357" s="17" t="inlineStr">
         <is>
           <t>936</t>
         </is>
@@ -66443,7 +66455,7 @@
           <t>266</t>
         </is>
       </c>
-      <c r="AJ358" s="16" t="inlineStr">
+      <c r="AJ358" s="17" t="inlineStr">
         <is>
           <t>631</t>
         </is>
@@ -66475,7 +66487,7 @@
           <t>587</t>
         </is>
       </c>
-      <c r="E359" s="6" t="inlineStr">
+      <c r="E359" s="17" t="inlineStr">
         <is>
           <t>163</t>
         </is>
@@ -66934,7 +66946,7 @@
           <t>994</t>
         </is>
       </c>
-      <c r="V361" s="11" t="inlineStr">
+      <c r="V361" s="17" t="inlineStr">
         <is>
           <t>316</t>
         </is>
@@ -69190,7 +69202,7 @@
           <t>387</t>
         </is>
       </c>
-      <c r="G374" s="6" t="inlineStr">
+      <c r="G374" s="17" t="inlineStr">
         <is>
           <t>316</t>
         </is>
@@ -69367,7 +69379,7 @@
           <t>510</t>
         </is>
       </c>
-      <c r="E375" s="6" t="inlineStr">
+      <c r="E375" s="17" t="inlineStr">
         <is>
           <t>639</t>
         </is>
@@ -69786,7 +69798,7 @@
           <t>169</t>
         </is>
       </c>
-      <c r="N377" s="9" t="inlineStr">
+      <c r="N377" s="17" t="inlineStr">
         <is>
           <t>936</t>
         </is>
@@ -69816,7 +69828,7 @@
           <t>402</t>
         </is>
       </c>
-      <c r="T377" s="11" t="inlineStr">
+      <c r="T377" s="17" t="inlineStr">
         <is>
           <t>163</t>
         </is>
@@ -69983,7 +69995,7 @@
           <t>347</t>
         </is>
       </c>
-      <c r="P378" s="9" t="inlineStr">
+      <c r="P378" s="17" t="inlineStr">
         <is>
           <t>369</t>
         </is>
@@ -70110,7 +70122,7 @@
           <t>373</t>
         </is>
       </c>
-      <c r="D379" s="5" t="inlineStr">
+      <c r="D379" s="17" t="inlineStr">
         <is>
           <t>163</t>
         </is>
@@ -70609,7 +70621,7 @@
           <t>604</t>
         </is>
       </c>
-      <c r="AC381" s="14" t="inlineStr">
+      <c r="AC381" s="17" t="inlineStr">
         <is>
           <t>639</t>
         </is>
@@ -71751,7 +71763,7 @@
           <t>495</t>
         </is>
       </c>
-      <c r="AG387" s="15" t="inlineStr">
+      <c r="AG387" s="17" t="inlineStr">
         <is>
           <t>361</t>
         </is>
@@ -71913,7 +71925,7 @@
           <t>748</t>
         </is>
       </c>
-      <c r="AB388" s="13" t="inlineStr">
+      <c r="AB388" s="17" t="inlineStr">
         <is>
           <t>369</t>
         </is>
@@ -72404,7 +72416,7 @@
           <t>744</t>
         </is>
       </c>
-      <c r="N391" s="9" t="inlineStr">
+      <c r="N391" s="17" t="inlineStr">
         <is>
           <t>963</t>
         </is>
@@ -72489,7 +72501,7 @@
           <t>885</t>
         </is>
       </c>
-      <c r="AE391" s="14" t="inlineStr">
+      <c r="AE391" s="17" t="inlineStr">
         <is>
           <t>316</t>
         </is>
@@ -72626,7 +72638,7 @@
           <t>389</t>
         </is>
       </c>
-      <c r="U392" s="11" t="inlineStr">
+      <c r="U392" s="17" t="inlineStr">
         <is>
           <t>613</t>
         </is>
@@ -72718,7 +72730,7 @@
           <t>28</t>
         </is>
       </c>
-      <c r="B393" s="5" t="inlineStr">
+      <c r="B393" s="17" t="inlineStr">
         <is>
           <t>369</t>
         </is>
@@ -74052,7 +74064,7 @@
           <t>579</t>
         </is>
       </c>
-      <c r="AA400" s="13" t="inlineStr">
+      <c r="AA400" s="17" t="inlineStr">
         <is>
           <t>396</t>
         </is>
@@ -74224,7 +74236,7 @@
           <t>578</t>
         </is>
       </c>
-      <c r="X401" s="12" t="inlineStr">
+      <c r="X401" s="17" t="inlineStr">
         <is>
           <t>936</t>
         </is>
@@ -74279,7 +74291,7 @@
           <t>953</t>
         </is>
       </c>
-      <c r="AI401" s="16" t="inlineStr">
+      <c r="AI401" s="17" t="inlineStr">
         <is>
           <t>136</t>
         </is>
@@ -74381,7 +74393,7 @@
           <t>083</t>
         </is>
       </c>
-      <c r="R402" s="10" t="inlineStr">
+      <c r="R402" s="17" t="inlineStr">
         <is>
           <t>631</t>
         </is>
@@ -74416,7 +74428,7 @@
           <t>248</t>
         </is>
       </c>
-      <c r="Y402" s="12" t="inlineStr">
+      <c r="Y402" s="17" t="inlineStr">
         <is>
           <t>396</t>
         </is>
@@ -74461,7 +74473,7 @@
           <t>063</t>
         </is>
       </c>
-      <c r="AH402" s="15" t="inlineStr">
+      <c r="AH402" s="17" t="inlineStr">
         <is>
           <t>613</t>
         </is>
@@ -74558,7 +74570,7 @@
           <t>825</t>
         </is>
       </c>
-      <c r="P403" s="9" t="inlineStr">
+      <c r="P403" s="17" t="inlineStr">
         <is>
           <t>693</t>
         </is>
@@ -74588,7 +74600,7 @@
           <t>780</t>
         </is>
       </c>
-      <c r="V403" s="11" t="inlineStr">
+      <c r="V403" s="17" t="inlineStr">
         <is>
           <t>163</t>
         </is>
@@ -74957,7 +74969,7 @@
           <t>253</t>
         </is>
       </c>
-      <c r="U405" s="11" t="inlineStr">
+      <c r="U405" s="17" t="inlineStr">
         <is>
           <t>936</t>
         </is>
@@ -75069,7 +75081,7 @@
           <t>138</t>
         </is>
       </c>
-      <c r="F406" s="6" t="inlineStr">
+      <c r="F406" s="17" t="inlineStr">
         <is>
           <t>631</t>
         </is>
@@ -75164,7 +75176,7 @@
           <t>974</t>
         </is>
       </c>
-      <c r="Y406" s="12" t="inlineStr">
+      <c r="Y406" s="17" t="inlineStr">
         <is>
           <t>639</t>
         </is>
@@ -75326,7 +75338,7 @@
           <t>155</t>
         </is>
       </c>
-      <c r="T407" s="11" t="inlineStr">
+      <c r="T407" s="17" t="inlineStr">
         <is>
           <t>369</t>
         </is>
@@ -75660,7 +75672,7 @@
           <t>850</t>
         </is>
       </c>
-      <c r="L409" s="8" t="inlineStr">
+      <c r="L409" s="17" t="inlineStr">
         <is>
           <t>936</t>
         </is>
@@ -76311,7 +76323,7 @@
           <t>844</t>
         </is>
       </c>
-      <c r="AD412" s="14" t="inlineStr">
+      <c r="AD412" s="17" t="inlineStr">
         <is>
           <t>936</t>
         </is>
@@ -76720,7 +76732,7 @@
           <t>300</t>
         </is>
       </c>
-      <c r="AK414" s="16" t="inlineStr">
+      <c r="AK414" s="17" t="inlineStr">
         <is>
           <t>613</t>
         </is>
@@ -77438,7 +77450,7 @@
           <t>250</t>
         </is>
       </c>
-      <c r="AE418" s="14" t="inlineStr">
+      <c r="AE418" s="17" t="inlineStr">
         <is>
           <t>316</t>
         </is>
@@ -77520,7 +77532,7 @@
           <t>007</t>
         </is>
       </c>
-      <c r="J419" s="7" t="inlineStr">
+      <c r="J419" s="17" t="inlineStr">
         <is>
           <t>369</t>
         </is>
@@ -78041,7 +78053,7 @@
           <t>24</t>
         </is>
       </c>
-      <c r="B422" s="5" t="inlineStr">
+      <c r="B422" s="17" t="inlineStr">
         <is>
           <t>361</t>
         </is>
@@ -78804,7 +78816,7 @@
           <t>164</t>
         </is>
       </c>
-      <c r="E426" s="6" t="inlineStr">
+      <c r="E426" s="17" t="inlineStr">
         <is>
           <t>163</t>
         </is>
@@ -79061,7 +79073,7 @@
           <t>714</t>
         </is>
       </c>
-      <c r="S427" s="10" t="inlineStr">
+      <c r="S427" s="17" t="inlineStr">
         <is>
           <t>613</t>
         </is>
@@ -79136,7 +79148,7 @@
           <t>258</t>
         </is>
       </c>
-      <c r="AH427" s="15" t="inlineStr">
+      <c r="AH427" s="17" t="inlineStr">
         <is>
           <t>631</t>
         </is>
@@ -79896,7 +79908,7 @@
           <t>598</t>
         </is>
       </c>
-      <c r="S432" s="10" t="inlineStr">
+      <c r="S432" s="17" t="inlineStr">
         <is>
           <t>639</t>
         </is>
@@ -80038,7 +80050,7 @@
           <t>368</t>
         </is>
       </c>
-      <c r="J433" s="7" t="inlineStr">
+      <c r="J433" s="17" t="inlineStr">
         <is>
           <t>369</t>
         </is>
@@ -80776,7 +80788,7 @@
           <t>695</t>
         </is>
       </c>
-      <c r="H437" s="7" t="inlineStr">
+      <c r="H437" s="17" t="inlineStr">
         <is>
           <t>163</t>
         </is>
@@ -80948,7 +80960,7 @@
           <t>405</t>
         </is>
       </c>
-      <c r="E438" s="6" t="inlineStr">
+      <c r="E438" s="17" t="inlineStr">
         <is>
           <t>369</t>
         </is>
@@ -81322,7 +81334,7 @@
           <t>419</t>
         </is>
       </c>
-      <c r="E440" s="6" t="inlineStr">
+      <c r="E440" s="17" t="inlineStr">
         <is>
           <t>163</t>
         </is>
@@ -82554,7 +82566,7 @@
           <t>376</t>
         </is>
       </c>
-      <c r="AA446" s="13" t="inlineStr">
+      <c r="AA446" s="17" t="inlineStr">
         <is>
           <t>369</t>
         </is>
@@ -82564,7 +82576,7 @@
           <t>479</t>
         </is>
       </c>
-      <c r="AC446" s="14" t="inlineStr">
+      <c r="AC446" s="17" t="inlineStr">
         <is>
           <t>613</t>
         </is>
@@ -83140,7 +83152,7 @@
           <t>662</t>
         </is>
       </c>
-      <c r="AF449" s="15" t="inlineStr">
+      <c r="AF449" s="17" t="inlineStr">
         <is>
           <t>963</t>
         </is>
@@ -83661,7 +83673,7 @@
           <t>807</t>
         </is>
       </c>
-      <c r="X452" s="12" t="inlineStr">
+      <c r="X452" s="17" t="inlineStr">
         <is>
           <t>369</t>
         </is>
@@ -84070,7 +84082,7 @@
           <t>160</t>
         </is>
       </c>
-      <c r="AE454" s="14" t="inlineStr">
+      <c r="AE454" s="17" t="inlineStr">
         <is>
           <t>396</t>
         </is>
@@ -84349,7 +84361,7 @@
           <t>176</t>
         </is>
       </c>
-      <c r="L456" s="8" t="inlineStr">
+      <c r="L456" s="17" t="inlineStr">
         <is>
           <t>613</t>
         </is>
@@ -84783,7 +84795,7 @@
           <t>441</t>
         </is>
       </c>
-      <c r="X458" s="12" t="inlineStr">
+      <c r="X458" s="17" t="inlineStr">
         <is>
           <t>396</t>
         </is>
@@ -85107,7 +85119,7 @@
           <t>083</t>
         </is>
       </c>
-      <c r="N460" s="9" t="inlineStr">
+      <c r="N460" s="17" t="inlineStr">
         <is>
           <t>369</t>
         </is>
@@ -85596,7 +85608,7 @@
           <t>745</t>
         </is>
       </c>
-      <c r="AK462" s="16" t="inlineStr">
+      <c r="AK462" s="17" t="inlineStr">
         <is>
           <t>963</t>
         </is>
@@ -87159,7 +87171,7 @@
           <t>490</t>
         </is>
       </c>
-      <c r="AG471" s="15" t="inlineStr">
+      <c r="AG471" s="17" t="inlineStr">
         <is>
           <t>163</t>
         </is>
@@ -88722,7 +88734,7 @@
           <t>687</t>
         </is>
       </c>
-      <c r="I480" s="7" t="inlineStr">
+      <c r="I480" s="17" t="inlineStr">
         <is>
           <t>631</t>
         </is>
@@ -90572,7 +90584,7 @@
           <t>605</t>
         </is>
       </c>
-      <c r="E490" s="6" t="inlineStr">
+      <c r="E490" s="17" t="inlineStr">
         <is>
           <t>163</t>
         </is>
@@ -91096,7 +91108,7 @@
           <t>791</t>
         </is>
       </c>
-      <c r="AI492" s="16" t="inlineStr">
+      <c r="AI492" s="17" t="inlineStr">
         <is>
           <t>639</t>
         </is>
@@ -91128,7 +91140,7 @@
           <t>277</t>
         </is>
       </c>
-      <c r="D493" s="5" t="inlineStr">
+      <c r="D493" s="17" t="inlineStr">
         <is>
           <t>639</t>
         </is>
@@ -91258,7 +91270,7 @@
           <t>664</t>
         </is>
       </c>
-      <c r="AD493" s="14" t="inlineStr">
+      <c r="AD493" s="17" t="inlineStr">
         <is>
           <t>163</t>
         </is>
@@ -91268,7 +91280,7 @@
           <t>835</t>
         </is>
       </c>
-      <c r="AF493" s="15" t="inlineStr">
+      <c r="AF493" s="17" t="inlineStr">
         <is>
           <t>369</t>
         </is>
@@ -91465,7 +91477,7 @@
           <t>731</t>
         </is>
       </c>
-      <c r="AH494" s="15" t="inlineStr">
+      <c r="AH494" s="17" t="inlineStr">
         <is>
           <t>316</t>
         </is>
@@ -91721,6 +91733,13 @@
       </c>
       <c r="R496" s="2" t="n"/>
       <c r="S496" s="3" t="n"/>
+      <c r="T496" s="1" t="inlineStr">
+        <is>
+          <t>JUL 2021</t>
+        </is>
+      </c>
+      <c r="U496" s="2" t="n"/>
+      <c r="V496" s="3" t="n"/>
     </row>
     <row r="497">
       <c r="A497" s="4" t="n"/>
@@ -91814,6 +91833,21 @@
           <t>9PM</t>
         </is>
       </c>
+      <c r="T497" s="1" t="inlineStr">
+        <is>
+          <t>2PM</t>
+        </is>
+      </c>
+      <c r="U497" s="1" t="inlineStr">
+        <is>
+          <t>4PM</t>
+        </is>
+      </c>
+      <c r="V497" s="1" t="inlineStr">
+        <is>
+          <t>9PM</t>
+        </is>
+      </c>
     </row>
     <row r="498">
       <c r="A498" s="1" t="inlineStr">
@@ -91911,6 +91945,21 @@
           <t>778</t>
         </is>
       </c>
+      <c r="T498" s="11" t="inlineStr">
+        <is>
+          <t>167</t>
+        </is>
+      </c>
+      <c r="U498" s="11" t="inlineStr">
+        <is>
+          <t>718</t>
+        </is>
+      </c>
+      <c r="V498" s="11" t="inlineStr">
+        <is>
+          <t>648</t>
+        </is>
+      </c>
     </row>
     <row r="499">
       <c r="A499" s="1" t="inlineStr">
@@ -92008,6 +92057,21 @@
           <t>425</t>
         </is>
       </c>
+      <c r="T499" s="11" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="U499" s="11" t="inlineStr">
+        <is>
+          <t>325</t>
+        </is>
+      </c>
+      <c r="V499" s="11" t="inlineStr">
+        <is>
+          <t>417</t>
+        </is>
+      </c>
     </row>
     <row r="500">
       <c r="A500" s="1" t="inlineStr">
@@ -92105,6 +92169,21 @@
           <t>840</t>
         </is>
       </c>
+      <c r="T500" s="11" t="inlineStr">
+        <is>
+          <t>278</t>
+        </is>
+      </c>
+      <c r="U500" s="11" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="V500" s="11" t="inlineStr">
+        <is>
+          <t>474</t>
+        </is>
+      </c>
     </row>
     <row r="501">
       <c r="A501" s="1" t="inlineStr">
@@ -92202,6 +92281,21 @@
           <t>845</t>
         </is>
       </c>
+      <c r="T501" s="11" t="inlineStr">
+        <is>
+          <t>884</t>
+        </is>
+      </c>
+      <c r="U501" s="11" t="inlineStr">
+        <is>
+          <t>973</t>
+        </is>
+      </c>
+      <c r="V501" s="11" t="inlineStr">
+        <is>
+          <t>967</t>
+        </is>
+      </c>
     </row>
     <row r="502">
       <c r="A502" s="1" t="inlineStr">
@@ -92299,6 +92393,21 @@
           <t>055</t>
         </is>
       </c>
+      <c r="T502" s="11" t="inlineStr">
+        <is>
+          <t>609</t>
+        </is>
+      </c>
+      <c r="U502" s="11" t="inlineStr">
+        <is>
+          <t>755</t>
+        </is>
+      </c>
+      <c r="V502" s="11" t="inlineStr">
+        <is>
+          <t>572</t>
+        </is>
+      </c>
     </row>
     <row r="503">
       <c r="A503" s="1" t="inlineStr">
@@ -92396,6 +92505,21 @@
           <t>637</t>
         </is>
       </c>
+      <c r="T503" s="11" t="inlineStr">
+        <is>
+          <t>821</t>
+        </is>
+      </c>
+      <c r="U503" s="11" t="inlineStr">
+        <is>
+          <t>068</t>
+        </is>
+      </c>
+      <c r="V503" s="11" t="inlineStr">
+        <is>
+          <t>807</t>
+        </is>
+      </c>
     </row>
     <row r="504">
       <c r="A504" s="1" t="inlineStr">
@@ -92493,6 +92617,21 @@
           <t>754</t>
         </is>
       </c>
+      <c r="T504" s="11" t="inlineStr">
+        <is>
+          <t>003</t>
+        </is>
+      </c>
+      <c r="U504" s="11" t="inlineStr">
+        <is>
+          <t>870</t>
+        </is>
+      </c>
+      <c r="V504" s="11" t="inlineStr">
+        <is>
+          <t>491</t>
+        </is>
+      </c>
     </row>
     <row r="505">
       <c r="A505" s="1" t="inlineStr">
@@ -92545,7 +92684,7 @@
           <t>681</t>
         </is>
       </c>
-      <c r="K505" s="8" t="inlineStr">
+      <c r="K505" s="17" t="inlineStr">
         <is>
           <t>693</t>
         </is>
@@ -92588,6 +92727,21 @@
       <c r="S505" s="10" t="inlineStr">
         <is>
           <t>430</t>
+        </is>
+      </c>
+      <c r="T505" s="11" t="inlineStr">
+        <is>
+          <t>289</t>
+        </is>
+      </c>
+      <c r="U505" s="11" t="inlineStr">
+        <is>
+          <t>636</t>
+        </is>
+      </c>
+      <c r="V505" s="11" t="inlineStr">
+        <is>
+          <t>285</t>
         </is>
       </c>
     </row>
@@ -92687,6 +92841,21 @@
           <t>868</t>
         </is>
       </c>
+      <c r="T506" s="11" t="inlineStr">
+        <is>
+          <t>430</t>
+        </is>
+      </c>
+      <c r="U506" s="11" t="inlineStr">
+        <is>
+          <t>939</t>
+        </is>
+      </c>
+      <c r="V506" s="11" t="inlineStr">
+        <is>
+          <t>464</t>
+        </is>
+      </c>
     </row>
     <row r="507">
       <c r="A507" s="1" t="inlineStr">
@@ -92784,6 +92953,21 @@
           <t>466</t>
         </is>
       </c>
+      <c r="T507" s="11" t="inlineStr">
+        <is>
+          <t>237</t>
+        </is>
+      </c>
+      <c r="U507" s="11" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="V507" s="11" t="inlineStr">
+        <is>
+          <t>491</t>
+        </is>
+      </c>
     </row>
     <row r="508">
       <c r="A508" s="1" t="inlineStr">
@@ -92881,6 +93065,21 @@
           <t>182</t>
         </is>
       </c>
+      <c r="T508" s="11" t="inlineStr">
+        <is>
+          <t>669</t>
+        </is>
+      </c>
+      <c r="U508" s="11" t="inlineStr">
+        <is>
+          <t>861</t>
+        </is>
+      </c>
+      <c r="V508" s="11" t="inlineStr">
+        <is>
+          <t>245</t>
+        </is>
+      </c>
     </row>
     <row r="509">
       <c r="A509" s="1" t="inlineStr">
@@ -92978,6 +93177,21 @@
           <t>477</t>
         </is>
       </c>
+      <c r="T509" s="11" t="inlineStr">
+        <is>
+          <t>456</t>
+        </is>
+      </c>
+      <c r="U509" s="11" t="inlineStr">
+        <is>
+          <t>750</t>
+        </is>
+      </c>
+      <c r="V509" s="11" t="inlineStr">
+        <is>
+          <t>792</t>
+        </is>
+      </c>
     </row>
     <row r="510">
       <c r="A510" s="1" t="inlineStr">
@@ -93075,6 +93289,21 @@
           <t>761</t>
         </is>
       </c>
+      <c r="T510" s="11" t="inlineStr">
+        <is>
+          <t>785</t>
+        </is>
+      </c>
+      <c r="U510" s="11" t="inlineStr">
+        <is>
+          <t>343</t>
+        </is>
+      </c>
+      <c r="V510" s="11" t="inlineStr">
+        <is>
+          <t>729</t>
+        </is>
+      </c>
     </row>
     <row r="511">
       <c r="A511" s="1" t="inlineStr">
@@ -93172,6 +93401,21 @@
           <t>752</t>
         </is>
       </c>
+      <c r="T511" s="11" t="inlineStr">
+        <is>
+          <t>487</t>
+        </is>
+      </c>
+      <c r="U511" s="11" t="inlineStr">
+        <is>
+          <t>517</t>
+        </is>
+      </c>
+      <c r="V511" s="11" t="inlineStr">
+        <is>
+          <t>942</t>
+        </is>
+      </c>
     </row>
     <row r="512">
       <c r="A512" s="1" t="inlineStr">
@@ -93269,6 +93513,21 @@
           <t>823</t>
         </is>
       </c>
+      <c r="T512" s="11" t="inlineStr">
+        <is>
+          <t>306</t>
+        </is>
+      </c>
+      <c r="U512" s="11" t="inlineStr">
+        <is>
+          <t>628</t>
+        </is>
+      </c>
+      <c r="V512" s="11" t="inlineStr">
+        <is>
+          <t>951</t>
+        </is>
+      </c>
     </row>
     <row r="513">
       <c r="A513" s="1" t="inlineStr">
@@ -93366,6 +93625,21 @@
           <t>058</t>
         </is>
       </c>
+      <c r="T513" s="11" t="inlineStr">
+        <is>
+          <t>662</t>
+        </is>
+      </c>
+      <c r="U513" s="11" t="inlineStr">
+        <is>
+          <t>456</t>
+        </is>
+      </c>
+      <c r="V513" s="11" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
     </row>
     <row r="514">
       <c r="A514" s="1" t="inlineStr">
@@ -93408,7 +93682,7 @@
           <t>339</t>
         </is>
       </c>
-      <c r="I514" s="7" t="inlineStr">
+      <c r="I514" s="17" t="inlineStr">
         <is>
           <t>693</t>
         </is>
@@ -93461,6 +93735,21 @@
       <c r="S514" s="10" t="inlineStr">
         <is>
           <t>750</t>
+        </is>
+      </c>
+      <c r="T514" s="11" t="inlineStr">
+        <is>
+          <t>436</t>
+        </is>
+      </c>
+      <c r="U514" s="17" t="inlineStr">
+        <is>
+          <t>369</t>
+        </is>
+      </c>
+      <c r="V514" s="11" t="inlineStr">
+        <is>
+          <t>211</t>
         </is>
       </c>
     </row>
@@ -93520,7 +93809,7 @@
           <t>744</t>
         </is>
       </c>
-      <c r="L515" s="8" t="inlineStr">
+      <c r="L515" s="17" t="inlineStr">
         <is>
           <t>163</t>
         </is>
@@ -93558,6 +93847,21 @@
       <c r="S515" s="10" t="inlineStr">
         <is>
           <t>776</t>
+        </is>
+      </c>
+      <c r="T515" s="11" t="inlineStr">
+        <is>
+          <t>808</t>
+        </is>
+      </c>
+      <c r="U515" s="17" t="inlineStr">
+        <is>
+          <t>361</t>
+        </is>
+      </c>
+      <c r="V515" s="11" t="inlineStr">
+        <is>
+          <t>949</t>
         </is>
       </c>
     </row>
@@ -93657,6 +93961,21 @@
           <t>108</t>
         </is>
       </c>
+      <c r="T516" s="11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="U516" s="11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V516" s="11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="517">
       <c r="A517" s="1" t="inlineStr">
@@ -93704,7 +94023,7 @@
           <t>377</t>
         </is>
       </c>
-      <c r="J517" s="7" t="inlineStr">
+      <c r="J517" s="17" t="inlineStr">
         <is>
           <t>631</t>
         </is>
@@ -93741,15 +94060,30 @@
       </c>
       <c r="Q517" s="10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>501</t>
         </is>
       </c>
       <c r="R517" s="10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>647</t>
         </is>
       </c>
       <c r="S517" s="10" t="inlineStr">
+        <is>
+          <t>439</t>
+        </is>
+      </c>
+      <c r="T517" s="11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="U517" s="11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V517" s="11" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -93838,15 +94172,30 @@
       </c>
       <c r="Q518" s="10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>867</t>
         </is>
       </c>
       <c r="R518" s="10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>255</t>
         </is>
       </c>
       <c r="S518" s="10" t="inlineStr">
+        <is>
+          <t>296</t>
+        </is>
+      </c>
+      <c r="T518" s="11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="U518" s="11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V518" s="11" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -93935,15 +94284,30 @@
       </c>
       <c r="Q519" s="10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>600</t>
         </is>
       </c>
       <c r="R519" s="10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>815</t>
         </is>
       </c>
       <c r="S519" s="10" t="inlineStr">
+        <is>
+          <t>193</t>
+        </is>
+      </c>
+      <c r="T519" s="11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="U519" s="11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V519" s="11" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -94032,15 +94396,30 @@
       </c>
       <c r="Q520" s="10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>863</t>
         </is>
       </c>
       <c r="R520" s="10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>636</t>
         </is>
       </c>
       <c r="S520" s="10" t="inlineStr">
+        <is>
+          <t>258</t>
+        </is>
+      </c>
+      <c r="T520" s="11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="U520" s="11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V520" s="11" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -94129,15 +94508,30 @@
       </c>
       <c r="Q521" s="10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>326</t>
         </is>
       </c>
       <c r="R521" s="10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>046</t>
         </is>
       </c>
       <c r="S521" s="10" t="inlineStr">
+        <is>
+          <t>387</t>
+        </is>
+      </c>
+      <c r="T521" s="11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="U521" s="11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V521" s="11" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -94226,15 +94620,30 @@
       </c>
       <c r="Q522" s="10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>921</t>
         </is>
       </c>
       <c r="R522" s="10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>637</t>
         </is>
       </c>
       <c r="S522" s="10" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
+      </c>
+      <c r="T522" s="11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="U522" s="11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V522" s="11" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -94323,15 +94732,30 @@
       </c>
       <c r="Q523" s="10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>466</t>
         </is>
       </c>
       <c r="R523" s="10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>120</t>
         </is>
       </c>
       <c r="S523" s="10" t="inlineStr">
+        <is>
+          <t>373</t>
+        </is>
+      </c>
+      <c r="T523" s="11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="U523" s="11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V523" s="11" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -94420,15 +94844,30 @@
       </c>
       <c r="Q524" s="10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>788</t>
         </is>
       </c>
       <c r="R524" s="10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>892</t>
         </is>
       </c>
       <c r="S524" s="10" t="inlineStr">
+        <is>
+          <t>469</t>
+        </is>
+      </c>
+      <c r="T524" s="11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="U524" s="11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V524" s="11" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -94517,15 +94956,30 @@
       </c>
       <c r="Q525" s="10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>009</t>
         </is>
       </c>
       <c r="R525" s="10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>444</t>
         </is>
       </c>
       <c r="S525" s="10" t="inlineStr">
+        <is>
+          <t>409</t>
+        </is>
+      </c>
+      <c r="T525" s="11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="U525" s="11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V525" s="11" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -94614,15 +95068,30 @@
       </c>
       <c r="Q526" s="10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>575</t>
         </is>
       </c>
       <c r="R526" s="10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>647</t>
         </is>
       </c>
       <c r="S526" s="10" t="inlineStr">
+        <is>
+          <t>895</t>
+        </is>
+      </c>
+      <c r="T526" s="11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="U526" s="11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V526" s="11" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -94711,15 +95180,30 @@
       </c>
       <c r="Q527" s="10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>602</t>
         </is>
       </c>
       <c r="R527" s="10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>472</t>
         </is>
       </c>
       <c r="S527" s="10" t="inlineStr">
+        <is>
+          <t>664</t>
+        </is>
+      </c>
+      <c r="T527" s="11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="U527" s="11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V527" s="11" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -94821,9 +95305,24 @@
           <t>-</t>
         </is>
       </c>
+      <c r="T528" s="11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="U528" s="11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V528" s="11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="202">
+  <mergeCells count="203">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
@@ -95026,6 +95525,7 @@
     <mergeCell ref="K496:M496"/>
     <mergeCell ref="N496:P496"/>
     <mergeCell ref="Q496:S496"/>
+    <mergeCell ref="T496:V496"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/swertres/excel_results_4.xlsx
+++ b/swertres/excel_results_4.xlsx
@@ -35,7 +35,7 @@
       <sz val="21"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="15">
     <fill>
       <patternFill/>
     </fill>
@@ -70,11 +70,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="009966ff"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFFFFF"/>
       </patternFill>
     </fill>
     <fill>
@@ -134,7 +129,6 @@
       <bottom style="thin">
         <color rgb="00000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -214,7 +208,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -222,11 +216,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
@@ -249,6 +240,9 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -267,20 +261,81 @@
     <xf numFmtId="0" fontId="2" fillId="14" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
     <cellStyle name="def_style" xfId="1" hidden="0"/>
     <cellStyle name="res_style" xfId="2" hidden="0"/>
-    <cellStyle name="res_macth_style" xfId="3" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1920,7 +1975,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="S8" s="17" t="inlineStr">
+      <c r="S8" s="10" t="inlineStr">
         <is>
           <t>693</t>
         </is>
@@ -3775,7 +3830,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="P18" s="17" t="inlineStr">
+      <c r="P18" s="9" t="inlineStr">
         <is>
           <t>361</t>
         </is>
@@ -5740,7 +5795,7 @@
           <t>616</t>
         </is>
       </c>
-      <c r="AI28" s="17" t="inlineStr">
+      <c r="AI28" s="16" t="inlineStr">
         <is>
           <t>163</t>
         </is>
@@ -6124,7 +6179,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AK30" s="17" t="inlineStr">
+      <c r="AK30" s="16" t="inlineStr">
         <is>
           <t>613</t>
         </is>
@@ -6438,7 +6493,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="Y32" s="17" t="inlineStr">
+      <c r="Y32" s="12" t="inlineStr">
         <is>
           <t>936</t>
         </is>
@@ -8208,7 +8263,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="Y42" s="17" t="inlineStr">
+      <c r="Y42" s="12" t="inlineStr">
         <is>
           <t>369</t>
         </is>
@@ -8841,7 +8896,7 @@
           <t>11</t>
         </is>
       </c>
-      <c r="B46" s="17" t="inlineStr">
+      <c r="B46" s="5" t="inlineStr">
         <is>
           <t>613</t>
         </is>
@@ -9537,7 +9592,7 @@
           <t>260</t>
         </is>
       </c>
-      <c r="AC49" s="17" t="inlineStr">
+      <c r="AC49" s="14" t="inlineStr">
         <is>
           <t>693</t>
         </is>
@@ -10669,7 +10724,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AE55" s="17" t="inlineStr">
+      <c r="AE55" s="14" t="inlineStr">
         <is>
           <t>396</t>
         </is>
@@ -10928,7 +10983,7 @@
           <t>185</t>
         </is>
       </c>
-      <c r="H57" s="17" t="inlineStr">
+      <c r="H57" s="7" t="inlineStr">
         <is>
           <t>936</t>
         </is>
@@ -13202,7 +13257,7 @@
           <t>626</t>
         </is>
       </c>
-      <c r="AH69" s="17" t="inlineStr">
+      <c r="AH69" s="15" t="inlineStr">
         <is>
           <t>396</t>
         </is>
@@ -14805,7 +14860,7 @@
           <t>061</t>
         </is>
       </c>
-      <c r="R78" s="17" t="inlineStr">
+      <c r="R78" s="10" t="inlineStr">
         <is>
           <t>316</t>
         </is>
@@ -15229,7 +15284,7 @@
           <t>801</t>
         </is>
       </c>
-      <c r="AB80" s="17" t="inlineStr">
+      <c r="AB80" s="13" t="inlineStr">
         <is>
           <t>963</t>
         </is>
@@ -15386,7 +15441,7 @@
           <t>349</t>
         </is>
       </c>
-      <c r="V81" s="17" t="inlineStr">
+      <c r="V81" s="11" t="inlineStr">
         <is>
           <t>936</t>
         </is>
@@ -15401,7 +15456,7 @@
           <t>933</t>
         </is>
       </c>
-      <c r="Y81" s="17" t="inlineStr">
+      <c r="Y81" s="12" t="inlineStr">
         <is>
           <t>136</t>
         </is>
@@ -15518,7 +15573,7 @@
           <t>559</t>
         </is>
       </c>
-      <c r="K82" s="17" t="inlineStr">
+      <c r="K82" s="8" t="inlineStr">
         <is>
           <t>631</t>
         </is>
@@ -16261,7 +16316,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="J86" s="17" t="inlineStr">
+      <c r="J86" s="7" t="inlineStr">
         <is>
           <t>631</t>
         </is>
@@ -16887,7 +16942,7 @@
           <t>889</t>
         </is>
       </c>
-      <c r="W89" s="17" t="inlineStr">
+      <c r="W89" s="12" t="inlineStr">
         <is>
           <t>693</t>
         </is>
@@ -17463,7 +17518,7 @@
           <t>254</t>
         </is>
       </c>
-      <c r="Z92" s="17" t="inlineStr">
+      <c r="Z92" s="13" t="inlineStr">
         <is>
           <t>631</t>
         </is>
@@ -17877,7 +17932,7 @@
           <t>679</t>
         </is>
       </c>
-      <c r="AH94" s="17" t="inlineStr">
+      <c r="AH94" s="15" t="inlineStr">
         <is>
           <t>613</t>
         </is>
@@ -17939,7 +17994,7 @@
           <t>922</t>
         </is>
       </c>
-      <c r="I95" s="17" t="inlineStr">
+      <c r="I95" s="7" t="inlineStr">
         <is>
           <t>136</t>
         </is>
@@ -19809,7 +19864,7 @@
           <t>784</t>
         </is>
       </c>
-      <c r="AC105" s="17" t="inlineStr">
+      <c r="AC105" s="14" t="inlineStr">
         <is>
           <t>631</t>
         </is>
@@ -20532,7 +20587,7 @@
           <t>781</t>
         </is>
       </c>
-      <c r="X109" s="17" t="inlineStr">
+      <c r="X109" s="12" t="inlineStr">
         <is>
           <t>613</t>
         </is>
@@ -20801,7 +20856,7 @@
           <t>408</t>
         </is>
       </c>
-      <c r="C111" s="17" t="inlineStr">
+      <c r="C111" s="5" t="inlineStr">
         <is>
           <t>396</t>
         </is>
@@ -21230,7 +21285,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="N113" s="17" t="inlineStr">
+      <c r="N113" s="9" t="inlineStr">
         <is>
           <t>396</t>
         </is>
@@ -21629,7 +21684,7 @@
           <t>752</t>
         </is>
       </c>
-      <c r="S115" s="17" t="inlineStr">
+      <c r="S115" s="10" t="inlineStr">
         <is>
           <t>369</t>
         </is>
@@ -21679,7 +21734,7 @@
           <t>112</t>
         </is>
       </c>
-      <c r="AC115" s="17" t="inlineStr">
+      <c r="AC115" s="14" t="inlineStr">
         <is>
           <t>163</t>
         </is>
@@ -21821,7 +21876,7 @@
           <t>080</t>
         </is>
       </c>
-      <c r="T116" s="17" t="inlineStr">
+      <c r="T116" s="11" t="inlineStr">
         <is>
           <t>639</t>
         </is>
@@ -22155,7 +22210,7 @@
           <t>074</t>
         </is>
       </c>
-      <c r="L118" s="17" t="inlineStr">
+      <c r="L118" s="8" t="inlineStr">
         <is>
           <t>163</t>
         </is>
@@ -22185,7 +22240,7 @@
           <t>129</t>
         </is>
       </c>
-      <c r="R118" s="17" t="inlineStr">
+      <c r="R118" s="10" t="inlineStr">
         <is>
           <t>631</t>
         </is>
@@ -22938,7 +22993,7 @@
           <t>532</t>
         </is>
       </c>
-      <c r="S122" s="17" t="inlineStr">
+      <c r="S122" s="10" t="inlineStr">
         <is>
           <t>136</t>
         </is>
@@ -23060,7 +23115,7 @@
           <t>808</t>
         </is>
       </c>
-      <c r="F123" s="17" t="inlineStr">
+      <c r="F123" s="6" t="inlineStr">
         <is>
           <t>136</t>
         </is>
@@ -23788,7 +23843,7 @@
           <t>26</t>
         </is>
       </c>
-      <c r="B127" s="17" t="inlineStr">
+      <c r="B127" s="5" t="inlineStr">
         <is>
           <t>136</t>
         </is>
@@ -24354,7 +24409,7 @@
           <t>793</t>
         </is>
       </c>
-      <c r="C130" s="17" t="inlineStr">
+      <c r="C130" s="5" t="inlineStr">
         <is>
           <t>369</t>
         </is>
@@ -24409,7 +24464,7 @@
           <t>876</t>
         </is>
       </c>
-      <c r="N130" s="17" t="inlineStr">
+      <c r="N130" s="9" t="inlineStr">
         <is>
           <t>369</t>
         </is>
@@ -24586,7 +24641,7 @@
           <t>245</t>
         </is>
       </c>
-      <c r="L131" s="17" t="inlineStr">
+      <c r="L131" s="8" t="inlineStr">
         <is>
           <t>693</t>
         </is>
@@ -24733,7 +24788,7 @@
           <t>511</t>
         </is>
       </c>
-      <c r="D132" s="17" t="inlineStr">
+      <c r="D132" s="5" t="inlineStr">
         <is>
           <t>639</t>
         </is>
@@ -25329,7 +25384,7 @@
           <t>992</t>
         </is>
       </c>
-      <c r="AE135" s="17" t="inlineStr">
+      <c r="AE135" s="14" t="inlineStr">
         <is>
           <t>396</t>
         </is>
@@ -25775,7 +25830,7 @@
           <t>129</t>
         </is>
       </c>
-      <c r="H138" s="17" t="inlineStr">
+      <c r="H138" s="7" t="inlineStr">
         <is>
           <t>613</t>
         </is>
@@ -25815,7 +25870,7 @@
           <t>004</t>
         </is>
       </c>
-      <c r="P138" s="17" t="inlineStr">
+      <c r="P138" s="9" t="inlineStr">
         <is>
           <t>639</t>
         </is>
@@ -27124,7 +27179,7 @@
           <t>298</t>
         </is>
       </c>
-      <c r="P145" s="17" t="inlineStr">
+      <c r="P145" s="9" t="inlineStr">
         <is>
           <t>936</t>
         </is>
@@ -27518,7 +27573,7 @@
           <t>340</t>
         </is>
       </c>
-      <c r="T147" s="17" t="inlineStr">
+      <c r="T147" s="11" t="inlineStr">
         <is>
           <t>963</t>
         </is>
@@ -27573,7 +27628,7 @@
           <t>808</t>
         </is>
       </c>
-      <c r="AE147" s="17" t="inlineStr">
+      <c r="AE147" s="14" t="inlineStr">
         <is>
           <t>369</t>
         </is>
@@ -28241,7 +28296,7 @@
           <t>146</t>
         </is>
       </c>
-      <c r="O151" s="17" t="inlineStr">
+      <c r="O151" s="9" t="inlineStr">
         <is>
           <t>639</t>
         </is>
@@ -28610,7 +28665,7 @@
           <t>551</t>
         </is>
       </c>
-      <c r="N153" s="17" t="inlineStr">
+      <c r="N153" s="9" t="inlineStr">
         <is>
           <t>316</t>
         </is>
@@ -28655,7 +28710,7 @@
           <t>872</t>
         </is>
       </c>
-      <c r="W153" s="17" t="inlineStr">
+      <c r="W153" s="12" t="inlineStr">
         <is>
           <t>316</t>
         </is>
@@ -29343,7 +29398,7 @@
           <t>322</t>
         </is>
       </c>
-      <c r="K157" s="17" t="inlineStr">
+      <c r="K157" s="8" t="inlineStr">
         <is>
           <t>361</t>
         </is>
@@ -29682,7 +29737,7 @@
           <t>846</t>
         </is>
       </c>
-      <c r="D159" s="17" t="inlineStr">
+      <c r="D159" s="5" t="inlineStr">
         <is>
           <t>936</t>
         </is>
@@ -29994,7 +30049,7 @@
           <t>399</t>
         </is>
       </c>
-      <c r="AC160" s="17" t="inlineStr">
+      <c r="AC160" s="14" t="inlineStr">
         <is>
           <t>613</t>
         </is>
@@ -31552,7 +31607,7 @@
           <t>592</t>
         </is>
       </c>
-      <c r="X169" s="17" t="inlineStr">
+      <c r="X169" s="12" t="inlineStr">
         <is>
           <t>316</t>
         </is>
@@ -31831,7 +31886,7 @@
           <t>452</t>
         </is>
       </c>
-      <c r="E171" s="17" t="inlineStr">
+      <c r="E171" s="6" t="inlineStr">
         <is>
           <t>396</t>
         </is>
@@ -32674,7 +32729,7 @@
           <t>938</t>
         </is>
       </c>
-      <c r="X175" s="17" t="inlineStr">
+      <c r="X175" s="12" t="inlineStr">
         <is>
           <t>396</t>
         </is>
@@ -33108,7 +33163,7 @@
           <t>038</t>
         </is>
       </c>
-      <c r="AJ177" s="17" t="inlineStr">
+      <c r="AJ177" s="16" t="inlineStr">
         <is>
           <t>396</t>
         </is>
@@ -33407,7 +33462,7 @@
           <t>408</t>
         </is>
       </c>
-      <c r="U179" s="17" t="inlineStr">
+      <c r="U179" s="11" t="inlineStr">
         <is>
           <t>369</t>
         </is>
@@ -33649,7 +33704,7 @@
           <t>661</t>
         </is>
       </c>
-      <c r="AF180" s="17" t="inlineStr">
+      <c r="AF180" s="15" t="inlineStr">
         <is>
           <t>693</t>
         </is>
@@ -34150,7 +34205,7 @@
           <t>706</t>
         </is>
       </c>
-      <c r="T183" s="17" t="inlineStr">
+      <c r="T183" s="11" t="inlineStr">
         <is>
           <t>163</t>
         </is>
@@ -34367,7 +34422,7 @@
           <t>292</t>
         </is>
       </c>
-      <c r="Z184" s="17" t="inlineStr">
+      <c r="Z184" s="13" t="inlineStr">
         <is>
           <t>613</t>
         </is>
@@ -34449,7 +34504,7 @@
           <t>674</t>
         </is>
       </c>
-      <c r="E185" s="17" t="inlineStr">
+      <c r="E185" s="6" t="inlineStr">
         <is>
           <t>163</t>
         </is>
@@ -36127,7 +36182,7 @@
           <t>223</t>
         </is>
       </c>
-      <c r="D194" s="17" t="inlineStr">
+      <c r="D194" s="5" t="inlineStr">
         <is>
           <t>361</t>
         </is>
@@ -37030,7 +37085,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AI198" s="17" t="inlineStr">
+      <c r="AI198" s="16" t="inlineStr">
         <is>
           <t>396</t>
         </is>
@@ -37790,7 +37845,7 @@
           <t>164</t>
         </is>
       </c>
-      <c r="T203" s="17" t="inlineStr">
+      <c r="T203" s="11" t="inlineStr">
         <is>
           <t>136</t>
         </is>
@@ -38139,7 +38194,7 @@
           <t>825</t>
         </is>
       </c>
-      <c r="O205" s="17" t="inlineStr">
+      <c r="O205" s="9" t="inlineStr">
         <is>
           <t>136</t>
         </is>
@@ -38386,7 +38441,7 @@
           <t>979</t>
         </is>
       </c>
-      <c r="AA206" s="17" t="inlineStr">
+      <c r="AA206" s="13" t="inlineStr">
         <is>
           <t>396</t>
         </is>
@@ -38406,7 +38461,7 @@
           <t>903</t>
         </is>
       </c>
-      <c r="AE206" s="17" t="inlineStr">
+      <c r="AE206" s="14" t="inlineStr">
         <is>
           <t>163</t>
         </is>
@@ -39610,7 +39665,7 @@
           <t>554</t>
         </is>
       </c>
-      <c r="J213" s="17" t="inlineStr">
+      <c r="J213" s="7" t="inlineStr">
         <is>
           <t>369</t>
         </is>
@@ -39665,7 +39720,7 @@
           <t>444</t>
         </is>
       </c>
-      <c r="U213" s="17" t="inlineStr">
+      <c r="U213" s="11" t="inlineStr">
         <is>
           <t>693</t>
         </is>
@@ -40109,7 +40164,7 @@
           <t>037</t>
         </is>
       </c>
-      <c r="AI215" s="17" t="inlineStr">
+      <c r="AI215" s="16" t="inlineStr">
         <is>
           <t>639</t>
         </is>
@@ -40767,7 +40822,7 @@
           <t>798</t>
         </is>
       </c>
-      <c r="Q219" s="17" t="inlineStr">
+      <c r="Q219" s="10" t="inlineStr">
         <is>
           <t>369</t>
         </is>
@@ -41081,7 +41136,7 @@
           <t>783</t>
         </is>
       </c>
-      <c r="E221" s="17" t="inlineStr">
+      <c r="E221" s="6" t="inlineStr">
         <is>
           <t>369</t>
         </is>
@@ -41313,7 +41368,7 @@
           <t>413</t>
         </is>
       </c>
-      <c r="N222" s="17" t="inlineStr">
+      <c r="N222" s="9" t="inlineStr">
         <is>
           <t>396</t>
         </is>
@@ -42066,7 +42121,7 @@
           <t>372</t>
         </is>
       </c>
-      <c r="O226" s="17" t="inlineStr">
+      <c r="O226" s="9" t="inlineStr">
         <is>
           <t>963</t>
         </is>
@@ -42617,7 +42672,7 @@
           <t>623</t>
         </is>
       </c>
-      <c r="M229" s="17" t="inlineStr">
+      <c r="M229" s="8" t="inlineStr">
         <is>
           <t>396</t>
         </is>
@@ -43634,7 +43689,7 @@
           <t>657</t>
         </is>
       </c>
-      <c r="L235" s="17" t="inlineStr">
+      <c r="L235" s="8" t="inlineStr">
         <is>
           <t>163</t>
         </is>
@@ -44654,7 +44709,7 @@
           <t>541</t>
         </is>
       </c>
-      <c r="AC240" s="17" t="inlineStr">
+      <c r="AC240" s="14" t="inlineStr">
         <is>
           <t>963</t>
         </is>
@@ -44731,7 +44786,7 @@
           <t>527</t>
         </is>
       </c>
-      <c r="G241" s="17" t="inlineStr">
+      <c r="G241" s="6" t="inlineStr">
         <is>
           <t>396</t>
         </is>
@@ -45165,7 +45220,7 @@
           <t>148</t>
         </is>
       </c>
-      <c r="S243" s="17" t="inlineStr">
+      <c r="S243" s="10" t="inlineStr">
         <is>
           <t>361</t>
         </is>
@@ -45245,7 +45300,7 @@
           <t>691</t>
         </is>
       </c>
-      <c r="AI243" s="17" t="inlineStr">
+      <c r="AI243" s="16" t="inlineStr">
         <is>
           <t>631</t>
         </is>
@@ -45317,7 +45372,7 @@
           <t>088</t>
         </is>
       </c>
-      <c r="L244" s="17" t="inlineStr">
+      <c r="L244" s="8" t="inlineStr">
         <is>
           <t>631</t>
         </is>
@@ -45766,7 +45821,7 @@
           <t>940</t>
         </is>
       </c>
-      <c r="AA246" s="17" t="inlineStr">
+      <c r="AA246" s="13" t="inlineStr">
         <is>
           <t>693</t>
         </is>
@@ -45968,7 +46023,7 @@
           <t>131</t>
         </is>
       </c>
-      <c r="AD247" s="17" t="inlineStr">
+      <c r="AD247" s="14" t="inlineStr">
         <is>
           <t>361</t>
         </is>
@@ -46237,7 +46292,7 @@
           <t>336</t>
         </is>
       </c>
-      <c r="I249" s="17" t="inlineStr">
+      <c r="I249" s="7" t="inlineStr">
         <is>
           <t>163</t>
         </is>
@@ -47297,7 +47352,7 @@
           <t>372</t>
         </is>
       </c>
-      <c r="AH254" s="17" t="inlineStr">
+      <c r="AH254" s="15" t="inlineStr">
         <is>
           <t>163</t>
         </is>
@@ -47409,7 +47464,7 @@
           <t>367</t>
         </is>
       </c>
-      <c r="S255" s="17" t="inlineStr">
+      <c r="S255" s="10" t="inlineStr">
         <is>
           <t>163</t>
         </is>
@@ -47863,7 +47918,7 @@
           <t>068</t>
         </is>
       </c>
-      <c r="AI257" s="17" t="inlineStr">
+      <c r="AI257" s="16" t="inlineStr">
         <is>
           <t>639</t>
         </is>
@@ -47873,7 +47928,7 @@
           <t>062</t>
         </is>
       </c>
-      <c r="AK257" s="17" t="inlineStr">
+      <c r="AK257" s="16" t="inlineStr">
         <is>
           <t>369</t>
         </is>
@@ -48132,7 +48187,7 @@
           <t>359</t>
         </is>
       </c>
-      <c r="N259" s="17" t="inlineStr">
+      <c r="N259" s="9" t="inlineStr">
         <is>
           <t>613</t>
         </is>
@@ -48289,7 +48344,7 @@
           <t>337</t>
         </is>
       </c>
-      <c r="H260" s="17" t="inlineStr">
+      <c r="H260" s="7" t="inlineStr">
         <is>
           <t>396</t>
         </is>
@@ -48304,7 +48359,7 @@
           <t>653</t>
         </is>
       </c>
-      <c r="K260" s="17" t="inlineStr">
+      <c r="K260" s="8" t="inlineStr">
         <is>
           <t>639</t>
         </is>
@@ -48374,7 +48429,7 @@
           <t>026</t>
         </is>
       </c>
-      <c r="Y260" s="17" t="inlineStr">
+      <c r="Y260" s="12" t="inlineStr">
         <is>
           <t>369</t>
         </is>
@@ -48546,7 +48601,7 @@
           <t>989</t>
         </is>
       </c>
-      <c r="V261" s="17" t="inlineStr">
+      <c r="V261" s="11" t="inlineStr">
         <is>
           <t>361</t>
         </is>
@@ -50221,7 +50276,7 @@
           <t>886</t>
         </is>
       </c>
-      <c r="C271" s="17" t="inlineStr">
+      <c r="C271" s="5" t="inlineStr">
         <is>
           <t>936</t>
         </is>
@@ -50478,7 +50533,7 @@
           <t>303</t>
         </is>
       </c>
-      <c r="Q272" s="17" t="inlineStr">
+      <c r="Q272" s="10" t="inlineStr">
         <is>
           <t>613</t>
         </is>
@@ -50685,7 +50740,7 @@
           <t>511</t>
         </is>
       </c>
-      <c r="U273" s="17" t="inlineStr">
+      <c r="U273" s="11" t="inlineStr">
         <is>
           <t>396</t>
         </is>
@@ -50892,7 +50947,7 @@
           <t>610</t>
         </is>
       </c>
-      <c r="Y274" s="17" t="inlineStr">
+      <c r="Y274" s="12" t="inlineStr">
         <is>
           <t>631</t>
         </is>
@@ -51241,7 +51296,7 @@
           <t>638</t>
         </is>
       </c>
-      <c r="T276" s="17" t="inlineStr">
+      <c r="T276" s="11" t="inlineStr">
         <is>
           <t>936</t>
         </is>
@@ -51443,7 +51498,7 @@
           <t>793</t>
         </is>
       </c>
-      <c r="W277" s="17" t="inlineStr">
+      <c r="W277" s="12" t="inlineStr">
         <is>
           <t>639</t>
         </is>
@@ -51620,7 +51675,7 @@
           <t>868</t>
         </is>
       </c>
-      <c r="U278" s="17" t="inlineStr">
+      <c r="U278" s="11" t="inlineStr">
         <is>
           <t>369</t>
         </is>
@@ -52470,7 +52525,7 @@
           <t>079</t>
         </is>
       </c>
-      <c r="D283" s="17" t="inlineStr">
+      <c r="D283" s="5" t="inlineStr">
         <is>
           <t>936</t>
         </is>
@@ -52802,7 +52857,7 @@
           <t>595</t>
         </is>
       </c>
-      <c r="AG284" s="17" t="inlineStr">
+      <c r="AG284" s="15" t="inlineStr">
         <is>
           <t>613</t>
         </is>
@@ -52964,7 +53019,7 @@
           <t>143</t>
         </is>
       </c>
-      <c r="AB285" s="17" t="inlineStr">
+      <c r="AB285" s="13" t="inlineStr">
         <is>
           <t>361</t>
         </is>
@@ -53859,7 +53914,7 @@
           <t>480</t>
         </is>
       </c>
-      <c r="T290" s="17" t="inlineStr">
+      <c r="T290" s="11" t="inlineStr">
         <is>
           <t>936</t>
         </is>
@@ -54071,7 +54126,7 @@
           <t>759</t>
         </is>
       </c>
-      <c r="Y291" s="17" t="inlineStr">
+      <c r="Y291" s="12" t="inlineStr">
         <is>
           <t>693</t>
         </is>
@@ -56265,7 +56320,7 @@
           <t>511</t>
         </is>
       </c>
-      <c r="AI303" s="17" t="inlineStr">
+      <c r="AI303" s="16" t="inlineStr">
         <is>
           <t>613</t>
         </is>
@@ -57070,7 +57125,7 @@
           <t>823</t>
         </is>
       </c>
-      <c r="I308" s="17" t="inlineStr">
+      <c r="I308" s="7" t="inlineStr">
         <is>
           <t>163</t>
         </is>
@@ -57160,7 +57215,7 @@
           <t>191</t>
         </is>
       </c>
-      <c r="AA308" s="17" t="inlineStr">
+      <c r="AA308" s="13" t="inlineStr">
         <is>
           <t>631</t>
         </is>
@@ -57726,7 +57781,7 @@
           <t>134</t>
         </is>
       </c>
-      <c r="AB311" s="17" t="inlineStr">
+      <c r="AB311" s="13" t="inlineStr">
         <is>
           <t>631</t>
         </is>
@@ -57741,7 +57796,7 @@
           <t>321</t>
         </is>
       </c>
-      <c r="AE311" s="17" t="inlineStr">
+      <c r="AE311" s="14" t="inlineStr">
         <is>
           <t>613</t>
         </is>
@@ -58110,7 +58165,7 @@
           <t>960</t>
         </is>
       </c>
-      <c r="AD313" s="17" t="inlineStr">
+      <c r="AD313" s="14" t="inlineStr">
         <is>
           <t>396</t>
         </is>
@@ -58394,7 +58449,7 @@
           <t>952</t>
         </is>
       </c>
-      <c r="L315" s="17" t="inlineStr">
+      <c r="L315" s="8" t="inlineStr">
         <is>
           <t>396</t>
         </is>
@@ -58489,7 +58544,7 @@
           <t>786</t>
         </is>
       </c>
-      <c r="AE315" s="17" t="inlineStr">
+      <c r="AE315" s="14" t="inlineStr">
         <is>
           <t>163</t>
         </is>
@@ -58631,7 +58686,7 @@
           <t>533</t>
         </is>
       </c>
-      <c r="V316" s="17" t="inlineStr">
+      <c r="V316" s="11" t="inlineStr">
         <is>
           <t>369</t>
         </is>
@@ -58955,7 +59010,7 @@
           <t>727</t>
         </is>
       </c>
-      <c r="L318" s="17" t="inlineStr">
+      <c r="L318" s="8" t="inlineStr">
         <is>
           <t>361</t>
         </is>
@@ -60102,7 +60157,7 @@
           <t>138</t>
         </is>
       </c>
-      <c r="Q324" s="17" t="inlineStr">
+      <c r="Q324" s="10" t="inlineStr">
         <is>
           <t>693</t>
         </is>
@@ -60673,7 +60728,7 @@
           <t>860</t>
         </is>
       </c>
-      <c r="S327" s="17" t="inlineStr">
+      <c r="S327" s="10" t="inlineStr">
         <is>
           <t>396</t>
         </is>
@@ -61999,7 +62054,7 @@
           <t>271</t>
         </is>
       </c>
-      <c r="E335" s="17" t="inlineStr">
+      <c r="E335" s="6" t="inlineStr">
         <is>
           <t>613</t>
         </is>
@@ -62478,7 +62533,7 @@
           <t>146</t>
         </is>
       </c>
-      <c r="Z337" s="17" t="inlineStr">
+      <c r="Z337" s="13" t="inlineStr">
         <is>
           <t>693</t>
         </is>
@@ -62924,7 +62979,7 @@
           <t>914</t>
         </is>
       </c>
-      <c r="C340" s="17" t="inlineStr">
+      <c r="C340" s="5" t="inlineStr">
         <is>
           <t>631</t>
         </is>
@@ -63211,7 +63266,7 @@
           <t>553</t>
         </is>
       </c>
-      <c r="W341" s="17" t="inlineStr">
+      <c r="W341" s="12" t="inlineStr">
         <is>
           <t>369</t>
         </is>
@@ -63393,7 +63448,7 @@
           <t>871</t>
         </is>
       </c>
-      <c r="V342" s="17" t="inlineStr">
+      <c r="V342" s="11" t="inlineStr">
         <is>
           <t>963</t>
         </is>
@@ -63463,7 +63518,7 @@
           <t>746</t>
         </is>
       </c>
-      <c r="AJ342" s="17" t="inlineStr">
+      <c r="AJ342" s="16" t="inlineStr">
         <is>
           <t>613</t>
         </is>
@@ -63540,7 +63595,7 @@
           <t>191</t>
         </is>
       </c>
-      <c r="N343" s="17" t="inlineStr">
+      <c r="N343" s="9" t="inlineStr">
         <is>
           <t>361</t>
         </is>
@@ -63782,7 +63837,7 @@
           <t>735</t>
         </is>
       </c>
-      <c r="Y344" s="17" t="inlineStr">
+      <c r="Y344" s="12" t="inlineStr">
         <is>
           <t>639</t>
         </is>
@@ -64602,7 +64657,7 @@
           <t>17</t>
         </is>
       </c>
-      <c r="B349" s="17" t="inlineStr">
+      <c r="B349" s="5" t="inlineStr">
         <is>
           <t>613</t>
         </is>
@@ -64632,7 +64687,7 @@
           <t>795</t>
         </is>
       </c>
-      <c r="H349" s="17" t="inlineStr">
+      <c r="H349" s="7" t="inlineStr">
         <is>
           <t>613</t>
         </is>
@@ -65136,7 +65191,7 @@
           <t>424</t>
         </is>
       </c>
-      <c r="AH351" s="17" t="inlineStr">
+      <c r="AH351" s="15" t="inlineStr">
         <is>
           <t>396</t>
         </is>
@@ -65173,7 +65228,7 @@
           <t>437</t>
         </is>
       </c>
-      <c r="D352" s="17" t="inlineStr">
+      <c r="D352" s="5" t="inlineStr">
         <is>
           <t>936</t>
         </is>
@@ -65425,7 +65480,7 @@
           <t>906</t>
         </is>
       </c>
-      <c r="Q353" s="17" t="inlineStr">
+      <c r="Q353" s="10" t="inlineStr">
         <is>
           <t>693</t>
         </is>
@@ -65819,7 +65874,7 @@
           <t>659</t>
         </is>
       </c>
-      <c r="U355" s="17" t="inlineStr">
+      <c r="U355" s="11" t="inlineStr">
         <is>
           <t>936</t>
         </is>
@@ -65859,7 +65914,7 @@
           <t>067</t>
         </is>
       </c>
-      <c r="AC355" s="17" t="inlineStr">
+      <c r="AC355" s="14" t="inlineStr">
         <is>
           <t>396</t>
         </is>
@@ -66218,7 +66273,7 @@
           <t>278</t>
         </is>
       </c>
-      <c r="Z357" s="17" t="inlineStr">
+      <c r="Z357" s="13" t="inlineStr">
         <is>
           <t>936</t>
         </is>
@@ -66455,7 +66510,7 @@
           <t>266</t>
         </is>
       </c>
-      <c r="AJ358" s="17" t="inlineStr">
+      <c r="AJ358" s="16" t="inlineStr">
         <is>
           <t>631</t>
         </is>
@@ -66487,7 +66542,7 @@
           <t>587</t>
         </is>
       </c>
-      <c r="E359" s="17" t="inlineStr">
+      <c r="E359" s="6" t="inlineStr">
         <is>
           <t>163</t>
         </is>
@@ -66946,7 +67001,7 @@
           <t>994</t>
         </is>
       </c>
-      <c r="V361" s="17" t="inlineStr">
+      <c r="V361" s="11" t="inlineStr">
         <is>
           <t>316</t>
         </is>
@@ -69202,7 +69257,7 @@
           <t>387</t>
         </is>
       </c>
-      <c r="G374" s="17" t="inlineStr">
+      <c r="G374" s="6" t="inlineStr">
         <is>
           <t>316</t>
         </is>
@@ -69379,7 +69434,7 @@
           <t>510</t>
         </is>
       </c>
-      <c r="E375" s="17" t="inlineStr">
+      <c r="E375" s="6" t="inlineStr">
         <is>
           <t>639</t>
         </is>
@@ -69798,7 +69853,7 @@
           <t>169</t>
         </is>
       </c>
-      <c r="N377" s="17" t="inlineStr">
+      <c r="N377" s="9" t="inlineStr">
         <is>
           <t>936</t>
         </is>
@@ -69828,7 +69883,7 @@
           <t>402</t>
         </is>
       </c>
-      <c r="T377" s="17" t="inlineStr">
+      <c r="T377" s="11" t="inlineStr">
         <is>
           <t>163</t>
         </is>
@@ -69995,7 +70050,7 @@
           <t>347</t>
         </is>
       </c>
-      <c r="P378" s="17" t="inlineStr">
+      <c r="P378" s="9" t="inlineStr">
         <is>
           <t>369</t>
         </is>
@@ -70122,7 +70177,7 @@
           <t>373</t>
         </is>
       </c>
-      <c r="D379" s="17" t="inlineStr">
+      <c r="D379" s="5" t="inlineStr">
         <is>
           <t>163</t>
         </is>
@@ -70621,7 +70676,7 @@
           <t>604</t>
         </is>
       </c>
-      <c r="AC381" s="17" t="inlineStr">
+      <c r="AC381" s="14" t="inlineStr">
         <is>
           <t>639</t>
         </is>
@@ -71763,7 +71818,7 @@
           <t>495</t>
         </is>
       </c>
-      <c r="AG387" s="17" t="inlineStr">
+      <c r="AG387" s="15" t="inlineStr">
         <is>
           <t>361</t>
         </is>
@@ -71925,7 +71980,7 @@
           <t>748</t>
         </is>
       </c>
-      <c r="AB388" s="17" t="inlineStr">
+      <c r="AB388" s="13" t="inlineStr">
         <is>
           <t>369</t>
         </is>
@@ -72416,7 +72471,7 @@
           <t>744</t>
         </is>
       </c>
-      <c r="N391" s="17" t="inlineStr">
+      <c r="N391" s="9" t="inlineStr">
         <is>
           <t>963</t>
         </is>
@@ -72501,7 +72556,7 @@
           <t>885</t>
         </is>
       </c>
-      <c r="AE391" s="17" t="inlineStr">
+      <c r="AE391" s="14" t="inlineStr">
         <is>
           <t>316</t>
         </is>
@@ -72638,7 +72693,7 @@
           <t>389</t>
         </is>
       </c>
-      <c r="U392" s="17" t="inlineStr">
+      <c r="U392" s="11" t="inlineStr">
         <is>
           <t>613</t>
         </is>
@@ -72730,7 +72785,7 @@
           <t>28</t>
         </is>
       </c>
-      <c r="B393" s="17" t="inlineStr">
+      <c r="B393" s="5" t="inlineStr">
         <is>
           <t>369</t>
         </is>
@@ -74064,7 +74119,7 @@
           <t>579</t>
         </is>
       </c>
-      <c r="AA400" s="17" t="inlineStr">
+      <c r="AA400" s="13" t="inlineStr">
         <is>
           <t>396</t>
         </is>
@@ -74236,7 +74291,7 @@
           <t>578</t>
         </is>
       </c>
-      <c r="X401" s="17" t="inlineStr">
+      <c r="X401" s="12" t="inlineStr">
         <is>
           <t>936</t>
         </is>
@@ -74291,7 +74346,7 @@
           <t>953</t>
         </is>
       </c>
-      <c r="AI401" s="17" t="inlineStr">
+      <c r="AI401" s="16" t="inlineStr">
         <is>
           <t>136</t>
         </is>
@@ -74393,7 +74448,7 @@
           <t>083</t>
         </is>
       </c>
-      <c r="R402" s="17" t="inlineStr">
+      <c r="R402" s="10" t="inlineStr">
         <is>
           <t>631</t>
         </is>
@@ -74428,7 +74483,7 @@
           <t>248</t>
         </is>
       </c>
-      <c r="Y402" s="17" t="inlineStr">
+      <c r="Y402" s="12" t="inlineStr">
         <is>
           <t>396</t>
         </is>
@@ -74473,7 +74528,7 @@
           <t>063</t>
         </is>
       </c>
-      <c r="AH402" s="17" t="inlineStr">
+      <c r="AH402" s="15" t="inlineStr">
         <is>
           <t>613</t>
         </is>
@@ -74570,7 +74625,7 @@
           <t>825</t>
         </is>
       </c>
-      <c r="P403" s="17" t="inlineStr">
+      <c r="P403" s="9" t="inlineStr">
         <is>
           <t>693</t>
         </is>
@@ -74600,7 +74655,7 @@
           <t>780</t>
         </is>
       </c>
-      <c r="V403" s="17" t="inlineStr">
+      <c r="V403" s="11" t="inlineStr">
         <is>
           <t>163</t>
         </is>
@@ -74969,7 +75024,7 @@
           <t>253</t>
         </is>
       </c>
-      <c r="U405" s="17" t="inlineStr">
+      <c r="U405" s="11" t="inlineStr">
         <is>
           <t>936</t>
         </is>
@@ -75081,7 +75136,7 @@
           <t>138</t>
         </is>
       </c>
-      <c r="F406" s="17" t="inlineStr">
+      <c r="F406" s="6" t="inlineStr">
         <is>
           <t>631</t>
         </is>
@@ -75176,7 +75231,7 @@
           <t>974</t>
         </is>
       </c>
-      <c r="Y406" s="17" t="inlineStr">
+      <c r="Y406" s="12" t="inlineStr">
         <is>
           <t>639</t>
         </is>
@@ -75338,7 +75393,7 @@
           <t>155</t>
         </is>
       </c>
-      <c r="T407" s="17" t="inlineStr">
+      <c r="T407" s="11" t="inlineStr">
         <is>
           <t>369</t>
         </is>
@@ -75672,7 +75727,7 @@
           <t>850</t>
         </is>
       </c>
-      <c r="L409" s="17" t="inlineStr">
+      <c r="L409" s="8" t="inlineStr">
         <is>
           <t>936</t>
         </is>
@@ -76323,7 +76378,7 @@
           <t>844</t>
         </is>
       </c>
-      <c r="AD412" s="17" t="inlineStr">
+      <c r="AD412" s="14" t="inlineStr">
         <is>
           <t>936</t>
         </is>
@@ -76732,7 +76787,7 @@
           <t>300</t>
         </is>
       </c>
-      <c r="AK414" s="17" t="inlineStr">
+      <c r="AK414" s="16" t="inlineStr">
         <is>
           <t>613</t>
         </is>
@@ -77450,7 +77505,7 @@
           <t>250</t>
         </is>
       </c>
-      <c r="AE418" s="17" t="inlineStr">
+      <c r="AE418" s="14" t="inlineStr">
         <is>
           <t>316</t>
         </is>
@@ -77532,7 +77587,7 @@
           <t>007</t>
         </is>
       </c>
-      <c r="J419" s="17" t="inlineStr">
+      <c r="J419" s="7" t="inlineStr">
         <is>
           <t>369</t>
         </is>
@@ -78053,7 +78108,7 @@
           <t>24</t>
         </is>
       </c>
-      <c r="B422" s="17" t="inlineStr">
+      <c r="B422" s="5" t="inlineStr">
         <is>
           <t>361</t>
         </is>
@@ -78816,7 +78871,7 @@
           <t>164</t>
         </is>
       </c>
-      <c r="E426" s="17" t="inlineStr">
+      <c r="E426" s="6" t="inlineStr">
         <is>
           <t>163</t>
         </is>
@@ -79073,7 +79128,7 @@
           <t>714</t>
         </is>
       </c>
-      <c r="S427" s="17" t="inlineStr">
+      <c r="S427" s="10" t="inlineStr">
         <is>
           <t>613</t>
         </is>
@@ -79148,7 +79203,7 @@
           <t>258</t>
         </is>
       </c>
-      <c r="AH427" s="17" t="inlineStr">
+      <c r="AH427" s="15" t="inlineStr">
         <is>
           <t>631</t>
         </is>
@@ -79908,7 +79963,7 @@
           <t>598</t>
         </is>
       </c>
-      <c r="S432" s="17" t="inlineStr">
+      <c r="S432" s="10" t="inlineStr">
         <is>
           <t>639</t>
         </is>
@@ -80050,7 +80105,7 @@
           <t>368</t>
         </is>
       </c>
-      <c r="J433" s="17" t="inlineStr">
+      <c r="J433" s="7" t="inlineStr">
         <is>
           <t>369</t>
         </is>
@@ -80788,7 +80843,7 @@
           <t>695</t>
         </is>
       </c>
-      <c r="H437" s="17" t="inlineStr">
+      <c r="H437" s="7" t="inlineStr">
         <is>
           <t>163</t>
         </is>
@@ -80960,7 +81015,7 @@
           <t>405</t>
         </is>
       </c>
-      <c r="E438" s="17" t="inlineStr">
+      <c r="E438" s="6" t="inlineStr">
         <is>
           <t>369</t>
         </is>
@@ -81334,7 +81389,7 @@
           <t>419</t>
         </is>
       </c>
-      <c r="E440" s="17" t="inlineStr">
+      <c r="E440" s="6" t="inlineStr">
         <is>
           <t>163</t>
         </is>
@@ -82566,7 +82621,7 @@
           <t>376</t>
         </is>
       </c>
-      <c r="AA446" s="17" t="inlineStr">
+      <c r="AA446" s="13" t="inlineStr">
         <is>
           <t>369</t>
         </is>
@@ -82576,7 +82631,7 @@
           <t>479</t>
         </is>
       </c>
-      <c r="AC446" s="17" t="inlineStr">
+      <c r="AC446" s="14" t="inlineStr">
         <is>
           <t>613</t>
         </is>
@@ -83152,7 +83207,7 @@
           <t>662</t>
         </is>
       </c>
-      <c r="AF449" s="17" t="inlineStr">
+      <c r="AF449" s="15" t="inlineStr">
         <is>
           <t>963</t>
         </is>
@@ -83673,7 +83728,7 @@
           <t>807</t>
         </is>
       </c>
-      <c r="X452" s="17" t="inlineStr">
+      <c r="X452" s="12" t="inlineStr">
         <is>
           <t>369</t>
         </is>
@@ -84082,7 +84137,7 @@
           <t>160</t>
         </is>
       </c>
-      <c r="AE454" s="17" t="inlineStr">
+      <c r="AE454" s="14" t="inlineStr">
         <is>
           <t>396</t>
         </is>
@@ -84361,7 +84416,7 @@
           <t>176</t>
         </is>
       </c>
-      <c r="L456" s="17" t="inlineStr">
+      <c r="L456" s="8" t="inlineStr">
         <is>
           <t>613</t>
         </is>
@@ -84795,7 +84850,7 @@
           <t>441</t>
         </is>
       </c>
-      <c r="X458" s="17" t="inlineStr">
+      <c r="X458" s="12" t="inlineStr">
         <is>
           <t>396</t>
         </is>
@@ -85119,7 +85174,7 @@
           <t>083</t>
         </is>
       </c>
-      <c r="N460" s="17" t="inlineStr">
+      <c r="N460" s="9" t="inlineStr">
         <is>
           <t>369</t>
         </is>
@@ -85608,7 +85663,7 @@
           <t>745</t>
         </is>
       </c>
-      <c r="AK462" s="17" t="inlineStr">
+      <c r="AK462" s="16" t="inlineStr">
         <is>
           <t>963</t>
         </is>
@@ -87171,7 +87226,7 @@
           <t>490</t>
         </is>
       </c>
-      <c r="AG471" s="17" t="inlineStr">
+      <c r="AG471" s="15" t="inlineStr">
         <is>
           <t>163</t>
         </is>
@@ -88734,7 +88789,7 @@
           <t>687</t>
         </is>
       </c>
-      <c r="I480" s="17" t="inlineStr">
+      <c r="I480" s="7" t="inlineStr">
         <is>
           <t>631</t>
         </is>
@@ -90584,7 +90639,7 @@
           <t>605</t>
         </is>
       </c>
-      <c r="E490" s="17" t="inlineStr">
+      <c r="E490" s="6" t="inlineStr">
         <is>
           <t>163</t>
         </is>
@@ -91108,7 +91163,7 @@
           <t>791</t>
         </is>
       </c>
-      <c r="AI492" s="17" t="inlineStr">
+      <c r="AI492" s="16" t="inlineStr">
         <is>
           <t>639</t>
         </is>
@@ -91140,7 +91195,7 @@
           <t>277</t>
         </is>
       </c>
-      <c r="D493" s="17" t="inlineStr">
+      <c r="D493" s="5" t="inlineStr">
         <is>
           <t>639</t>
         </is>
@@ -91270,7 +91325,7 @@
           <t>664</t>
         </is>
       </c>
-      <c r="AD493" s="17" t="inlineStr">
+      <c r="AD493" s="14" t="inlineStr">
         <is>
           <t>163</t>
         </is>
@@ -91280,7 +91335,7 @@
           <t>835</t>
         </is>
       </c>
-      <c r="AF493" s="17" t="inlineStr">
+      <c r="AF493" s="15" t="inlineStr">
         <is>
           <t>369</t>
         </is>
@@ -91477,7 +91532,7 @@
           <t>731</t>
         </is>
       </c>
-      <c r="AH494" s="17" t="inlineStr">
+      <c r="AH494" s="15" t="inlineStr">
         <is>
           <t>316</t>
         </is>
@@ -91740,6 +91795,13 @@
       </c>
       <c r="U496" s="2" t="n"/>
       <c r="V496" s="3" t="n"/>
+      <c r="W496" s="1" t="inlineStr">
+        <is>
+          <t>AUG 2021</t>
+        </is>
+      </c>
+      <c r="X496" s="2" t="n"/>
+      <c r="Y496" s="3" t="n"/>
     </row>
     <row r="497">
       <c r="A497" s="4" t="n"/>
@@ -91848,6 +91910,21 @@
           <t>9PM</t>
         </is>
       </c>
+      <c r="W497" s="1" t="inlineStr">
+        <is>
+          <t>2PM</t>
+        </is>
+      </c>
+      <c r="X497" s="1" t="inlineStr">
+        <is>
+          <t>4PM</t>
+        </is>
+      </c>
+      <c r="Y497" s="1" t="inlineStr">
+        <is>
+          <t>9PM</t>
+        </is>
+      </c>
     </row>
     <row r="498">
       <c r="A498" s="1" t="inlineStr">
@@ -91960,6 +92037,21 @@
           <t>648</t>
         </is>
       </c>
+      <c r="W498" s="12" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="X498" s="12" t="inlineStr">
+        <is>
+          <t>515</t>
+        </is>
+      </c>
+      <c r="Y498" s="12" t="inlineStr">
+        <is>
+          <t>346</t>
+        </is>
+      </c>
     </row>
     <row r="499">
       <c r="A499" s="1" t="inlineStr">
@@ -92072,6 +92164,21 @@
           <t>417</t>
         </is>
       </c>
+      <c r="W499" s="12" t="inlineStr">
+        <is>
+          <t>703</t>
+        </is>
+      </c>
+      <c r="X499" s="12" t="inlineStr">
+        <is>
+          <t>378</t>
+        </is>
+      </c>
+      <c r="Y499" s="12" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
     </row>
     <row r="500">
       <c r="A500" s="1" t="inlineStr">
@@ -92184,6 +92291,21 @@
           <t>474</t>
         </is>
       </c>
+      <c r="W500" s="12" t="inlineStr">
+        <is>
+          <t>314</t>
+        </is>
+      </c>
+      <c r="X500" s="12" t="inlineStr">
+        <is>
+          <t>644</t>
+        </is>
+      </c>
+      <c r="Y500" s="12" t="inlineStr">
+        <is>
+          <t>033</t>
+        </is>
+      </c>
     </row>
     <row r="501">
       <c r="A501" s="1" t="inlineStr">
@@ -92296,6 +92418,21 @@
           <t>967</t>
         </is>
       </c>
+      <c r="W501" s="12" t="inlineStr">
+        <is>
+          <t>914</t>
+        </is>
+      </c>
+      <c r="X501" s="12" t="inlineStr">
+        <is>
+          <t>337</t>
+        </is>
+      </c>
+      <c r="Y501" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="502">
       <c r="A502" s="1" t="inlineStr">
@@ -92408,6 +92545,21 @@
           <t>572</t>
         </is>
       </c>
+      <c r="W502" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X502" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y502" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="503">
       <c r="A503" s="1" t="inlineStr">
@@ -92520,6 +92672,21 @@
           <t>807</t>
         </is>
       </c>
+      <c r="W503" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X503" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y503" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="504">
       <c r="A504" s="1" t="inlineStr">
@@ -92632,6 +92799,21 @@
           <t>491</t>
         </is>
       </c>
+      <c r="W504" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X504" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y504" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="505">
       <c r="A505" s="1" t="inlineStr">
@@ -92684,7 +92866,7 @@
           <t>681</t>
         </is>
       </c>
-      <c r="K505" s="17" t="inlineStr">
+      <c r="K505" s="8" t="inlineStr">
         <is>
           <t>693</t>
         </is>
@@ -92742,6 +92924,21 @@
       <c r="V505" s="11" t="inlineStr">
         <is>
           <t>285</t>
+        </is>
+      </c>
+      <c r="W505" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X505" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y505" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -92856,6 +93053,21 @@
           <t>464</t>
         </is>
       </c>
+      <c r="W506" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X506" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y506" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="507">
       <c r="A507" s="1" t="inlineStr">
@@ -92968,6 +93180,21 @@
           <t>491</t>
         </is>
       </c>
+      <c r="W507" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X507" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y507" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="508">
       <c r="A508" s="1" t="inlineStr">
@@ -93080,6 +93307,21 @@
           <t>245</t>
         </is>
       </c>
+      <c r="W508" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X508" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y508" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="509">
       <c r="A509" s="1" t="inlineStr">
@@ -93192,6 +93434,21 @@
           <t>792</t>
         </is>
       </c>
+      <c r="W509" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X509" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y509" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="510">
       <c r="A510" s="1" t="inlineStr">
@@ -93304,6 +93561,21 @@
           <t>729</t>
         </is>
       </c>
+      <c r="W510" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X510" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y510" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="511">
       <c r="A511" s="1" t="inlineStr">
@@ -93416,6 +93688,21 @@
           <t>942</t>
         </is>
       </c>
+      <c r="W511" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X511" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y511" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="512">
       <c r="A512" s="1" t="inlineStr">
@@ -93528,6 +93815,21 @@
           <t>951</t>
         </is>
       </c>
+      <c r="W512" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X512" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y512" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="513">
       <c r="A513" s="1" t="inlineStr">
@@ -93640,6 +93942,21 @@
           <t>144</t>
         </is>
       </c>
+      <c r="W513" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X513" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y513" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="514">
       <c r="A514" s="1" t="inlineStr">
@@ -93682,7 +93999,7 @@
           <t>339</t>
         </is>
       </c>
-      <c r="I514" s="17" t="inlineStr">
+      <c r="I514" s="7" t="inlineStr">
         <is>
           <t>693</t>
         </is>
@@ -93742,7 +94059,7 @@
           <t>436</t>
         </is>
       </c>
-      <c r="U514" s="17" t="inlineStr">
+      <c r="U514" s="11" t="inlineStr">
         <is>
           <t>369</t>
         </is>
@@ -93750,6 +94067,21 @@
       <c r="V514" s="11" t="inlineStr">
         <is>
           <t>211</t>
+        </is>
+      </c>
+      <c r="W514" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X514" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y514" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -93809,7 +94141,7 @@
           <t>744</t>
         </is>
       </c>
-      <c r="L515" s="17" t="inlineStr">
+      <c r="L515" s="8" t="inlineStr">
         <is>
           <t>163</t>
         </is>
@@ -93854,7 +94186,7 @@
           <t>808</t>
         </is>
       </c>
-      <c r="U515" s="17" t="inlineStr">
+      <c r="U515" s="11" t="inlineStr">
         <is>
           <t>361</t>
         </is>
@@ -93862,6 +94194,21 @@
       <c r="V515" s="11" t="inlineStr">
         <is>
           <t>949</t>
+        </is>
+      </c>
+      <c r="W515" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X515" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y515" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -93963,15 +94310,30 @@
       </c>
       <c r="T516" s="11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>722</t>
         </is>
       </c>
       <c r="U516" s="11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>507</t>
         </is>
       </c>
       <c r="V516" s="11" t="inlineStr">
+        <is>
+          <t>807</t>
+        </is>
+      </c>
+      <c r="W516" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X516" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y516" s="12" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -94023,7 +94385,7 @@
           <t>377</t>
         </is>
       </c>
-      <c r="J517" s="17" t="inlineStr">
+      <c r="J517" s="7" t="inlineStr">
         <is>
           <t>631</t>
         </is>
@@ -94075,15 +94437,30 @@
       </c>
       <c r="T517" s="11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>912</t>
         </is>
       </c>
       <c r="U517" s="11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>738</t>
         </is>
       </c>
       <c r="V517" s="11" t="inlineStr">
+        <is>
+          <t>972</t>
+        </is>
+      </c>
+      <c r="W517" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X517" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y517" s="12" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -94187,15 +94564,30 @@
       </c>
       <c r="T518" s="11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>879</t>
         </is>
       </c>
       <c r="U518" s="11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>065</t>
         </is>
       </c>
       <c r="V518" s="11" t="inlineStr">
+        <is>
+          <t>801</t>
+        </is>
+      </c>
+      <c r="W518" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X518" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y518" s="12" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -94299,15 +94691,30 @@
       </c>
       <c r="T519" s="11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>409</t>
         </is>
       </c>
       <c r="U519" s="11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>836</t>
         </is>
       </c>
       <c r="V519" s="11" t="inlineStr">
+        <is>
+          <t>223</t>
+        </is>
+      </c>
+      <c r="W519" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X519" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y519" s="12" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -94411,15 +94818,30 @@
       </c>
       <c r="T520" s="11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>758</t>
         </is>
       </c>
       <c r="U520" s="11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>481</t>
         </is>
       </c>
       <c r="V520" s="11" t="inlineStr">
+        <is>
+          <t>830</t>
+        </is>
+      </c>
+      <c r="W520" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X520" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y520" s="12" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -94523,15 +94945,30 @@
       </c>
       <c r="T521" s="11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>488</t>
         </is>
       </c>
       <c r="U521" s="11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>551</t>
         </is>
       </c>
       <c r="V521" s="11" t="inlineStr">
+        <is>
+          <t>629</t>
+        </is>
+      </c>
+      <c r="W521" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X521" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y521" s="12" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -94635,15 +95072,30 @@
       </c>
       <c r="T522" s="11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>901</t>
         </is>
       </c>
       <c r="U522" s="11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>010</t>
         </is>
       </c>
       <c r="V522" s="11" t="inlineStr">
+        <is>
+          <t>295</t>
+        </is>
+      </c>
+      <c r="W522" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X522" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y522" s="12" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -94747,15 +95199,30 @@
       </c>
       <c r="T523" s="11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>651</t>
         </is>
       </c>
       <c r="U523" s="11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>236</t>
         </is>
       </c>
       <c r="V523" s="11" t="inlineStr">
+        <is>
+          <t>952</t>
+        </is>
+      </c>
+      <c r="W523" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X523" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y523" s="12" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -94859,15 +95326,30 @@
       </c>
       <c r="T524" s="11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>248</t>
         </is>
       </c>
       <c r="U524" s="11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>760</t>
         </is>
       </c>
       <c r="V524" s="11" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="W524" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X524" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y524" s="12" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -94971,15 +95453,30 @@
       </c>
       <c r="T525" s="11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>128</t>
         </is>
       </c>
       <c r="U525" s="11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>138</t>
         </is>
       </c>
       <c r="V525" s="11" t="inlineStr">
+        <is>
+          <t>855</t>
+        </is>
+      </c>
+      <c r="W525" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X525" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y525" s="12" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -95083,15 +95580,30 @@
       </c>
       <c r="T526" s="11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>648</t>
         </is>
       </c>
       <c r="U526" s="11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>797</t>
         </is>
       </c>
       <c r="V526" s="11" t="inlineStr">
+        <is>
+          <t>611</t>
+        </is>
+      </c>
+      <c r="W526" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X526" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y526" s="12" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -95195,15 +95707,30 @@
       </c>
       <c r="T527" s="11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>156</t>
         </is>
       </c>
       <c r="U527" s="11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>057</t>
         </is>
       </c>
       <c r="V527" s="11" t="inlineStr">
+        <is>
+          <t>015</t>
+        </is>
+      </c>
+      <c r="W527" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X527" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y527" s="12" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -95307,22 +95834,37 @@
       </c>
       <c r="T528" s="11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>433</t>
         </is>
       </c>
       <c r="U528" s="11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>721</t>
         </is>
       </c>
       <c r="V528" s="11" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="W528" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X528" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y528" s="12" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="203">
+  <mergeCells count="204">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
@@ -95526,6 +96068,7 @@
     <mergeCell ref="N496:P496"/>
     <mergeCell ref="Q496:S496"/>
     <mergeCell ref="T496:V496"/>
+    <mergeCell ref="W496:Y496"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/swertres/excel_results_4.xlsx
+++ b/swertres/excel_results_4.xlsx
@@ -92430,7 +92430,7 @@
       </c>
       <c r="Y501" s="12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>055</t>
         </is>
       </c>
     </row>
@@ -92547,17 +92547,17 @@
       </c>
       <c r="W502" s="12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>131</t>
         </is>
       </c>
       <c r="X502" s="12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>836</t>
         </is>
       </c>
       <c r="Y502" s="12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>431</t>
         </is>
       </c>
     </row>
@@ -92674,17 +92674,17 @@
       </c>
       <c r="W503" s="12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>068</t>
         </is>
       </c>
       <c r="X503" s="12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>032</t>
         </is>
       </c>
       <c r="Y503" s="12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>040</t>
         </is>
       </c>
     </row>
@@ -92801,17 +92801,17 @@
       </c>
       <c r="W504" s="12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>418</t>
         </is>
       </c>
       <c r="X504" s="12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>035</t>
         </is>
       </c>
       <c r="Y504" s="12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>707</t>
         </is>
       </c>
     </row>
@@ -92928,17 +92928,17 @@
       </c>
       <c r="W505" s="12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>438</t>
         </is>
       </c>
       <c r="X505" s="12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>872</t>
         </is>
       </c>
       <c r="Y505" s="12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>531</t>
         </is>
       </c>
     </row>
@@ -93055,17 +93055,17 @@
       </c>
       <c r="W506" s="12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>950</t>
         </is>
       </c>
       <c r="X506" s="12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>025</t>
         </is>
       </c>
       <c r="Y506" s="12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>712</t>
         </is>
       </c>
     </row>
@@ -93182,17 +93182,17 @@
       </c>
       <c r="W507" s="12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>240</t>
         </is>
       </c>
       <c r="X507" s="12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>749</t>
         </is>
       </c>
       <c r="Y507" s="12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>051</t>
         </is>
       </c>
     </row>
@@ -93309,17 +93309,17 @@
       </c>
       <c r="W508" s="12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>862</t>
         </is>
       </c>
       <c r="X508" s="12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>246</t>
         </is>
       </c>
       <c r="Y508" s="12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>075</t>
         </is>
       </c>
     </row>
@@ -93436,17 +93436,17 @@
       </c>
       <c r="W509" s="12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>194</t>
         </is>
       </c>
       <c r="X509" s="12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>119</t>
         </is>
       </c>
       <c r="Y509" s="12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>302</t>
         </is>
       </c>
     </row>
@@ -93563,17 +93563,17 @@
       </c>
       <c r="W510" s="12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>294</t>
         </is>
       </c>
       <c r="X510" s="12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>291</t>
         </is>
       </c>
       <c r="Y510" s="12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>382</t>
         </is>
       </c>
     </row>
@@ -93690,17 +93690,17 @@
       </c>
       <c r="W511" s="12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>531</t>
         </is>
       </c>
       <c r="X511" s="12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>609</t>
         </is>
       </c>
       <c r="Y511" s="12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>364</t>
         </is>
       </c>
     </row>
@@ -93817,17 +93817,17 @@
       </c>
       <c r="W512" s="12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>021</t>
         </is>
       </c>
       <c r="X512" s="12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>094</t>
         </is>
       </c>
       <c r="Y512" s="12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>383</t>
         </is>
       </c>
     </row>
@@ -93944,17 +93944,17 @@
       </c>
       <c r="W513" s="12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>879</t>
         </is>
       </c>
       <c r="X513" s="12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>599</t>
         </is>
       </c>
       <c r="Y513" s="12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>824</t>
         </is>
       </c>
     </row>
@@ -94071,17 +94071,17 @@
       </c>
       <c r="W514" s="12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>606</t>
         </is>
       </c>
       <c r="X514" s="12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>611</t>
         </is>
       </c>
       <c r="Y514" s="12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>360</t>
         </is>
       </c>
     </row>
@@ -94198,17 +94198,17 @@
       </c>
       <c r="W515" s="12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>696</t>
         </is>
       </c>
       <c r="X515" s="12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>239</t>
         </is>
       </c>
       <c r="Y515" s="12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>391</t>
         </is>
       </c>
     </row>
@@ -94325,17 +94325,17 @@
       </c>
       <c r="W516" s="12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>636</t>
         </is>
       </c>
       <c r="X516" s="12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>054</t>
         </is>
       </c>
       <c r="Y516" s="12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>108</t>
         </is>
       </c>
     </row>
@@ -94452,17 +94452,17 @@
       </c>
       <c r="W517" s="12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>386</t>
         </is>
       </c>
       <c r="X517" s="12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>715</t>
         </is>
       </c>
       <c r="Y517" s="12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>388</t>
         </is>
       </c>
     </row>
@@ -94579,17 +94579,17 @@
       </c>
       <c r="W518" s="12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>612</t>
         </is>
       </c>
       <c r="X518" s="12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>908</t>
         </is>
       </c>
       <c r="Y518" s="12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>275</t>
         </is>
       </c>
     </row>
@@ -94706,17 +94706,17 @@
       </c>
       <c r="W519" s="12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>633</t>
         </is>
       </c>
       <c r="X519" s="12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>571</t>
         </is>
       </c>
       <c r="Y519" s="12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>377</t>
         </is>
       </c>
     </row>
@@ -94833,17 +94833,17 @@
       </c>
       <c r="W520" s="12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>608</t>
         </is>
       </c>
       <c r="X520" s="12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>948</t>
         </is>
       </c>
       <c r="Y520" s="12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>511</t>
         </is>
       </c>
     </row>
@@ -94960,17 +94960,17 @@
       </c>
       <c r="W521" s="12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>496</t>
         </is>
       </c>
       <c r="X521" s="12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>544</t>
         </is>
       </c>
       <c r="Y521" s="12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>955</t>
         </is>
       </c>
     </row>
@@ -95087,17 +95087,17 @@
       </c>
       <c r="W522" s="12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>484</t>
         </is>
       </c>
       <c r="X522" s="12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>693</t>
         </is>
       </c>
       <c r="Y522" s="12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>707</t>
         </is>
       </c>
     </row>

--- a/swertres/excel_results_4.xlsx
+++ b/swertres/excel_results_4.xlsx
@@ -91802,6 +91802,27 @@
       </c>
       <c r="X496" s="2" t="n"/>
       <c r="Y496" s="3" t="n"/>
+      <c r="Z496" s="1" t="inlineStr">
+        <is>
+          <t>SEP 2021</t>
+        </is>
+      </c>
+      <c r="AA496" s="2" t="n"/>
+      <c r="AB496" s="3" t="n"/>
+      <c r="AC496" s="1" t="inlineStr">
+        <is>
+          <t>OCT 2021</t>
+        </is>
+      </c>
+      <c r="AD496" s="2" t="n"/>
+      <c r="AE496" s="3" t="n"/>
+      <c r="AF496" s="1" t="inlineStr">
+        <is>
+          <t>NOV 2021</t>
+        </is>
+      </c>
+      <c r="AG496" s="2" t="n"/>
+      <c r="AH496" s="3" t="n"/>
     </row>
     <row r="497">
       <c r="A497" s="4" t="n"/>
@@ -91925,6 +91946,51 @@
           <t>9PM</t>
         </is>
       </c>
+      <c r="Z497" s="1" t="inlineStr">
+        <is>
+          <t>2PM</t>
+        </is>
+      </c>
+      <c r="AA497" s="1" t="inlineStr">
+        <is>
+          <t>4PM</t>
+        </is>
+      </c>
+      <c r="AB497" s="1" t="inlineStr">
+        <is>
+          <t>9PM</t>
+        </is>
+      </c>
+      <c r="AC497" s="1" t="inlineStr">
+        <is>
+          <t>2PM</t>
+        </is>
+      </c>
+      <c r="AD497" s="1" t="inlineStr">
+        <is>
+          <t>4PM</t>
+        </is>
+      </c>
+      <c r="AE497" s="1" t="inlineStr">
+        <is>
+          <t>9PM</t>
+        </is>
+      </c>
+      <c r="AF497" s="1" t="inlineStr">
+        <is>
+          <t>2PM</t>
+        </is>
+      </c>
+      <c r="AG497" s="1" t="inlineStr">
+        <is>
+          <t>4PM</t>
+        </is>
+      </c>
+      <c r="AH497" s="1" t="inlineStr">
+        <is>
+          <t>9PM</t>
+        </is>
+      </c>
     </row>
     <row r="498">
       <c r="A498" s="1" t="inlineStr">
@@ -92052,6 +92118,51 @@
           <t>346</t>
         </is>
       </c>
+      <c r="Z498" s="13" t="inlineStr">
+        <is>
+          <t>256</t>
+        </is>
+      </c>
+      <c r="AA498" s="13" t="inlineStr">
+        <is>
+          <t>484</t>
+        </is>
+      </c>
+      <c r="AB498" s="13" t="inlineStr">
+        <is>
+          <t>948</t>
+        </is>
+      </c>
+      <c r="AC498" s="14" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="AD498" s="14" t="inlineStr">
+        <is>
+          <t>954</t>
+        </is>
+      </c>
+      <c r="AE498" s="14" t="inlineStr">
+        <is>
+          <t>340</t>
+        </is>
+      </c>
+      <c r="AF498" s="15" t="inlineStr">
+        <is>
+          <t>402</t>
+        </is>
+      </c>
+      <c r="AG498" s="15" t="inlineStr">
+        <is>
+          <t>817</t>
+        </is>
+      </c>
+      <c r="AH498" s="15" t="inlineStr">
+        <is>
+          <t>950</t>
+        </is>
+      </c>
     </row>
     <row r="499">
       <c r="A499" s="1" t="inlineStr">
@@ -92179,6 +92290,51 @@
           <t>152</t>
         </is>
       </c>
+      <c r="Z499" s="13" t="inlineStr">
+        <is>
+          <t>369</t>
+        </is>
+      </c>
+      <c r="AA499" s="13" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="AB499" s="13" t="inlineStr">
+        <is>
+          <t>847</t>
+        </is>
+      </c>
+      <c r="AC499" s="14" t="inlineStr">
+        <is>
+          <t>398</t>
+        </is>
+      </c>
+      <c r="AD499" s="14" t="inlineStr">
+        <is>
+          <t>655</t>
+        </is>
+      </c>
+      <c r="AE499" s="14" t="inlineStr">
+        <is>
+          <t>647</t>
+        </is>
+      </c>
+      <c r="AF499" s="15" t="inlineStr">
+        <is>
+          <t>971</t>
+        </is>
+      </c>
+      <c r="AG499" s="15" t="inlineStr">
+        <is>
+          <t>849</t>
+        </is>
+      </c>
+      <c r="AH499" s="15" t="inlineStr">
+        <is>
+          <t>934</t>
+        </is>
+      </c>
     </row>
     <row r="500">
       <c r="A500" s="1" t="inlineStr">
@@ -92306,6 +92462,51 @@
           <t>033</t>
         </is>
       </c>
+      <c r="Z500" s="13" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="AA500" s="13" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="AB500" s="13" t="inlineStr">
+        <is>
+          <t>229</t>
+        </is>
+      </c>
+      <c r="AC500" s="14" t="inlineStr">
+        <is>
+          <t>729</t>
+        </is>
+      </c>
+      <c r="AD500" s="14" t="inlineStr">
+        <is>
+          <t>519</t>
+        </is>
+      </c>
+      <c r="AE500" s="14" t="inlineStr">
+        <is>
+          <t>062</t>
+        </is>
+      </c>
+      <c r="AF500" s="15" t="inlineStr">
+        <is>
+          <t>914</t>
+        </is>
+      </c>
+      <c r="AG500" s="15" t="inlineStr">
+        <is>
+          <t>259</t>
+        </is>
+      </c>
+      <c r="AH500" s="15" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
     </row>
     <row r="501">
       <c r="A501" s="1" t="inlineStr">
@@ -92433,6 +92634,51 @@
           <t>055</t>
         </is>
       </c>
+      <c r="Z501" s="13" t="inlineStr">
+        <is>
+          <t>431</t>
+        </is>
+      </c>
+      <c r="AA501" s="13" t="inlineStr">
+        <is>
+          <t>415</t>
+        </is>
+      </c>
+      <c r="AB501" s="13" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
+      </c>
+      <c r="AC501" s="14" t="inlineStr">
+        <is>
+          <t>369</t>
+        </is>
+      </c>
+      <c r="AD501" s="14" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="AE501" s="14" t="inlineStr">
+        <is>
+          <t>335</t>
+        </is>
+      </c>
+      <c r="AF501" s="15" t="inlineStr">
+        <is>
+          <t>901</t>
+        </is>
+      </c>
+      <c r="AG501" s="15" t="inlineStr">
+        <is>
+          <t>399</t>
+        </is>
+      </c>
+      <c r="AH501" s="15" t="inlineStr">
+        <is>
+          <t>734</t>
+        </is>
+      </c>
     </row>
     <row r="502">
       <c r="A502" s="1" t="inlineStr">
@@ -92560,6 +92806,51 @@
           <t>431</t>
         </is>
       </c>
+      <c r="Z502" s="13" t="inlineStr">
+        <is>
+          <t>016</t>
+        </is>
+      </c>
+      <c r="AA502" s="13" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="AB502" s="13" t="inlineStr">
+        <is>
+          <t>795</t>
+        </is>
+      </c>
+      <c r="AC502" s="14" t="inlineStr">
+        <is>
+          <t>938</t>
+        </is>
+      </c>
+      <c r="AD502" s="14" t="inlineStr">
+        <is>
+          <t>161</t>
+        </is>
+      </c>
+      <c r="AE502" s="14" t="inlineStr">
+        <is>
+          <t>359</t>
+        </is>
+      </c>
+      <c r="AF502" s="15" t="inlineStr">
+        <is>
+          <t>695</t>
+        </is>
+      </c>
+      <c r="AG502" s="15" t="inlineStr">
+        <is>
+          <t>813</t>
+        </is>
+      </c>
+      <c r="AH502" s="15" t="inlineStr">
+        <is>
+          <t>279</t>
+        </is>
+      </c>
     </row>
     <row r="503">
       <c r="A503" s="1" t="inlineStr">
@@ -92687,6 +92978,51 @@
           <t>040</t>
         </is>
       </c>
+      <c r="Z503" s="13" t="inlineStr">
+        <is>
+          <t>700</t>
+        </is>
+      </c>
+      <c r="AA503" s="13" t="inlineStr">
+        <is>
+          <t>075</t>
+        </is>
+      </c>
+      <c r="AB503" s="13" t="inlineStr">
+        <is>
+          <t>362</t>
+        </is>
+      </c>
+      <c r="AC503" s="14" t="inlineStr">
+        <is>
+          <t>829</t>
+        </is>
+      </c>
+      <c r="AD503" s="14" t="inlineStr">
+        <is>
+          <t>258</t>
+        </is>
+      </c>
+      <c r="AE503" s="14" t="inlineStr">
+        <is>
+          <t>793</t>
+        </is>
+      </c>
+      <c r="AF503" s="15" t="inlineStr">
+        <is>
+          <t>337</t>
+        </is>
+      </c>
+      <c r="AG503" s="15" t="inlineStr">
+        <is>
+          <t>960</t>
+        </is>
+      </c>
+      <c r="AH503" s="15" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
     </row>
     <row r="504">
       <c r="A504" s="1" t="inlineStr">
@@ -92814,6 +93150,51 @@
           <t>707</t>
         </is>
       </c>
+      <c r="Z504" s="13" t="inlineStr">
+        <is>
+          <t>161</t>
+        </is>
+      </c>
+      <c r="AA504" s="13" t="inlineStr">
+        <is>
+          <t>718</t>
+        </is>
+      </c>
+      <c r="AB504" s="13" t="inlineStr">
+        <is>
+          <t>624</t>
+        </is>
+      </c>
+      <c r="AC504" s="14" t="inlineStr">
+        <is>
+          <t>922</t>
+        </is>
+      </c>
+      <c r="AD504" s="14" t="inlineStr">
+        <is>
+          <t>248</t>
+        </is>
+      </c>
+      <c r="AE504" s="14" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="AF504" s="15" t="inlineStr">
+        <is>
+          <t>260</t>
+        </is>
+      </c>
+      <c r="AG504" s="15" t="inlineStr">
+        <is>
+          <t>461</t>
+        </is>
+      </c>
+      <c r="AH504" s="15" t="inlineStr">
+        <is>
+          <t>452</t>
+        </is>
+      </c>
     </row>
     <row r="505">
       <c r="A505" s="1" t="inlineStr">
@@ -92941,6 +93322,51 @@
           <t>531</t>
         </is>
       </c>
+      <c r="Z505" s="13" t="inlineStr">
+        <is>
+          <t>938</t>
+        </is>
+      </c>
+      <c r="AA505" s="13" t="inlineStr">
+        <is>
+          <t>295</t>
+        </is>
+      </c>
+      <c r="AB505" s="13" t="inlineStr">
+        <is>
+          <t>032</t>
+        </is>
+      </c>
+      <c r="AC505" s="14" t="inlineStr">
+        <is>
+          <t>439</t>
+        </is>
+      </c>
+      <c r="AD505" s="14" t="inlineStr">
+        <is>
+          <t>340</t>
+        </is>
+      </c>
+      <c r="AE505" s="14" t="inlineStr">
+        <is>
+          <t>040</t>
+        </is>
+      </c>
+      <c r="AF505" s="15" t="inlineStr">
+        <is>
+          <t>527</t>
+        </is>
+      </c>
+      <c r="AG505" s="15" t="inlineStr">
+        <is>
+          <t>677</t>
+        </is>
+      </c>
+      <c r="AH505" s="15" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
     </row>
     <row r="506">
       <c r="A506" s="1" t="inlineStr">
@@ -93068,6 +93494,51 @@
           <t>712</t>
         </is>
       </c>
+      <c r="Z506" s="13" t="inlineStr">
+        <is>
+          <t>902</t>
+        </is>
+      </c>
+      <c r="AA506" s="13" t="inlineStr">
+        <is>
+          <t>267</t>
+        </is>
+      </c>
+      <c r="AB506" s="13" t="inlineStr">
+        <is>
+          <t>875</t>
+        </is>
+      </c>
+      <c r="AC506" s="14" t="inlineStr">
+        <is>
+          <t>416</t>
+        </is>
+      </c>
+      <c r="AD506" s="14" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="AE506" s="14" t="inlineStr">
+        <is>
+          <t>789</t>
+        </is>
+      </c>
+      <c r="AF506" s="15" t="inlineStr">
+        <is>
+          <t>399</t>
+        </is>
+      </c>
+      <c r="AG506" s="15" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="AH506" s="15" t="inlineStr">
+        <is>
+          <t>940</t>
+        </is>
+      </c>
     </row>
     <row r="507">
       <c r="A507" s="1" t="inlineStr">
@@ -93195,6 +93666,51 @@
           <t>051</t>
         </is>
       </c>
+      <c r="Z507" s="13" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="AA507" s="13" t="inlineStr">
+        <is>
+          <t>604</t>
+        </is>
+      </c>
+      <c r="AB507" s="13" t="inlineStr">
+        <is>
+          <t>553</t>
+        </is>
+      </c>
+      <c r="AC507" s="14" t="inlineStr">
+        <is>
+          <t>699</t>
+        </is>
+      </c>
+      <c r="AD507" s="14" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="AE507" s="14" t="inlineStr">
+        <is>
+          <t>562</t>
+        </is>
+      </c>
+      <c r="AF507" s="15" t="inlineStr">
+        <is>
+          <t>190</t>
+        </is>
+      </c>
+      <c r="AG507" s="15" t="inlineStr">
+        <is>
+          <t>939</t>
+        </is>
+      </c>
+      <c r="AH507" s="15" t="inlineStr">
+        <is>
+          <t>423</t>
+        </is>
+      </c>
     </row>
     <row r="508">
       <c r="A508" s="1" t="inlineStr">
@@ -93322,6 +93838,51 @@
           <t>075</t>
         </is>
       </c>
+      <c r="Z508" s="13" t="inlineStr">
+        <is>
+          <t>510</t>
+        </is>
+      </c>
+      <c r="AA508" s="13" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="AB508" s="13" t="inlineStr">
+        <is>
+          <t>203</t>
+        </is>
+      </c>
+      <c r="AC508" s="14" t="inlineStr">
+        <is>
+          <t>291</t>
+        </is>
+      </c>
+      <c r="AD508" s="14" t="inlineStr">
+        <is>
+          <t>707</t>
+        </is>
+      </c>
+      <c r="AE508" s="14" t="inlineStr">
+        <is>
+          <t>624</t>
+        </is>
+      </c>
+      <c r="AF508" s="15" t="inlineStr">
+        <is>
+          <t>293</t>
+        </is>
+      </c>
+      <c r="AG508" s="15" t="inlineStr">
+        <is>
+          <t>789</t>
+        </is>
+      </c>
+      <c r="AH508" s="15" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
     </row>
     <row r="509">
       <c r="A509" s="1" t="inlineStr">
@@ -93449,6 +94010,51 @@
           <t>302</t>
         </is>
       </c>
+      <c r="Z509" s="13" t="inlineStr">
+        <is>
+          <t>843</t>
+        </is>
+      </c>
+      <c r="AA509" s="13" t="inlineStr">
+        <is>
+          <t>799</t>
+        </is>
+      </c>
+      <c r="AB509" s="13" t="inlineStr">
+        <is>
+          <t>869</t>
+        </is>
+      </c>
+      <c r="AC509" s="14" t="inlineStr">
+        <is>
+          <t>834</t>
+        </is>
+      </c>
+      <c r="AD509" s="14" t="inlineStr">
+        <is>
+          <t>349</t>
+        </is>
+      </c>
+      <c r="AE509" s="14" t="inlineStr">
+        <is>
+          <t>790</t>
+        </is>
+      </c>
+      <c r="AF509" s="15" t="inlineStr">
+        <is>
+          <t>162</t>
+        </is>
+      </c>
+      <c r="AG509" s="15" t="inlineStr">
+        <is>
+          <t>901</t>
+        </is>
+      </c>
+      <c r="AH509" s="15" t="inlineStr">
+        <is>
+          <t>666</t>
+        </is>
+      </c>
     </row>
     <row r="510">
       <c r="A510" s="1" t="inlineStr">
@@ -93576,6 +94182,51 @@
           <t>382</t>
         </is>
       </c>
+      <c r="Z510" s="13" t="inlineStr">
+        <is>
+          <t>618</t>
+        </is>
+      </c>
+      <c r="AA510" s="13" t="inlineStr">
+        <is>
+          <t>556</t>
+        </is>
+      </c>
+      <c r="AB510" s="13" t="inlineStr">
+        <is>
+          <t>016</t>
+        </is>
+      </c>
+      <c r="AC510" s="14" t="inlineStr">
+        <is>
+          <t>521</t>
+        </is>
+      </c>
+      <c r="AD510" s="14" t="inlineStr">
+        <is>
+          <t>604</t>
+        </is>
+      </c>
+      <c r="AE510" s="14" t="inlineStr">
+        <is>
+          <t>095</t>
+        </is>
+      </c>
+      <c r="AF510" s="15" t="inlineStr">
+        <is>
+          <t>061</t>
+        </is>
+      </c>
+      <c r="AG510" s="15" t="inlineStr">
+        <is>
+          <t>678</t>
+        </is>
+      </c>
+      <c r="AH510" s="15" t="inlineStr">
+        <is>
+          <t>625</t>
+        </is>
+      </c>
     </row>
     <row r="511">
       <c r="A511" s="1" t="inlineStr">
@@ -93703,6 +94354,51 @@
           <t>364</t>
         </is>
       </c>
+      <c r="Z511" s="13" t="inlineStr">
+        <is>
+          <t>272</t>
+        </is>
+      </c>
+      <c r="AA511" s="13" t="inlineStr">
+        <is>
+          <t>589</t>
+        </is>
+      </c>
+      <c r="AB511" s="13" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="AC511" s="14" t="inlineStr">
+        <is>
+          <t>074</t>
+        </is>
+      </c>
+      <c r="AD511" s="14" t="inlineStr">
+        <is>
+          <t>311</t>
+        </is>
+      </c>
+      <c r="AE511" s="14" t="inlineStr">
+        <is>
+          <t>813</t>
+        </is>
+      </c>
+      <c r="AF511" s="15" t="inlineStr">
+        <is>
+          <t>058</t>
+        </is>
+      </c>
+      <c r="AG511" s="15" t="inlineStr">
+        <is>
+          <t>617</t>
+        </is>
+      </c>
+      <c r="AH511" s="15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="512">
       <c r="A512" s="1" t="inlineStr">
@@ -93830,6 +94526,51 @@
           <t>383</t>
         </is>
       </c>
+      <c r="Z512" s="13" t="inlineStr">
+        <is>
+          <t>428</t>
+        </is>
+      </c>
+      <c r="AA512" s="13" t="inlineStr">
+        <is>
+          <t>977</t>
+        </is>
+      </c>
+      <c r="AB512" s="13" t="inlineStr">
+        <is>
+          <t>093</t>
+        </is>
+      </c>
+      <c r="AC512" s="14" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+      <c r="AD512" s="14" t="inlineStr">
+        <is>
+          <t>484</t>
+        </is>
+      </c>
+      <c r="AE512" s="14" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="AF512" s="15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AG512" s="15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AH512" s="15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="513">
       <c r="A513" s="1" t="inlineStr">
@@ -93957,6 +94698,51 @@
           <t>824</t>
         </is>
       </c>
+      <c r="Z513" s="13" t="inlineStr">
+        <is>
+          <t>166</t>
+        </is>
+      </c>
+      <c r="AA513" s="13" t="inlineStr">
+        <is>
+          <t>769</t>
+        </is>
+      </c>
+      <c r="AB513" s="13" t="inlineStr">
+        <is>
+          <t>685</t>
+        </is>
+      </c>
+      <c r="AC513" s="14" t="inlineStr">
+        <is>
+          <t>935</t>
+        </is>
+      </c>
+      <c r="AD513" s="14" t="inlineStr">
+        <is>
+          <t>794</t>
+        </is>
+      </c>
+      <c r="AE513" s="14" t="inlineStr">
+        <is>
+          <t>341</t>
+        </is>
+      </c>
+      <c r="AF513" s="15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AG513" s="15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AH513" s="15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="514">
       <c r="A514" s="1" t="inlineStr">
@@ -94084,6 +94870,51 @@
           <t>360</t>
         </is>
       </c>
+      <c r="Z514" s="13" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="AA514" s="13" t="inlineStr">
+        <is>
+          <t>494</t>
+        </is>
+      </c>
+      <c r="AB514" s="13" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="AC514" s="14" t="inlineStr">
+        <is>
+          <t>030</t>
+        </is>
+      </c>
+      <c r="AD514" s="14" t="inlineStr">
+        <is>
+          <t>531</t>
+        </is>
+      </c>
+      <c r="AE514" s="14" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="AF514" s="15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AG514" s="15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AH514" s="15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="515">
       <c r="A515" s="1" t="inlineStr">
@@ -94211,6 +95042,51 @@
           <t>391</t>
         </is>
       </c>
+      <c r="Z515" s="13" t="inlineStr">
+        <is>
+          <t>364</t>
+        </is>
+      </c>
+      <c r="AA515" s="13" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
+      </c>
+      <c r="AB515" s="13" t="inlineStr">
+        <is>
+          <t>092</t>
+        </is>
+      </c>
+      <c r="AC515" s="14" t="inlineStr">
+        <is>
+          <t>835</t>
+        </is>
+      </c>
+      <c r="AD515" s="14" t="inlineStr">
+        <is>
+          <t>985</t>
+        </is>
+      </c>
+      <c r="AE515" s="14" t="inlineStr">
+        <is>
+          <t>865</t>
+        </is>
+      </c>
+      <c r="AF515" s="15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AG515" s="15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AH515" s="15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="516">
       <c r="A516" s="1" t="inlineStr">
@@ -94338,6 +95214,51 @@
           <t>108</t>
         </is>
       </c>
+      <c r="Z516" s="13" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="AA516" s="13" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="AB516" s="13" t="inlineStr">
+        <is>
+          <t>909</t>
+        </is>
+      </c>
+      <c r="AC516" s="14" t="inlineStr">
+        <is>
+          <t>484</t>
+        </is>
+      </c>
+      <c r="AD516" s="14" t="inlineStr">
+        <is>
+          <t>523</t>
+        </is>
+      </c>
+      <c r="AE516" s="14" t="inlineStr">
+        <is>
+          <t>787</t>
+        </is>
+      </c>
+      <c r="AF516" s="15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AG516" s="15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AH516" s="15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="517">
       <c r="A517" s="1" t="inlineStr">
@@ -94465,6 +95386,51 @@
           <t>388</t>
         </is>
       </c>
+      <c r="Z517" s="13" t="inlineStr">
+        <is>
+          <t>606</t>
+        </is>
+      </c>
+      <c r="AA517" s="13" t="inlineStr">
+        <is>
+          <t>883</t>
+        </is>
+      </c>
+      <c r="AB517" s="13" t="inlineStr">
+        <is>
+          <t>461</t>
+        </is>
+      </c>
+      <c r="AC517" s="14" t="inlineStr">
+        <is>
+          <t>028</t>
+        </is>
+      </c>
+      <c r="AD517" s="14" t="inlineStr">
+        <is>
+          <t>496</t>
+        </is>
+      </c>
+      <c r="AE517" s="14" t="inlineStr">
+        <is>
+          <t>445</t>
+        </is>
+      </c>
+      <c r="AF517" s="15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AG517" s="15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AH517" s="15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="518">
       <c r="A518" s="1" t="inlineStr">
@@ -94592,6 +95558,51 @@
           <t>275</t>
         </is>
       </c>
+      <c r="Z518" s="13" t="inlineStr">
+        <is>
+          <t>318</t>
+        </is>
+      </c>
+      <c r="AA518" s="13" t="inlineStr">
+        <is>
+          <t>533</t>
+        </is>
+      </c>
+      <c r="AB518" s="13" t="inlineStr">
+        <is>
+          <t>369</t>
+        </is>
+      </c>
+      <c r="AC518" s="14" t="inlineStr">
+        <is>
+          <t>794</t>
+        </is>
+      </c>
+      <c r="AD518" s="14" t="inlineStr">
+        <is>
+          <t>423</t>
+        </is>
+      </c>
+      <c r="AE518" s="14" t="inlineStr">
+        <is>
+          <t>623</t>
+        </is>
+      </c>
+      <c r="AF518" s="15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AG518" s="15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AH518" s="15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="519">
       <c r="A519" s="1" t="inlineStr">
@@ -94719,6 +95730,51 @@
           <t>377</t>
         </is>
       </c>
+      <c r="Z519" s="13" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="AA519" s="13" t="inlineStr">
+        <is>
+          <t>271</t>
+        </is>
+      </c>
+      <c r="AB519" s="13" t="inlineStr">
+        <is>
+          <t>800</t>
+        </is>
+      </c>
+      <c r="AC519" s="14" t="inlineStr">
+        <is>
+          <t>829</t>
+        </is>
+      </c>
+      <c r="AD519" s="14" t="inlineStr">
+        <is>
+          <t>388</t>
+        </is>
+      </c>
+      <c r="AE519" s="14" t="inlineStr">
+        <is>
+          <t>899</t>
+        </is>
+      </c>
+      <c r="AF519" s="15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AG519" s="15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AH519" s="15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="520">
       <c r="A520" s="1" t="inlineStr">
@@ -94846,6 +95902,51 @@
           <t>511</t>
         </is>
       </c>
+      <c r="Z520" s="13" t="inlineStr">
+        <is>
+          <t>603</t>
+        </is>
+      </c>
+      <c r="AA520" s="13" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="AB520" s="13" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="AC520" s="14" t="inlineStr">
+        <is>
+          <t>516</t>
+        </is>
+      </c>
+      <c r="AD520" s="14" t="inlineStr">
+        <is>
+          <t>784</t>
+        </is>
+      </c>
+      <c r="AE520" s="14" t="inlineStr">
+        <is>
+          <t>958</t>
+        </is>
+      </c>
+      <c r="AF520" s="15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AG520" s="15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AH520" s="15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="521">
       <c r="A521" s="1" t="inlineStr">
@@ -94973,6 +96074,51 @@
           <t>955</t>
         </is>
       </c>
+      <c r="Z521" s="13" t="inlineStr">
+        <is>
+          <t>371</t>
+        </is>
+      </c>
+      <c r="AA521" s="13" t="inlineStr">
+        <is>
+          <t>395</t>
+        </is>
+      </c>
+      <c r="AB521" s="13" t="inlineStr">
+        <is>
+          <t>741</t>
+        </is>
+      </c>
+      <c r="AC521" s="14" t="inlineStr">
+        <is>
+          <t>440</t>
+        </is>
+      </c>
+      <c r="AD521" s="14" t="inlineStr">
+        <is>
+          <t>803</t>
+        </is>
+      </c>
+      <c r="AE521" s="14" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="AF521" s="15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AG521" s="15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AH521" s="15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="522">
       <c r="A522" s="1" t="inlineStr">
@@ -95100,6 +96246,51 @@
           <t>707</t>
         </is>
       </c>
+      <c r="Z522" s="13" t="inlineStr">
+        <is>
+          <t>608</t>
+        </is>
+      </c>
+      <c r="AA522" s="13" t="inlineStr">
+        <is>
+          <t>265</t>
+        </is>
+      </c>
+      <c r="AB522" s="13" t="inlineStr">
+        <is>
+          <t>929</t>
+        </is>
+      </c>
+      <c r="AC522" s="14" t="inlineStr">
+        <is>
+          <t>206</t>
+        </is>
+      </c>
+      <c r="AD522" s="14" t="inlineStr">
+        <is>
+          <t>810</t>
+        </is>
+      </c>
+      <c r="AE522" s="14" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="AF522" s="15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AG522" s="15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AH522" s="15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="523">
       <c r="A523" s="1" t="inlineStr">
@@ -95214,15 +96405,60 @@
       </c>
       <c r="W523" s="12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>125</t>
         </is>
       </c>
       <c r="X523" s="12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>735</t>
         </is>
       </c>
       <c r="Y523" s="12" t="inlineStr">
+        <is>
+          <t>479</t>
+        </is>
+      </c>
+      <c r="Z523" s="13" t="inlineStr">
+        <is>
+          <t>069</t>
+        </is>
+      </c>
+      <c r="AA523" s="13" t="inlineStr">
+        <is>
+          <t>284</t>
+        </is>
+      </c>
+      <c r="AB523" s="13" t="inlineStr">
+        <is>
+          <t>597</t>
+        </is>
+      </c>
+      <c r="AC523" s="14" t="inlineStr">
+        <is>
+          <t>356</t>
+        </is>
+      </c>
+      <c r="AD523" s="14" t="inlineStr">
+        <is>
+          <t>912</t>
+        </is>
+      </c>
+      <c r="AE523" s="14" t="inlineStr">
+        <is>
+          <t>043</t>
+        </is>
+      </c>
+      <c r="AF523" s="15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AG523" s="15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AH523" s="15" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -95341,15 +96577,60 @@
       </c>
       <c r="W524" s="12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>474</t>
         </is>
       </c>
       <c r="X524" s="12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>222</t>
         </is>
       </c>
       <c r="Y524" s="12" t="inlineStr">
+        <is>
+          <t>567</t>
+        </is>
+      </c>
+      <c r="Z524" s="13" t="inlineStr">
+        <is>
+          <t>781</t>
+        </is>
+      </c>
+      <c r="AA524" s="13" t="inlineStr">
+        <is>
+          <t>384</t>
+        </is>
+      </c>
+      <c r="AB524" s="13" t="inlineStr">
+        <is>
+          <t>733</t>
+        </is>
+      </c>
+      <c r="AC524" s="14" t="inlineStr">
+        <is>
+          <t>735</t>
+        </is>
+      </c>
+      <c r="AD524" s="14" t="inlineStr">
+        <is>
+          <t>081</t>
+        </is>
+      </c>
+      <c r="AE524" s="14" t="inlineStr">
+        <is>
+          <t>066</t>
+        </is>
+      </c>
+      <c r="AF524" s="15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AG524" s="15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AH524" s="15" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -95468,15 +96749,60 @@
       </c>
       <c r="W525" s="12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>868</t>
         </is>
       </c>
       <c r="X525" s="12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>251</t>
         </is>
       </c>
       <c r="Y525" s="12" t="inlineStr">
+        <is>
+          <t>222</t>
+        </is>
+      </c>
+      <c r="Z525" s="13" t="inlineStr">
+        <is>
+          <t>601</t>
+        </is>
+      </c>
+      <c r="AA525" s="13" t="inlineStr">
+        <is>
+          <t>282</t>
+        </is>
+      </c>
+      <c r="AB525" s="13" t="inlineStr">
+        <is>
+          <t>924</t>
+        </is>
+      </c>
+      <c r="AC525" s="14" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="AD525" s="14" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="AE525" s="14" t="inlineStr">
+        <is>
+          <t>647</t>
+        </is>
+      </c>
+      <c r="AF525" s="15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AG525" s="15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AH525" s="15" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -95595,15 +96921,60 @@
       </c>
       <c r="W526" s="12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>821</t>
         </is>
       </c>
       <c r="X526" s="12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>072</t>
         </is>
       </c>
       <c r="Y526" s="12" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="Z526" s="13" t="inlineStr">
+        <is>
+          <t>773</t>
+        </is>
+      </c>
+      <c r="AA526" s="13" t="inlineStr">
+        <is>
+          <t>933</t>
+        </is>
+      </c>
+      <c r="AB526" s="13" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="AC526" s="14" t="inlineStr">
+        <is>
+          <t>849</t>
+        </is>
+      </c>
+      <c r="AD526" s="14" t="inlineStr">
+        <is>
+          <t>230</t>
+        </is>
+      </c>
+      <c r="AE526" s="14" t="inlineStr">
+        <is>
+          <t>067</t>
+        </is>
+      </c>
+      <c r="AF526" s="15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AG526" s="15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AH526" s="15" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -95722,15 +97093,60 @@
       </c>
       <c r="W527" s="12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>615</t>
         </is>
       </c>
       <c r="X527" s="12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>446</t>
         </is>
       </c>
       <c r="Y527" s="12" t="inlineStr">
+        <is>
+          <t>295</t>
+        </is>
+      </c>
+      <c r="Z527" s="13" t="inlineStr">
+        <is>
+          <t>672</t>
+        </is>
+      </c>
+      <c r="AA527" s="13" t="inlineStr">
+        <is>
+          <t>961</t>
+        </is>
+      </c>
+      <c r="AB527" s="13" t="inlineStr">
+        <is>
+          <t>262</t>
+        </is>
+      </c>
+      <c r="AC527" s="14" t="inlineStr">
+        <is>
+          <t>959</t>
+        </is>
+      </c>
+      <c r="AD527" s="14" t="inlineStr">
+        <is>
+          <t>849</t>
+        </is>
+      </c>
+      <c r="AE527" s="14" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+      <c r="AF527" s="15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AG527" s="15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AH527" s="15" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -95849,22 +97265,67 @@
       </c>
       <c r="W528" s="12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>675</t>
         </is>
       </c>
       <c r="X528" s="12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>530</t>
         </is>
       </c>
       <c r="Y528" s="12" t="inlineStr">
+        <is>
+          <t>545</t>
+        </is>
+      </c>
+      <c r="Z528" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AA528" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB528" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AC528" s="14" t="inlineStr">
+        <is>
+          <t>018</t>
+        </is>
+      </c>
+      <c r="AD528" s="14" t="inlineStr">
+        <is>
+          <t>647</t>
+        </is>
+      </c>
+      <c r="AE528" s="14" t="inlineStr">
+        <is>
+          <t>803</t>
+        </is>
+      </c>
+      <c r="AF528" s="15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AG528" s="15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AH528" s="15" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="204">
+  <mergeCells count="207">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
@@ -96069,6 +97530,9 @@
     <mergeCell ref="Q496:S496"/>
     <mergeCell ref="T496:V496"/>
     <mergeCell ref="W496:Y496"/>
+    <mergeCell ref="Z496:AB496"/>
+    <mergeCell ref="AC496:AE496"/>
+    <mergeCell ref="AF496:AH496"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/swertres/excel_results_4.xlsx
+++ b/swertres/excel_results_4.xlsx
@@ -628,7 +628,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK528"/>
+  <dimension ref="A1:AK561"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91823,6 +91823,13 @@
       </c>
       <c r="AG496" s="2" t="n"/>
       <c r="AH496" s="3" t="n"/>
+      <c r="AI496" s="1" t="inlineStr">
+        <is>
+          <t>DEC 2021</t>
+        </is>
+      </c>
+      <c r="AJ496" s="2" t="n"/>
+      <c r="AK496" s="3" t="n"/>
     </row>
     <row r="497">
       <c r="A497" s="4" t="n"/>
@@ -91991,6 +91998,21 @@
           <t>9PM</t>
         </is>
       </c>
+      <c r="AI497" s="1" t="inlineStr">
+        <is>
+          <t>2PM</t>
+        </is>
+      </c>
+      <c r="AJ497" s="1" t="inlineStr">
+        <is>
+          <t>4PM</t>
+        </is>
+      </c>
+      <c r="AK497" s="1" t="inlineStr">
+        <is>
+          <t>9PM</t>
+        </is>
+      </c>
     </row>
     <row r="498">
       <c r="A498" s="1" t="inlineStr">
@@ -92163,6 +92185,21 @@
           <t>950</t>
         </is>
       </c>
+      <c r="AI498" s="16" t="inlineStr">
+        <is>
+          <t>382</t>
+        </is>
+      </c>
+      <c r="AJ498" s="16" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="AK498" s="16" t="inlineStr">
+        <is>
+          <t>387</t>
+        </is>
+      </c>
     </row>
     <row r="499">
       <c r="A499" s="1" t="inlineStr">
@@ -92335,6 +92372,21 @@
           <t>934</t>
         </is>
       </c>
+      <c r="AI499" s="16" t="inlineStr">
+        <is>
+          <t>830</t>
+        </is>
+      </c>
+      <c r="AJ499" s="16" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="AK499" s="16" t="inlineStr">
+        <is>
+          <t>936</t>
+        </is>
+      </c>
     </row>
     <row r="500">
       <c r="A500" s="1" t="inlineStr">
@@ -92507,6 +92559,21 @@
           <t>771</t>
         </is>
       </c>
+      <c r="AI500" s="16" t="inlineStr">
+        <is>
+          <t>590</t>
+        </is>
+      </c>
+      <c r="AJ500" s="16" t="inlineStr">
+        <is>
+          <t>081</t>
+        </is>
+      </c>
+      <c r="AK500" s="16" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
     </row>
     <row r="501">
       <c r="A501" s="1" t="inlineStr">
@@ -92679,6 +92746,21 @@
           <t>734</t>
         </is>
       </c>
+      <c r="AI501" s="16" t="inlineStr">
+        <is>
+          <t>188</t>
+        </is>
+      </c>
+      <c r="AJ501" s="16" t="inlineStr">
+        <is>
+          <t>233</t>
+        </is>
+      </c>
+      <c r="AK501" s="16" t="inlineStr">
+        <is>
+          <t>187</t>
+        </is>
+      </c>
     </row>
     <row r="502">
       <c r="A502" s="1" t="inlineStr">
@@ -92851,6 +92933,21 @@
           <t>279</t>
         </is>
       </c>
+      <c r="AI502" s="16" t="inlineStr">
+        <is>
+          <t>537</t>
+        </is>
+      </c>
+      <c r="AJ502" s="16" t="inlineStr">
+        <is>
+          <t>662</t>
+        </is>
+      </c>
+      <c r="AK502" s="16" t="inlineStr">
+        <is>
+          <t>266</t>
+        </is>
+      </c>
     </row>
     <row r="503">
       <c r="A503" s="1" t="inlineStr">
@@ -93023,6 +93120,21 @@
           <t>277</t>
         </is>
       </c>
+      <c r="AI503" s="16" t="inlineStr">
+        <is>
+          <t>011</t>
+        </is>
+      </c>
+      <c r="AJ503" s="16" t="inlineStr">
+        <is>
+          <t>712</t>
+        </is>
+      </c>
+      <c r="AK503" s="16" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
     </row>
     <row r="504">
       <c r="A504" s="1" t="inlineStr">
@@ -93195,6 +93307,21 @@
           <t>452</t>
         </is>
       </c>
+      <c r="AI504" s="16" t="inlineStr">
+        <is>
+          <t>630</t>
+        </is>
+      </c>
+      <c r="AJ504" s="16" t="inlineStr">
+        <is>
+          <t>025</t>
+        </is>
+      </c>
+      <c r="AK504" s="16" t="inlineStr">
+        <is>
+          <t>377</t>
+        </is>
+      </c>
     </row>
     <row r="505">
       <c r="A505" s="1" t="inlineStr">
@@ -93367,6 +93494,21 @@
           <t>143</t>
         </is>
       </c>
+      <c r="AI505" s="16" t="inlineStr">
+        <is>
+          <t>633</t>
+        </is>
+      </c>
+      <c r="AJ505" s="16" t="inlineStr">
+        <is>
+          <t>159</t>
+        </is>
+      </c>
+      <c r="AK505" s="16" t="inlineStr">
+        <is>
+          <t>663</t>
+        </is>
+      </c>
     </row>
     <row r="506">
       <c r="A506" s="1" t="inlineStr">
@@ -93539,6 +93681,21 @@
           <t>940</t>
         </is>
       </c>
+      <c r="AI506" s="16" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+      <c r="AJ506" s="16" t="inlineStr">
+        <is>
+          <t>943</t>
+        </is>
+      </c>
+      <c r="AK506" s="16" t="inlineStr">
+        <is>
+          <t>613</t>
+        </is>
+      </c>
     </row>
     <row r="507">
       <c r="A507" s="1" t="inlineStr">
@@ -93711,6 +93868,21 @@
           <t>423</t>
         </is>
       </c>
+      <c r="AI507" s="16" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="AJ507" s="16" t="inlineStr">
+        <is>
+          <t>538</t>
+        </is>
+      </c>
+      <c r="AK507" s="16" t="inlineStr">
+        <is>
+          <t>583</t>
+        </is>
+      </c>
     </row>
     <row r="508">
       <c r="A508" s="1" t="inlineStr">
@@ -93883,6 +94055,21 @@
           <t>288</t>
         </is>
       </c>
+      <c r="AI508" s="16" t="inlineStr">
+        <is>
+          <t>417</t>
+        </is>
+      </c>
+      <c r="AJ508" s="16" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="AK508" s="16" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
     </row>
     <row r="509">
       <c r="A509" s="1" t="inlineStr">
@@ -94055,6 +94242,21 @@
           <t>666</t>
         </is>
       </c>
+      <c r="AI509" s="16" t="inlineStr">
+        <is>
+          <t>864</t>
+        </is>
+      </c>
+      <c r="AJ509" s="16" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="AK509" s="16" t="inlineStr">
+        <is>
+          <t>413</t>
+        </is>
+      </c>
     </row>
     <row r="510">
       <c r="A510" s="1" t="inlineStr">
@@ -94227,6 +94429,21 @@
           <t>625</t>
         </is>
       </c>
+      <c r="AI510" s="16" t="inlineStr">
+        <is>
+          <t>722</t>
+        </is>
+      </c>
+      <c r="AJ510" s="16" t="inlineStr">
+        <is>
+          <t>884</t>
+        </is>
+      </c>
+      <c r="AK510" s="16" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
     </row>
     <row r="511">
       <c r="A511" s="1" t="inlineStr">
@@ -94399,6 +94616,21 @@
           <t>-</t>
         </is>
       </c>
+      <c r="AI511" s="16" t="inlineStr">
+        <is>
+          <t>381</t>
+        </is>
+      </c>
+      <c r="AJ511" s="16" t="inlineStr">
+        <is>
+          <t>301</t>
+        </is>
+      </c>
+      <c r="AK511" s="16" t="inlineStr">
+        <is>
+          <t>626</t>
+        </is>
+      </c>
     </row>
     <row r="512">
       <c r="A512" s="1" t="inlineStr">
@@ -94571,6 +94803,21 @@
           <t>-</t>
         </is>
       </c>
+      <c r="AI512" s="16" t="inlineStr">
+        <is>
+          <t>714</t>
+        </is>
+      </c>
+      <c r="AJ512" s="16" t="inlineStr">
+        <is>
+          <t>907</t>
+        </is>
+      </c>
+      <c r="AK512" s="16" t="inlineStr">
+        <is>
+          <t>342</t>
+        </is>
+      </c>
     </row>
     <row r="513">
       <c r="A513" s="1" t="inlineStr">
@@ -94743,6 +94990,21 @@
           <t>-</t>
         </is>
       </c>
+      <c r="AI513" s="16" t="inlineStr">
+        <is>
+          <t>333</t>
+        </is>
+      </c>
+      <c r="AJ513" s="16" t="inlineStr">
+        <is>
+          <t>448</t>
+        </is>
+      </c>
+      <c r="AK513" s="16" t="inlineStr">
+        <is>
+          <t>678</t>
+        </is>
+      </c>
     </row>
     <row r="514">
       <c r="A514" s="1" t="inlineStr">
@@ -94915,6 +95177,21 @@
           <t>-</t>
         </is>
       </c>
+      <c r="AI514" s="16" t="inlineStr">
+        <is>
+          <t>678</t>
+        </is>
+      </c>
+      <c r="AJ514" s="16" t="inlineStr">
+        <is>
+          <t>430</t>
+        </is>
+      </c>
+      <c r="AK514" s="16" t="inlineStr">
+        <is>
+          <t>162</t>
+        </is>
+      </c>
     </row>
     <row r="515">
       <c r="A515" s="1" t="inlineStr">
@@ -95087,6 +95364,21 @@
           <t>-</t>
         </is>
       </c>
+      <c r="AI515" s="16" t="inlineStr">
+        <is>
+          <t>290</t>
+        </is>
+      </c>
+      <c r="AJ515" s="16" t="inlineStr">
+        <is>
+          <t>070</t>
+        </is>
+      </c>
+      <c r="AK515" s="16" t="inlineStr">
+        <is>
+          <t>251</t>
+        </is>
+      </c>
     </row>
     <row r="516">
       <c r="A516" s="1" t="inlineStr">
@@ -95259,6 +95551,21 @@
           <t>-</t>
         </is>
       </c>
+      <c r="AI516" s="16" t="inlineStr">
+        <is>
+          <t>259</t>
+        </is>
+      </c>
+      <c r="AJ516" s="16" t="inlineStr">
+        <is>
+          <t>744</t>
+        </is>
+      </c>
+      <c r="AK516" s="16" t="inlineStr">
+        <is>
+          <t>716</t>
+        </is>
+      </c>
     </row>
     <row r="517">
       <c r="A517" s="1" t="inlineStr">
@@ -95431,6 +95738,21 @@
           <t>-</t>
         </is>
       </c>
+      <c r="AI517" s="16" t="inlineStr">
+        <is>
+          <t>218</t>
+        </is>
+      </c>
+      <c r="AJ517" s="16" t="inlineStr">
+        <is>
+          <t>306</t>
+        </is>
+      </c>
+      <c r="AK517" s="16" t="inlineStr">
+        <is>
+          <t>317</t>
+        </is>
+      </c>
     </row>
     <row r="518">
       <c r="A518" s="1" t="inlineStr">
@@ -95603,6 +95925,21 @@
           <t>-</t>
         </is>
       </c>
+      <c r="AI518" s="16" t="inlineStr">
+        <is>
+          <t>825</t>
+        </is>
+      </c>
+      <c r="AJ518" s="16" t="inlineStr">
+        <is>
+          <t>859</t>
+        </is>
+      </c>
+      <c r="AK518" s="16" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
     </row>
     <row r="519">
       <c r="A519" s="1" t="inlineStr">
@@ -95775,6 +96112,21 @@
           <t>-</t>
         </is>
       </c>
+      <c r="AI519" s="16" t="inlineStr">
+        <is>
+          <t>445</t>
+        </is>
+      </c>
+      <c r="AJ519" s="16" t="inlineStr">
+        <is>
+          <t>902</t>
+        </is>
+      </c>
+      <c r="AK519" s="16" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
     </row>
     <row r="520">
       <c r="A520" s="1" t="inlineStr">
@@ -95947,6 +96299,21 @@
           <t>-</t>
         </is>
       </c>
+      <c r="AI520" s="16" t="inlineStr">
+        <is>
+          <t>675</t>
+        </is>
+      </c>
+      <c r="AJ520" s="16" t="inlineStr">
+        <is>
+          <t>906</t>
+        </is>
+      </c>
+      <c r="AK520" s="16" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
     </row>
     <row r="521">
       <c r="A521" s="1" t="inlineStr">
@@ -96119,6 +96486,21 @@
           <t>-</t>
         </is>
       </c>
+      <c r="AI521" s="16" t="inlineStr">
+        <is>
+          <t>589</t>
+        </is>
+      </c>
+      <c r="AJ521" s="16" t="inlineStr">
+        <is>
+          <t>830</t>
+        </is>
+      </c>
+      <c r="AK521" s="16" t="inlineStr">
+        <is>
+          <t>450</t>
+        </is>
+      </c>
     </row>
     <row r="522">
       <c r="A522" s="1" t="inlineStr">
@@ -96291,6 +96673,21 @@
           <t>-</t>
         </is>
       </c>
+      <c r="AI522" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AJ522" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AK522" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="523">
       <c r="A523" s="1" t="inlineStr">
@@ -96463,6 +96860,21 @@
           <t>-</t>
         </is>
       </c>
+      <c r="AI523" s="16" t="inlineStr">
+        <is>
+          <t>030</t>
+        </is>
+      </c>
+      <c r="AJ523" s="16" t="inlineStr">
+        <is>
+          <t>625</t>
+        </is>
+      </c>
+      <c r="AK523" s="16" t="inlineStr">
+        <is>
+          <t>855</t>
+        </is>
+      </c>
     </row>
     <row r="524">
       <c r="A524" s="1" t="inlineStr">
@@ -96635,6 +97047,21 @@
           <t>-</t>
         </is>
       </c>
+      <c r="AI524" s="16" t="inlineStr">
+        <is>
+          <t>512</t>
+        </is>
+      </c>
+      <c r="AJ524" s="16" t="inlineStr">
+        <is>
+          <t>308</t>
+        </is>
+      </c>
+      <c r="AK524" s="16" t="inlineStr">
+        <is>
+          <t>552</t>
+        </is>
+      </c>
     </row>
     <row r="525">
       <c r="A525" s="1" t="inlineStr">
@@ -96807,6 +97234,21 @@
           <t>-</t>
         </is>
       </c>
+      <c r="AI525" s="16" t="inlineStr">
+        <is>
+          <t>566</t>
+        </is>
+      </c>
+      <c r="AJ525" s="16" t="inlineStr">
+        <is>
+          <t>491</t>
+        </is>
+      </c>
+      <c r="AK525" s="16" t="inlineStr">
+        <is>
+          <t>488</t>
+        </is>
+      </c>
     </row>
     <row r="526">
       <c r="A526" s="1" t="inlineStr">
@@ -96979,6 +97421,21 @@
           <t>-</t>
         </is>
       </c>
+      <c r="AI526" s="16" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
+      </c>
+      <c r="AJ526" s="16" t="inlineStr">
+        <is>
+          <t>394</t>
+        </is>
+      </c>
+      <c r="AK526" s="16" t="inlineStr">
+        <is>
+          <t>519</t>
+        </is>
+      </c>
     </row>
     <row r="527">
       <c r="A527" s="1" t="inlineStr">
@@ -97151,6 +97608,21 @@
           <t>-</t>
         </is>
       </c>
+      <c r="AI527" s="16" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="AJ527" s="16" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="AK527" s="16" t="inlineStr">
+        <is>
+          <t>278</t>
+        </is>
+      </c>
     </row>
     <row r="528">
       <c r="A528" s="1" t="inlineStr">
@@ -97323,9 +97795,2199 @@
           <t>-</t>
         </is>
       </c>
+      <c r="AI528" s="16" t="inlineStr">
+        <is>
+          <t>303</t>
+        </is>
+      </c>
+      <c r="AJ528" s="16" t="inlineStr">
+        <is>
+          <t>570</t>
+        </is>
+      </c>
+      <c r="AK528" s="16" t="inlineStr">
+        <is>
+          <t>516</t>
+        </is>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" s="1" t="inlineStr">
+        <is>
+          <t>DATE</t>
+        </is>
+      </c>
+      <c r="B529" s="1" t="inlineStr">
+        <is>
+          <t>JAN 2022</t>
+        </is>
+      </c>
+      <c r="C529" s="2" t="n"/>
+      <c r="D529" s="3" t="n"/>
+      <c r="E529" s="1" t="inlineStr">
+        <is>
+          <t>FEB 2022</t>
+        </is>
+      </c>
+      <c r="F529" s="2" t="n"/>
+      <c r="G529" s="3" t="n"/>
+      <c r="H529" s="1" t="inlineStr">
+        <is>
+          <t>MAR 2022</t>
+        </is>
+      </c>
+      <c r="I529" s="2" t="n"/>
+      <c r="J529" s="3" t="n"/>
+      <c r="K529" s="1" t="inlineStr">
+        <is>
+          <t>APR 2022</t>
+        </is>
+      </c>
+      <c r="L529" s="2" t="n"/>
+      <c r="M529" s="3" t="n"/>
+    </row>
+    <row r="530">
+      <c r="A530" s="4" t="n"/>
+      <c r="B530" s="1" t="inlineStr">
+        <is>
+          <t>2PM</t>
+        </is>
+      </c>
+      <c r="C530" s="1" t="inlineStr">
+        <is>
+          <t>4PM</t>
+        </is>
+      </c>
+      <c r="D530" s="1" t="inlineStr">
+        <is>
+          <t>9PM</t>
+        </is>
+      </c>
+      <c r="E530" s="1" t="inlineStr">
+        <is>
+          <t>2PM</t>
+        </is>
+      </c>
+      <c r="F530" s="1" t="inlineStr">
+        <is>
+          <t>4PM</t>
+        </is>
+      </c>
+      <c r="G530" s="1" t="inlineStr">
+        <is>
+          <t>9PM</t>
+        </is>
+      </c>
+      <c r="H530" s="1" t="inlineStr">
+        <is>
+          <t>2PM</t>
+        </is>
+      </c>
+      <c r="I530" s="1" t="inlineStr">
+        <is>
+          <t>4PM</t>
+        </is>
+      </c>
+      <c r="J530" s="1" t="inlineStr">
+        <is>
+          <t>9PM</t>
+        </is>
+      </c>
+      <c r="K530" s="1" t="inlineStr">
+        <is>
+          <t>2PM</t>
+        </is>
+      </c>
+      <c r="L530" s="1" t="inlineStr">
+        <is>
+          <t>4PM</t>
+        </is>
+      </c>
+      <c r="M530" s="1" t="inlineStr">
+        <is>
+          <t>9PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" s="1" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="B531" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C531" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D531" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E531" s="6" t="inlineStr">
+        <is>
+          <t>559</t>
+        </is>
+      </c>
+      <c r="F531" s="6" t="inlineStr">
+        <is>
+          <t>950</t>
+        </is>
+      </c>
+      <c r="G531" s="6" t="inlineStr">
+        <is>
+          <t>847</t>
+        </is>
+      </c>
+      <c r="H531" s="7" t="inlineStr">
+        <is>
+          <t>957</t>
+        </is>
+      </c>
+      <c r="I531" s="7" t="inlineStr">
+        <is>
+          <t>911</t>
+        </is>
+      </c>
+      <c r="J531" s="7" t="inlineStr">
+        <is>
+          <t>489</t>
+        </is>
+      </c>
+      <c r="K531" s="8" t="inlineStr">
+        <is>
+          <t>408</t>
+        </is>
+      </c>
+      <c r="L531" s="8" t="inlineStr">
+        <is>
+          <t>328</t>
+        </is>
+      </c>
+      <c r="M531" s="8" t="inlineStr">
+        <is>
+          <t>246</t>
+        </is>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" s="1" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="B532" s="5" t="inlineStr">
+        <is>
+          <t>222</t>
+        </is>
+      </c>
+      <c r="C532" s="5" t="inlineStr">
+        <is>
+          <t>351</t>
+        </is>
+      </c>
+      <c r="D532" s="5" t="inlineStr">
+        <is>
+          <t>186</t>
+        </is>
+      </c>
+      <c r="E532" s="6" t="inlineStr">
+        <is>
+          <t>259</t>
+        </is>
+      </c>
+      <c r="F532" s="6" t="inlineStr">
+        <is>
+          <t>262</t>
+        </is>
+      </c>
+      <c r="G532" s="6" t="inlineStr">
+        <is>
+          <t>353</t>
+        </is>
+      </c>
+      <c r="H532" s="7" t="inlineStr">
+        <is>
+          <t>565</t>
+        </is>
+      </c>
+      <c r="I532" s="7" t="inlineStr">
+        <is>
+          <t>787</t>
+        </is>
+      </c>
+      <c r="J532" s="7" t="inlineStr">
+        <is>
+          <t>066</t>
+        </is>
+      </c>
+      <c r="K532" s="8" t="inlineStr">
+        <is>
+          <t>563</t>
+        </is>
+      </c>
+      <c r="L532" s="8" t="inlineStr">
+        <is>
+          <t>035</t>
+        </is>
+      </c>
+      <c r="M532" s="8" t="inlineStr">
+        <is>
+          <t>406</t>
+        </is>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" s="1" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="B533" s="5" t="inlineStr">
+        <is>
+          <t>580</t>
+        </is>
+      </c>
+      <c r="C533" s="5" t="inlineStr">
+        <is>
+          <t>073</t>
+        </is>
+      </c>
+      <c r="D533" s="5" t="inlineStr">
+        <is>
+          <t>030</t>
+        </is>
+      </c>
+      <c r="E533" s="6" t="inlineStr">
+        <is>
+          <t>444</t>
+        </is>
+      </c>
+      <c r="F533" s="6" t="inlineStr">
+        <is>
+          <t>806</t>
+        </is>
+      </c>
+      <c r="G533" s="6" t="inlineStr">
+        <is>
+          <t>588</t>
+        </is>
+      </c>
+      <c r="H533" s="7" t="inlineStr">
+        <is>
+          <t>828</t>
+        </is>
+      </c>
+      <c r="I533" s="7" t="inlineStr">
+        <is>
+          <t>367</t>
+        </is>
+      </c>
+      <c r="J533" s="7" t="inlineStr">
+        <is>
+          <t>514</t>
+        </is>
+      </c>
+      <c r="K533" s="8" t="inlineStr">
+        <is>
+          <t>247</t>
+        </is>
+      </c>
+      <c r="L533" s="8" t="inlineStr">
+        <is>
+          <t>634</t>
+        </is>
+      </c>
+      <c r="M533" s="8" t="inlineStr">
+        <is>
+          <t>446</t>
+        </is>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" s="1" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="B534" s="5" t="inlineStr">
+        <is>
+          <t>028</t>
+        </is>
+      </c>
+      <c r="C534" s="5" t="inlineStr">
+        <is>
+          <t>223</t>
+        </is>
+      </c>
+      <c r="D534" s="5" t="inlineStr">
+        <is>
+          <t>864</t>
+        </is>
+      </c>
+      <c r="E534" s="6" t="inlineStr">
+        <is>
+          <t>803</t>
+        </is>
+      </c>
+      <c r="F534" s="6" t="inlineStr">
+        <is>
+          <t>457</t>
+        </is>
+      </c>
+      <c r="G534" s="6" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
+      </c>
+      <c r="H534" s="7" t="inlineStr">
+        <is>
+          <t>018</t>
+        </is>
+      </c>
+      <c r="I534" s="7" t="inlineStr">
+        <is>
+          <t>972</t>
+        </is>
+      </c>
+      <c r="J534" s="7" t="inlineStr">
+        <is>
+          <t>385</t>
+        </is>
+      </c>
+      <c r="K534" s="8" t="inlineStr">
+        <is>
+          <t>091</t>
+        </is>
+      </c>
+      <c r="L534" s="8" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="M534" s="8" t="inlineStr">
+        <is>
+          <t>789</t>
+        </is>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" s="1" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="B535" s="5" t="inlineStr">
+        <is>
+          <t>193</t>
+        </is>
+      </c>
+      <c r="C535" s="5" t="inlineStr">
+        <is>
+          <t>636</t>
+        </is>
+      </c>
+      <c r="D535" s="5" t="inlineStr">
+        <is>
+          <t>292</t>
+        </is>
+      </c>
+      <c r="E535" s="6" t="inlineStr">
+        <is>
+          <t>998</t>
+        </is>
+      </c>
+      <c r="F535" s="6" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="G535" s="6" t="inlineStr">
+        <is>
+          <t>230</t>
+        </is>
+      </c>
+      <c r="H535" s="7" t="inlineStr">
+        <is>
+          <t>398</t>
+        </is>
+      </c>
+      <c r="I535" s="7" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="J535" s="7" t="inlineStr">
+        <is>
+          <t>742</t>
+        </is>
+      </c>
+      <c r="K535" s="8" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="L535" s="8" t="inlineStr">
+        <is>
+          <t>851</t>
+        </is>
+      </c>
+      <c r="M535" s="8" t="inlineStr">
+        <is>
+          <t>051</t>
+        </is>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" s="1" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="B536" s="5" t="inlineStr">
+        <is>
+          <t>544</t>
+        </is>
+      </c>
+      <c r="C536" s="5" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="D536" s="5" t="inlineStr">
+        <is>
+          <t>964</t>
+        </is>
+      </c>
+      <c r="E536" s="6" t="inlineStr">
+        <is>
+          <t>167</t>
+        </is>
+      </c>
+      <c r="F536" s="6" t="inlineStr">
+        <is>
+          <t>903</t>
+        </is>
+      </c>
+      <c r="G536" s="6" t="inlineStr">
+        <is>
+          <t>826</t>
+        </is>
+      </c>
+      <c r="H536" s="7" t="inlineStr">
+        <is>
+          <t>704</t>
+        </is>
+      </c>
+      <c r="I536" s="7" t="inlineStr">
+        <is>
+          <t>196</t>
+        </is>
+      </c>
+      <c r="J536" s="7" t="inlineStr">
+        <is>
+          <t>063</t>
+        </is>
+      </c>
+      <c r="K536" s="8" t="inlineStr">
+        <is>
+          <t>926</t>
+        </is>
+      </c>
+      <c r="L536" s="8" t="inlineStr">
+        <is>
+          <t>243</t>
+        </is>
+      </c>
+      <c r="M536" s="8" t="inlineStr">
+        <is>
+          <t>508</t>
+        </is>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" s="1" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="B537" s="5" t="inlineStr">
+        <is>
+          <t>773</t>
+        </is>
+      </c>
+      <c r="C537" s="5" t="inlineStr">
+        <is>
+          <t>089</t>
+        </is>
+      </c>
+      <c r="D537" s="5" t="inlineStr">
+        <is>
+          <t>919</t>
+        </is>
+      </c>
+      <c r="E537" s="6" t="inlineStr">
+        <is>
+          <t>700</t>
+        </is>
+      </c>
+      <c r="F537" s="6" t="inlineStr">
+        <is>
+          <t>045</t>
+        </is>
+      </c>
+      <c r="G537" s="6" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="H537" s="7" t="inlineStr">
+        <is>
+          <t>689</t>
+        </is>
+      </c>
+      <c r="I537" s="7" t="inlineStr">
+        <is>
+          <t>568</t>
+        </is>
+      </c>
+      <c r="J537" s="7" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="K537" s="8" t="inlineStr">
+        <is>
+          <t>203</t>
+        </is>
+      </c>
+      <c r="L537" s="8" t="inlineStr">
+        <is>
+          <t>367</t>
+        </is>
+      </c>
+      <c r="M537" s="8" t="inlineStr">
+        <is>
+          <t>575</t>
+        </is>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" s="1" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+      <c r="B538" s="5" t="inlineStr">
+        <is>
+          <t>587</t>
+        </is>
+      </c>
+      <c r="C538" s="5" t="inlineStr">
+        <is>
+          <t>391</t>
+        </is>
+      </c>
+      <c r="D538" s="5" t="inlineStr">
+        <is>
+          <t>868</t>
+        </is>
+      </c>
+      <c r="E538" s="6" t="inlineStr">
+        <is>
+          <t>203</t>
+        </is>
+      </c>
+      <c r="F538" s="6" t="inlineStr">
+        <is>
+          <t>069</t>
+        </is>
+      </c>
+      <c r="G538" s="6" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="H538" s="7" t="inlineStr">
+        <is>
+          <t>488</t>
+        </is>
+      </c>
+      <c r="I538" s="7" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="J538" s="7" t="inlineStr">
+        <is>
+          <t>435</t>
+        </is>
+      </c>
+      <c r="K538" s="8" t="inlineStr">
+        <is>
+          <t>457</t>
+        </is>
+      </c>
+      <c r="L538" s="8" t="inlineStr">
+        <is>
+          <t>656</t>
+        </is>
+      </c>
+      <c r="M538" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" s="1" t="inlineStr">
+        <is>
+          <t>09</t>
+        </is>
+      </c>
+      <c r="B539" s="5" t="inlineStr">
+        <is>
+          <t>333</t>
+        </is>
+      </c>
+      <c r="C539" s="5" t="inlineStr">
+        <is>
+          <t>627</t>
+        </is>
+      </c>
+      <c r="D539" s="5" t="inlineStr">
+        <is>
+          <t>744</t>
+        </is>
+      </c>
+      <c r="E539" s="6" t="inlineStr">
+        <is>
+          <t>389</t>
+        </is>
+      </c>
+      <c r="F539" s="6" t="inlineStr">
+        <is>
+          <t>561</t>
+        </is>
+      </c>
+      <c r="G539" s="6" t="inlineStr">
+        <is>
+          <t>737</t>
+        </is>
+      </c>
+      <c r="H539" s="7" t="inlineStr">
+        <is>
+          <t>584</t>
+        </is>
+      </c>
+      <c r="I539" s="7" t="inlineStr">
+        <is>
+          <t>392</t>
+        </is>
+      </c>
+      <c r="J539" s="7" t="inlineStr">
+        <is>
+          <t>232</t>
+        </is>
+      </c>
+      <c r="K539" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L539" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M539" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" s="1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B540" s="5" t="inlineStr">
+        <is>
+          <t>228</t>
+        </is>
+      </c>
+      <c r="C540" s="5" t="inlineStr">
+        <is>
+          <t>040</t>
+        </is>
+      </c>
+      <c r="D540" s="5" t="inlineStr">
+        <is>
+          <t>432</t>
+        </is>
+      </c>
+      <c r="E540" s="6" t="inlineStr">
+        <is>
+          <t>186</t>
+        </is>
+      </c>
+      <c r="F540" s="6" t="inlineStr">
+        <is>
+          <t>006</t>
+        </is>
+      </c>
+      <c r="G540" s="6" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H540" s="7" t="inlineStr">
+        <is>
+          <t>545</t>
+        </is>
+      </c>
+      <c r="I540" s="7" t="inlineStr">
+        <is>
+          <t>646</t>
+        </is>
+      </c>
+      <c r="J540" s="7" t="inlineStr">
+        <is>
+          <t>597</t>
+        </is>
+      </c>
+      <c r="K540" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L540" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M540" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" s="1" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B541" s="5" t="inlineStr">
+        <is>
+          <t>058</t>
+        </is>
+      </c>
+      <c r="C541" s="5" t="inlineStr">
+        <is>
+          <t>320</t>
+        </is>
+      </c>
+      <c r="D541" s="5" t="inlineStr">
+        <is>
+          <t>090</t>
+        </is>
+      </c>
+      <c r="E541" s="6" t="inlineStr">
+        <is>
+          <t>996</t>
+        </is>
+      </c>
+      <c r="F541" s="6" t="inlineStr">
+        <is>
+          <t>836</t>
+        </is>
+      </c>
+      <c r="G541" s="6" t="inlineStr">
+        <is>
+          <t>827</t>
+        </is>
+      </c>
+      <c r="H541" s="7" t="inlineStr">
+        <is>
+          <t>487</t>
+        </is>
+      </c>
+      <c r="I541" s="7" t="inlineStr">
+        <is>
+          <t>656</t>
+        </is>
+      </c>
+      <c r="J541" s="7" t="inlineStr">
+        <is>
+          <t>840</t>
+        </is>
+      </c>
+      <c r="K541" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L541" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M541" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" s="1" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B542" s="5" t="inlineStr">
+        <is>
+          <t>503</t>
+        </is>
+      </c>
+      <c r="C542" s="5" t="inlineStr">
+        <is>
+          <t>095</t>
+        </is>
+      </c>
+      <c r="D542" s="5" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="E542" s="6" t="inlineStr">
+        <is>
+          <t>497</t>
+        </is>
+      </c>
+      <c r="F542" s="6" t="inlineStr">
+        <is>
+          <t>438</t>
+        </is>
+      </c>
+      <c r="G542" s="6" t="inlineStr">
+        <is>
+          <t>614</t>
+        </is>
+      </c>
+      <c r="H542" s="7" t="inlineStr">
+        <is>
+          <t>763</t>
+        </is>
+      </c>
+      <c r="I542" s="7" t="inlineStr">
+        <is>
+          <t>426</t>
+        </is>
+      </c>
+      <c r="J542" s="7" t="inlineStr">
+        <is>
+          <t>549</t>
+        </is>
+      </c>
+      <c r="K542" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L542" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M542" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" s="1" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="B543" s="5" t="inlineStr">
+        <is>
+          <t>984</t>
+        </is>
+      </c>
+      <c r="C543" s="5" t="inlineStr">
+        <is>
+          <t>335</t>
+        </is>
+      </c>
+      <c r="D543" s="5" t="inlineStr">
+        <is>
+          <t>387</t>
+        </is>
+      </c>
+      <c r="E543" s="6" t="inlineStr">
+        <is>
+          <t>387</t>
+        </is>
+      </c>
+      <c r="F543" s="6" t="inlineStr">
+        <is>
+          <t>693</t>
+        </is>
+      </c>
+      <c r="G543" s="6" t="inlineStr">
+        <is>
+          <t>794</t>
+        </is>
+      </c>
+      <c r="H543" s="7" t="inlineStr">
+        <is>
+          <t>722</t>
+        </is>
+      </c>
+      <c r="I543" s="7" t="inlineStr">
+        <is>
+          <t>905</t>
+        </is>
+      </c>
+      <c r="J543" s="7" t="inlineStr">
+        <is>
+          <t>351</t>
+        </is>
+      </c>
+      <c r="K543" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L543" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M543" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" s="1" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B544" s="5" t="inlineStr">
+        <is>
+          <t>025</t>
+        </is>
+      </c>
+      <c r="C544" s="5" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="D544" s="5" t="inlineStr">
+        <is>
+          <t>843</t>
+        </is>
+      </c>
+      <c r="E544" s="6" t="inlineStr">
+        <is>
+          <t>731</t>
+        </is>
+      </c>
+      <c r="F544" s="6" t="inlineStr">
+        <is>
+          <t>656</t>
+        </is>
+      </c>
+      <c r="G544" s="6" t="inlineStr">
+        <is>
+          <t>282</t>
+        </is>
+      </c>
+      <c r="H544" s="7" t="inlineStr">
+        <is>
+          <t>092</t>
+        </is>
+      </c>
+      <c r="I544" s="7" t="inlineStr">
+        <is>
+          <t>780</t>
+        </is>
+      </c>
+      <c r="J544" s="7" t="inlineStr">
+        <is>
+          <t>247</t>
+        </is>
+      </c>
+      <c r="K544" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L544" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M544" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" s="1" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="B545" s="5" t="inlineStr">
+        <is>
+          <t>780</t>
+        </is>
+      </c>
+      <c r="C545" s="5" t="inlineStr">
+        <is>
+          <t>386</t>
+        </is>
+      </c>
+      <c r="D545" s="5" t="inlineStr">
+        <is>
+          <t>425</t>
+        </is>
+      </c>
+      <c r="E545" s="6" t="inlineStr">
+        <is>
+          <t>583</t>
+        </is>
+      </c>
+      <c r="F545" s="6" t="inlineStr">
+        <is>
+          <t>366</t>
+        </is>
+      </c>
+      <c r="G545" s="6" t="inlineStr">
+        <is>
+          <t>805</t>
+        </is>
+      </c>
+      <c r="H545" s="7" t="inlineStr">
+        <is>
+          <t>618</t>
+        </is>
+      </c>
+      <c r="I545" s="7" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="J545" s="7" t="inlineStr">
+        <is>
+          <t>608</t>
+        </is>
+      </c>
+      <c r="K545" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L545" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M545" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" s="1" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B546" s="5" t="inlineStr">
+        <is>
+          <t>863</t>
+        </is>
+      </c>
+      <c r="C546" s="5" t="inlineStr">
+        <is>
+          <t>362</t>
+        </is>
+      </c>
+      <c r="D546" s="5" t="inlineStr">
+        <is>
+          <t>867</t>
+        </is>
+      </c>
+      <c r="E546" s="6" t="inlineStr">
+        <is>
+          <t>731</t>
+        </is>
+      </c>
+      <c r="F546" s="6" t="inlineStr">
+        <is>
+          <t>422</t>
+        </is>
+      </c>
+      <c r="G546" s="6" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
+      </c>
+      <c r="H546" s="7" t="inlineStr">
+        <is>
+          <t>791</t>
+        </is>
+      </c>
+      <c r="I546" s="7" t="inlineStr">
+        <is>
+          <t>690</t>
+        </is>
+      </c>
+      <c r="J546" s="7" t="inlineStr">
+        <is>
+          <t>412</t>
+        </is>
+      </c>
+      <c r="K546" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L546" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M546" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" s="1" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="B547" s="5" t="inlineStr">
+        <is>
+          <t>273</t>
+        </is>
+      </c>
+      <c r="C547" s="5" t="inlineStr">
+        <is>
+          <t>665</t>
+        </is>
+      </c>
+      <c r="D547" s="5" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="E547" s="6" t="inlineStr">
+        <is>
+          <t>229</t>
+        </is>
+      </c>
+      <c r="F547" s="6" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="G547" s="6" t="inlineStr">
+        <is>
+          <t>281</t>
+        </is>
+      </c>
+      <c r="H547" s="7" t="inlineStr">
+        <is>
+          <t>295</t>
+        </is>
+      </c>
+      <c r="I547" s="7" t="inlineStr">
+        <is>
+          <t>574</t>
+        </is>
+      </c>
+      <c r="J547" s="7" t="inlineStr">
+        <is>
+          <t>844</t>
+        </is>
+      </c>
+      <c r="K547" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L547" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M547" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" s="1" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B548" s="5" t="inlineStr">
+        <is>
+          <t>374</t>
+        </is>
+      </c>
+      <c r="C548" s="5" t="inlineStr">
+        <is>
+          <t>399</t>
+        </is>
+      </c>
+      <c r="D548" s="5" t="inlineStr">
+        <is>
+          <t>221</t>
+        </is>
+      </c>
+      <c r="E548" s="6" t="inlineStr">
+        <is>
+          <t>258</t>
+        </is>
+      </c>
+      <c r="F548" s="6" t="inlineStr">
+        <is>
+          <t>478</t>
+        </is>
+      </c>
+      <c r="G548" s="6" t="inlineStr">
+        <is>
+          <t>606</t>
+        </is>
+      </c>
+      <c r="H548" s="7" t="inlineStr">
+        <is>
+          <t>236</t>
+        </is>
+      </c>
+      <c r="I548" s="7" t="inlineStr">
+        <is>
+          <t>490</t>
+        </is>
+      </c>
+      <c r="J548" s="7" t="inlineStr">
+        <is>
+          <t>656</t>
+        </is>
+      </c>
+      <c r="K548" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L548" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M548" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" s="1" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B549" s="5" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="C549" s="5" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="D549" s="5" t="inlineStr">
+        <is>
+          <t>789</t>
+        </is>
+      </c>
+      <c r="E549" s="6" t="inlineStr">
+        <is>
+          <t>462</t>
+        </is>
+      </c>
+      <c r="F549" s="6" t="inlineStr">
+        <is>
+          <t>208</t>
+        </is>
+      </c>
+      <c r="G549" s="6" t="inlineStr">
+        <is>
+          <t>246</t>
+        </is>
+      </c>
+      <c r="H549" s="7" t="inlineStr">
+        <is>
+          <t>036</t>
+        </is>
+      </c>
+      <c r="I549" s="7" t="inlineStr">
+        <is>
+          <t>749</t>
+        </is>
+      </c>
+      <c r="J549" s="7" t="inlineStr">
+        <is>
+          <t>380</t>
+        </is>
+      </c>
+      <c r="K549" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L549" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M549" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" s="1" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="B550" s="5" t="inlineStr">
+        <is>
+          <t>641</t>
+        </is>
+      </c>
+      <c r="C550" s="5" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="D550" s="5" t="inlineStr">
+        <is>
+          <t>051</t>
+        </is>
+      </c>
+      <c r="E550" s="6" t="inlineStr">
+        <is>
+          <t>798</t>
+        </is>
+      </c>
+      <c r="F550" s="6" t="inlineStr">
+        <is>
+          <t>320</t>
+        </is>
+      </c>
+      <c r="G550" s="6" t="inlineStr">
+        <is>
+          <t>797</t>
+        </is>
+      </c>
+      <c r="H550" s="7" t="inlineStr">
+        <is>
+          <t>803</t>
+        </is>
+      </c>
+      <c r="I550" s="7" t="inlineStr">
+        <is>
+          <t>695</t>
+        </is>
+      </c>
+      <c r="J550" s="7" t="inlineStr">
+        <is>
+          <t>565</t>
+        </is>
+      </c>
+      <c r="K550" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L550" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M550" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" s="1" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="B551" s="5" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
+      </c>
+      <c r="C551" s="5" t="inlineStr">
+        <is>
+          <t>855</t>
+        </is>
+      </c>
+      <c r="D551" s="5" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+      <c r="E551" s="6" t="inlineStr">
+        <is>
+          <t>553</t>
+        </is>
+      </c>
+      <c r="F551" s="6" t="inlineStr">
+        <is>
+          <t>253</t>
+        </is>
+      </c>
+      <c r="G551" s="6" t="inlineStr">
+        <is>
+          <t>664</t>
+        </is>
+      </c>
+      <c r="H551" s="7" t="inlineStr">
+        <is>
+          <t>189</t>
+        </is>
+      </c>
+      <c r="I551" s="7" t="inlineStr">
+        <is>
+          <t>543</t>
+        </is>
+      </c>
+      <c r="J551" s="7" t="inlineStr">
+        <is>
+          <t>951</t>
+        </is>
+      </c>
+      <c r="K551" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L551" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M551" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" s="1" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="B552" s="5" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
+      </c>
+      <c r="C552" s="5" t="inlineStr">
+        <is>
+          <t>423</t>
+        </is>
+      </c>
+      <c r="D552" s="5" t="inlineStr">
+        <is>
+          <t>253</t>
+        </is>
+      </c>
+      <c r="E552" s="6" t="inlineStr">
+        <is>
+          <t>440</t>
+        </is>
+      </c>
+      <c r="F552" s="6" t="inlineStr">
+        <is>
+          <t>601</t>
+        </is>
+      </c>
+      <c r="G552" s="6" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+      <c r="H552" s="7" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="I552" s="7" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="J552" s="7" t="inlineStr">
+        <is>
+          <t>460</t>
+        </is>
+      </c>
+      <c r="K552" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L552" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M552" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" s="1" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="B553" s="5" t="inlineStr">
+        <is>
+          <t>317</t>
+        </is>
+      </c>
+      <c r="C553" s="5" t="inlineStr">
+        <is>
+          <t>515</t>
+        </is>
+      </c>
+      <c r="D553" s="5" t="inlineStr">
+        <is>
+          <t>329</t>
+        </is>
+      </c>
+      <c r="E553" s="6" t="inlineStr">
+        <is>
+          <t>761</t>
+        </is>
+      </c>
+      <c r="F553" s="6" t="inlineStr">
+        <is>
+          <t>542</t>
+        </is>
+      </c>
+      <c r="G553" s="6" t="inlineStr">
+        <is>
+          <t>939</t>
+        </is>
+      </c>
+      <c r="H553" s="7" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="I553" s="7" t="inlineStr">
+        <is>
+          <t>542</t>
+        </is>
+      </c>
+      <c r="J553" s="7" t="inlineStr">
+        <is>
+          <t>605</t>
+        </is>
+      </c>
+      <c r="K553" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L553" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M553" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" s="1" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="B554" s="5" t="inlineStr">
+        <is>
+          <t>342</t>
+        </is>
+      </c>
+      <c r="C554" s="5" t="inlineStr">
+        <is>
+          <t>602</t>
+        </is>
+      </c>
+      <c r="D554" s="5" t="inlineStr">
+        <is>
+          <t>361</t>
+        </is>
+      </c>
+      <c r="E554" s="6" t="inlineStr">
+        <is>
+          <t>617</t>
+        </is>
+      </c>
+      <c r="F554" s="6" t="inlineStr">
+        <is>
+          <t>564</t>
+        </is>
+      </c>
+      <c r="G554" s="6" t="inlineStr">
+        <is>
+          <t>186</t>
+        </is>
+      </c>
+      <c r="H554" s="7" t="inlineStr">
+        <is>
+          <t>654</t>
+        </is>
+      </c>
+      <c r="I554" s="7" t="inlineStr">
+        <is>
+          <t>572</t>
+        </is>
+      </c>
+      <c r="J554" s="7" t="inlineStr">
+        <is>
+          <t>059</t>
+        </is>
+      </c>
+      <c r="K554" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L554" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M554" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" s="1" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="B555" s="5" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="C555" s="5" t="inlineStr">
+        <is>
+          <t>831</t>
+        </is>
+      </c>
+      <c r="D555" s="5" t="inlineStr">
+        <is>
+          <t>494</t>
+        </is>
+      </c>
+      <c r="E555" s="6" t="inlineStr">
+        <is>
+          <t>797</t>
+        </is>
+      </c>
+      <c r="F555" s="6" t="inlineStr">
+        <is>
+          <t>658</t>
+        </is>
+      </c>
+      <c r="G555" s="6" t="inlineStr">
+        <is>
+          <t>427</t>
+        </is>
+      </c>
+      <c r="H555" s="7" t="inlineStr">
+        <is>
+          <t>416</t>
+        </is>
+      </c>
+      <c r="I555" s="7" t="inlineStr">
+        <is>
+          <t>643</t>
+        </is>
+      </c>
+      <c r="J555" s="7" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="K555" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L555" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M555" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" s="1" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="B556" s="5" t="inlineStr">
+        <is>
+          <t>747</t>
+        </is>
+      </c>
+      <c r="C556" s="5" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
+      </c>
+      <c r="D556" s="5" t="inlineStr">
+        <is>
+          <t>693</t>
+        </is>
+      </c>
+      <c r="E556" s="6" t="inlineStr">
+        <is>
+          <t>376</t>
+        </is>
+      </c>
+      <c r="F556" s="6" t="inlineStr">
+        <is>
+          <t>857</t>
+        </is>
+      </c>
+      <c r="G556" s="6" t="inlineStr">
+        <is>
+          <t>593</t>
+        </is>
+      </c>
+      <c r="H556" s="7" t="inlineStr">
+        <is>
+          <t>372</t>
+        </is>
+      </c>
+      <c r="I556" s="7" t="inlineStr">
+        <is>
+          <t>947</t>
+        </is>
+      </c>
+      <c r="J556" s="7" t="inlineStr">
+        <is>
+          <t>920</t>
+        </is>
+      </c>
+      <c r="K556" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L556" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M556" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" s="1" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B557" s="5" t="inlineStr">
+        <is>
+          <t>347</t>
+        </is>
+      </c>
+      <c r="C557" s="5" t="inlineStr">
+        <is>
+          <t>763</t>
+        </is>
+      </c>
+      <c r="D557" s="5" t="inlineStr">
+        <is>
+          <t>342</t>
+        </is>
+      </c>
+      <c r="E557" s="6" t="inlineStr">
+        <is>
+          <t>319</t>
+        </is>
+      </c>
+      <c r="F557" s="6" t="inlineStr">
+        <is>
+          <t>727</t>
+        </is>
+      </c>
+      <c r="G557" s="6" t="inlineStr">
+        <is>
+          <t>567</t>
+        </is>
+      </c>
+      <c r="H557" s="7" t="inlineStr">
+        <is>
+          <t>723</t>
+        </is>
+      </c>
+      <c r="I557" s="7" t="inlineStr">
+        <is>
+          <t>418</t>
+        </is>
+      </c>
+      <c r="J557" s="7" t="inlineStr">
+        <is>
+          <t>787</t>
+        </is>
+      </c>
+      <c r="K557" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L557" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M557" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" s="1" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="B558" s="5" t="inlineStr">
+        <is>
+          <t>953</t>
+        </is>
+      </c>
+      <c r="C558" s="5" t="inlineStr">
+        <is>
+          <t>237</t>
+        </is>
+      </c>
+      <c r="D558" s="5" t="inlineStr">
+        <is>
+          <t>895</t>
+        </is>
+      </c>
+      <c r="E558" s="6" t="inlineStr">
+        <is>
+          <t>928</t>
+        </is>
+      </c>
+      <c r="F558" s="6" t="inlineStr">
+        <is>
+          <t>073</t>
+        </is>
+      </c>
+      <c r="G558" s="6" t="inlineStr">
+        <is>
+          <t>615</t>
+        </is>
+      </c>
+      <c r="H558" s="7" t="inlineStr">
+        <is>
+          <t>513</t>
+        </is>
+      </c>
+      <c r="I558" s="7" t="inlineStr">
+        <is>
+          <t>329</t>
+        </is>
+      </c>
+      <c r="J558" s="7" t="inlineStr">
+        <is>
+          <t>299</t>
+        </is>
+      </c>
+      <c r="K558" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L558" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M558" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" s="1" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="B559" s="5" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="C559" s="5" t="inlineStr">
+        <is>
+          <t>193</t>
+        </is>
+      </c>
+      <c r="D559" s="5" t="inlineStr">
+        <is>
+          <t>243</t>
+        </is>
+      </c>
+      <c r="E559" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F559" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G559" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H559" s="7" t="inlineStr">
+        <is>
+          <t>485</t>
+        </is>
+      </c>
+      <c r="I559" s="7" t="inlineStr">
+        <is>
+          <t>262</t>
+        </is>
+      </c>
+      <c r="J559" s="7" t="inlineStr">
+        <is>
+          <t>097</t>
+        </is>
+      </c>
+      <c r="K559" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L559" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M559" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" s="1" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B560" s="5" t="inlineStr">
+        <is>
+          <t>728</t>
+        </is>
+      </c>
+      <c r="C560" s="5" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="D560" s="5" t="inlineStr">
+        <is>
+          <t>324</t>
+        </is>
+      </c>
+      <c r="E560" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F560" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G560" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H560" s="7" t="inlineStr">
+        <is>
+          <t>327</t>
+        </is>
+      </c>
+      <c r="I560" s="7" t="inlineStr">
+        <is>
+          <t>542</t>
+        </is>
+      </c>
+      <c r="J560" s="7" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="K560" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L560" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M560" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" s="1" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="B561" s="5" t="inlineStr">
+        <is>
+          <t>232</t>
+        </is>
+      </c>
+      <c r="C561" s="5" t="inlineStr">
+        <is>
+          <t>946</t>
+        </is>
+      </c>
+      <c r="D561" s="5" t="inlineStr">
+        <is>
+          <t>391</t>
+        </is>
+      </c>
+      <c r="E561" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F561" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G561" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H561" s="7" t="inlineStr">
+        <is>
+          <t>964</t>
+        </is>
+      </c>
+      <c r="I561" s="7" t="inlineStr">
+        <is>
+          <t>629</t>
+        </is>
+      </c>
+      <c r="J561" s="7" t="inlineStr">
+        <is>
+          <t>190</t>
+        </is>
+      </c>
+      <c r="K561" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L561" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M561" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="207">
+  <mergeCells count="213">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
@@ -97533,6 +100195,12 @@
     <mergeCell ref="Z496:AB496"/>
     <mergeCell ref="AC496:AE496"/>
     <mergeCell ref="AF496:AH496"/>
+    <mergeCell ref="AI496:AK496"/>
+    <mergeCell ref="A529:A530"/>
+    <mergeCell ref="B529:D529"/>
+    <mergeCell ref="E529:G529"/>
+    <mergeCell ref="H529:J529"/>
+    <mergeCell ref="K529:M529"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
